--- a/raw_data/20200818_saline/20200818_Sensor1_Test_23.xlsx
+++ b/raw_data/20200818_saline/20200818_Sensor1_Test_23.xlsx
@@ -1,2367 +1,2783 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <workbookPr date1904="true"/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="24430"/>
+  <workbookPr date1904="1" defaultThemeVersion="166925"/>
+  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+    <mc:Choice Requires="x15">
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="E:\Dropbox (GaTech)\Lab files\code\Impedance_fit\raw_data\20200818_saline\"/>
+    </mc:Choice>
+  </mc:AlternateContent>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{7B7FD7EA-3C07-4A9B-B641-B5544C3F9A04}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <bookViews>
+    <workbookView xWindow="2240" yWindow="2240" windowWidth="28800" windowHeight="15460" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+  </bookViews>
   <sheets>
     <sheet name="sheet1" sheetId="1" r:id="rId1"/>
   </sheets>
+  <calcPr calcId="0"/>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <si>
-    <t>Inf</t>
-  </si>
-  <si>
-    <t>-Inf</t>
-  </si>
-  <si>
-    <t>#NV</t>
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="85" uniqueCount="85">
+  <si>
+    <t>Untitled</t>
+  </si>
+  <si>
+    <t>Untitled 1</t>
+  </si>
+  <si>
+    <t>Untitled 2</t>
+  </si>
+  <si>
+    <t>Untitled 3</t>
+  </si>
+  <si>
+    <t>Untitled 4</t>
+  </si>
+  <si>
+    <t>Untitled 5</t>
+  </si>
+  <si>
+    <t>Untitled 6</t>
+  </si>
+  <si>
+    <t>Untitled 7</t>
+  </si>
+  <si>
+    <t>Untitled 8</t>
+  </si>
+  <si>
+    <t>Untitled 9</t>
+  </si>
+  <si>
+    <t>Untitled 10</t>
+  </si>
+  <si>
+    <t>Untitled 11</t>
+  </si>
+  <si>
+    <t>Untitled 12</t>
+  </si>
+  <si>
+    <t>Untitled 13</t>
+  </si>
+  <si>
+    <t>Untitled 14</t>
+  </si>
+  <si>
+    <t>Untitled 15</t>
+  </si>
+  <si>
+    <t>Untitled 16</t>
+  </si>
+  <si>
+    <t>Untitled 17</t>
+  </si>
+  <si>
+    <t>Untitled 18</t>
+  </si>
+  <si>
+    <t>Untitled 19</t>
+  </si>
+  <si>
+    <t>Untitled 20</t>
+  </si>
+  <si>
+    <t>Untitled 21</t>
+  </si>
+  <si>
+    <t>Untitled 22</t>
+  </si>
+  <si>
+    <t>Untitled 23</t>
+  </si>
+  <si>
+    <t>Untitled 24</t>
+  </si>
+  <si>
+    <t>Untitled 25</t>
+  </si>
+  <si>
+    <t>Untitled 26</t>
+  </si>
+  <si>
+    <t>Untitled 27</t>
+  </si>
+  <si>
+    <t>Untitled 28</t>
+  </si>
+  <si>
+    <t>Untitled 29</t>
+  </si>
+  <si>
+    <t>Untitled 30</t>
+  </si>
+  <si>
+    <t>Untitled 31</t>
+  </si>
+  <si>
+    <t>Untitled 32</t>
+  </si>
+  <si>
+    <t>Untitled 33</t>
+  </si>
+  <si>
+    <t>Untitled 34</t>
+  </si>
+  <si>
+    <t>Untitled 35</t>
+  </si>
+  <si>
+    <t>Untitled 36</t>
+  </si>
+  <si>
+    <t>Untitled 37</t>
+  </si>
+  <si>
+    <t>Untitled 38</t>
+  </si>
+  <si>
+    <t>Untitled 39</t>
+  </si>
+  <si>
+    <t>Untitled 40</t>
+  </si>
+  <si>
+    <t>Untitled 41</t>
+  </si>
+  <si>
+    <t>Untitled 42</t>
+  </si>
+  <si>
+    <t>Untitled 43</t>
+  </si>
+  <si>
+    <t>Untitled 44</t>
+  </si>
+  <si>
+    <t>Untitled 45</t>
+  </si>
+  <si>
+    <t>Untitled 46</t>
+  </si>
+  <si>
+    <t>Untitled 47</t>
+  </si>
+  <si>
+    <t>Untitled 48</t>
+  </si>
+  <si>
+    <t>Untitled 49</t>
+  </si>
+  <si>
+    <t>Untitled 50</t>
+  </si>
+  <si>
+    <t>Untitled 51</t>
+  </si>
+  <si>
+    <t>Untitled 52</t>
+  </si>
+  <si>
+    <t>Untitled 53</t>
+  </si>
+  <si>
+    <t>Untitled 54</t>
+  </si>
+  <si>
+    <t>Untitled 55</t>
+  </si>
+  <si>
+    <t>Untitled 56</t>
+  </si>
+  <si>
+    <t>Untitled 57</t>
+  </si>
+  <si>
+    <t>Untitled 58</t>
+  </si>
+  <si>
+    <t>Untitled 59</t>
+  </si>
+  <si>
+    <t>Untitled 60</t>
+  </si>
+  <si>
+    <t>Untitled 61</t>
+  </si>
+  <si>
+    <t>Untitled 62</t>
+  </si>
+  <si>
+    <t>Untitled 63</t>
+  </si>
+  <si>
+    <t>Untitled 64</t>
+  </si>
+  <si>
+    <t>Untitled 65</t>
+  </si>
+  <si>
+    <t>Untitled 66</t>
+  </si>
+  <si>
+    <t>Untitled 67</t>
+  </si>
+  <si>
+    <t>Untitled 68</t>
+  </si>
+  <si>
+    <t>Untitled 69</t>
+  </si>
+  <si>
+    <t>Untitled 70</t>
+  </si>
+  <si>
+    <t>Untitled 71</t>
+  </si>
+  <si>
+    <t>Untitled 72</t>
+  </si>
+  <si>
+    <t>Untitled 73</t>
+  </si>
+  <si>
+    <t>Untitled 74</t>
+  </si>
+  <si>
+    <t>Untitled 75</t>
+  </si>
+  <si>
+    <t>Untitled 76</t>
+  </si>
+  <si>
+    <t>Untitled 77</t>
+  </si>
+  <si>
+    <t>Untitled 78</t>
+  </si>
+  <si>
+    <t>Untitled 79</t>
+  </si>
+  <si>
+    <t>Untitled 80</t>
+  </si>
+  <si>
+    <t>Untitled 81</t>
+  </si>
+  <si>
+    <t>Untitled 82</t>
+  </si>
+  <si>
+    <t>Untitled 83</t>
+  </si>
+  <si>
+    <t>Untitled 84</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <numFmts count="0"> </numFmts>
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
   <fonts count="1">
-    <font/>
+    <font>
+      <sz val="11"/>
+      <name val="Calibri"/>
+    </font>
   </fonts>
-  <fills count="1">
-    <fill/>
+  <fills count="2">
+    <fill>
+      <patternFill patternType="none"/>
+    </fill>
+    <fill>
+      <patternFill patternType="gray125"/>
+    </fill>
   </fills>
   <borders count="1">
-    <border/>
+    <border>
+      <left/>
+      <right/>
+      <top/>
+      <bottom/>
+      <diagonal/>
+    </border>
   </borders>
+  <cellStyleXfs count="1">
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
+  </cellStyleXfs>
   <cellXfs count="2">
-    <xf numFmtId="0"/>
-    <xf numFmtId="0" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="left"/>
     </xf>
   </cellXfs>
+  <cellStyles count="1">
+    <cellStyle name="Normal" xfId="0" builtinId="0"/>
+  </cellStyles>
+  <dxfs count="0"/>
+  <tableStyles count="0" defaultTableStyle="TableStyleMedium2" defaultPivotStyle="PivotStyleLight16"/>
+  <extLst>
+    <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{EB79DEF2-80B8-43e5-95BD-54CBDDF9020C}">
+      <x14:slicerStyles defaultSlicerStyle="SlicerStyleLight1"/>
+    </ext>
+    <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{9260A510-F301-46a8-8635-F512D64BE5F5}">
+      <x15:timelineStyles defaultTimelineStyle="TimeSlicerStyleLight1"/>
+    </ext>
+  </extLst>
 </styleSheet>
 </file>
 
+<file path=xl/theme/theme1.xml><?xml version="1.0" encoding="utf-8"?>
+<a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" name="Office Theme">
+  <a:themeElements>
+    <a:clrScheme name="Office">
+      <a:dk1>
+        <a:sysClr val="windowText" lastClr="000000"/>
+      </a:dk1>
+      <a:lt1>
+        <a:sysClr val="window" lastClr="FFFFFF"/>
+      </a:lt1>
+      <a:dk2>
+        <a:srgbClr val="44546A"/>
+      </a:dk2>
+      <a:lt2>
+        <a:srgbClr val="E7E6E6"/>
+      </a:lt2>
+      <a:accent1>
+        <a:srgbClr val="4472C4"/>
+      </a:accent1>
+      <a:accent2>
+        <a:srgbClr val="ED7D31"/>
+      </a:accent2>
+      <a:accent3>
+        <a:srgbClr val="A5A5A5"/>
+      </a:accent3>
+      <a:accent4>
+        <a:srgbClr val="FFC000"/>
+      </a:accent4>
+      <a:accent5>
+        <a:srgbClr val="5B9BD5"/>
+      </a:accent5>
+      <a:accent6>
+        <a:srgbClr val="70AD47"/>
+      </a:accent6>
+      <a:hlink>
+        <a:srgbClr val="0563C1"/>
+      </a:hlink>
+      <a:folHlink>
+        <a:srgbClr val="954F72"/>
+      </a:folHlink>
+    </a:clrScheme>
+    <a:fontScheme name="Office">
+      <a:majorFont>
+        <a:latin typeface="Calibri Light" panose="020F0302020204030204"/>
+        <a:ea typeface=""/>
+        <a:cs typeface=""/>
+        <a:font script="Jpan" typeface="游ゴシック Light"/>
+        <a:font script="Hang" typeface="맑은 고딕"/>
+        <a:font script="Hans" typeface="等线 Light"/>
+        <a:font script="Hant" typeface="新細明體"/>
+        <a:font script="Arab" typeface="Times New Roman"/>
+        <a:font script="Hebr" typeface="Times New Roman"/>
+        <a:font script="Thai" typeface="Tahoma"/>
+        <a:font script="Ethi" typeface="Nyala"/>
+        <a:font script="Beng" typeface="Vrinda"/>
+        <a:font script="Gujr" typeface="Shruti"/>
+        <a:font script="Khmr" typeface="MoolBoran"/>
+        <a:font script="Knda" typeface="Tunga"/>
+        <a:font script="Guru" typeface="Raavi"/>
+        <a:font script="Cans" typeface="Euphemia"/>
+        <a:font script="Cher" typeface="Plantagenet Cherokee"/>
+        <a:font script="Yiii" typeface="Microsoft Yi Baiti"/>
+        <a:font script="Tibt" typeface="Microsoft Himalaya"/>
+        <a:font script="Thaa" typeface="MV Boli"/>
+        <a:font script="Deva" typeface="Mangal"/>
+        <a:font script="Telu" typeface="Gautami"/>
+        <a:font script="Taml" typeface="Latha"/>
+        <a:font script="Syrc" typeface="Estrangelo Edessa"/>
+        <a:font script="Orya" typeface="Kalinga"/>
+        <a:font script="Mlym" typeface="Kartika"/>
+        <a:font script="Laoo" typeface="DokChampa"/>
+        <a:font script="Sinh" typeface="Iskoola Pota"/>
+        <a:font script="Mong" typeface="Mongolian Baiti"/>
+        <a:font script="Viet" typeface="Times New Roman"/>
+        <a:font script="Uigh" typeface="Microsoft Uighur"/>
+        <a:font script="Geor" typeface="Sylfaen"/>
+        <a:font script="Armn" typeface="Arial"/>
+        <a:font script="Bugi" typeface="Leelawadee UI"/>
+        <a:font script="Bopo" typeface="Microsoft JhengHei"/>
+        <a:font script="Java" typeface="Javanese Text"/>
+        <a:font script="Lisu" typeface="Segoe UI"/>
+        <a:font script="Mymr" typeface="Myanmar Text"/>
+        <a:font script="Nkoo" typeface="Ebrima"/>
+        <a:font script="Olck" typeface="Nirmala UI"/>
+        <a:font script="Osma" typeface="Ebrima"/>
+        <a:font script="Phag" typeface="Phagspa"/>
+        <a:font script="Syrn" typeface="Estrangelo Edessa"/>
+        <a:font script="Syrj" typeface="Estrangelo Edessa"/>
+        <a:font script="Syre" typeface="Estrangelo Edessa"/>
+        <a:font script="Sora" typeface="Nirmala UI"/>
+        <a:font script="Tale" typeface="Microsoft Tai Le"/>
+        <a:font script="Talu" typeface="Microsoft New Tai Lue"/>
+        <a:font script="Tfng" typeface="Ebrima"/>
+      </a:majorFont>
+      <a:minorFont>
+        <a:latin typeface="Calibri" panose="020F0502020204030204"/>
+        <a:ea typeface=""/>
+        <a:cs typeface=""/>
+        <a:font script="Jpan" typeface="游ゴシック"/>
+        <a:font script="Hang" typeface="맑은 고딕"/>
+        <a:font script="Hans" typeface="等线"/>
+        <a:font script="Hant" typeface="新細明體"/>
+        <a:font script="Arab" typeface="Arial"/>
+        <a:font script="Hebr" typeface="Arial"/>
+        <a:font script="Thai" typeface="Tahoma"/>
+        <a:font script="Ethi" typeface="Nyala"/>
+        <a:font script="Beng" typeface="Vrinda"/>
+        <a:font script="Gujr" typeface="Shruti"/>
+        <a:font script="Khmr" typeface="DaunPenh"/>
+        <a:font script="Knda" typeface="Tunga"/>
+        <a:font script="Guru" typeface="Raavi"/>
+        <a:font script="Cans" typeface="Euphemia"/>
+        <a:font script="Cher" typeface="Plantagenet Cherokee"/>
+        <a:font script="Yiii" typeface="Microsoft Yi Baiti"/>
+        <a:font script="Tibt" typeface="Microsoft Himalaya"/>
+        <a:font script="Thaa" typeface="MV Boli"/>
+        <a:font script="Deva" typeface="Mangal"/>
+        <a:font script="Telu" typeface="Gautami"/>
+        <a:font script="Taml" typeface="Latha"/>
+        <a:font script="Syrc" typeface="Estrangelo Edessa"/>
+        <a:font script="Orya" typeface="Kalinga"/>
+        <a:font script="Mlym" typeface="Kartika"/>
+        <a:font script="Laoo" typeface="DokChampa"/>
+        <a:font script="Sinh" typeface="Iskoola Pota"/>
+        <a:font script="Mong" typeface="Mongolian Baiti"/>
+        <a:font script="Viet" typeface="Arial"/>
+        <a:font script="Uigh" typeface="Microsoft Uighur"/>
+        <a:font script="Geor" typeface="Sylfaen"/>
+        <a:font script="Armn" typeface="Arial"/>
+        <a:font script="Bugi" typeface="Leelawadee UI"/>
+        <a:font script="Bopo" typeface="Microsoft JhengHei"/>
+        <a:font script="Java" typeface="Javanese Text"/>
+        <a:font script="Lisu" typeface="Segoe UI"/>
+        <a:font script="Mymr" typeface="Myanmar Text"/>
+        <a:font script="Nkoo" typeface="Ebrima"/>
+        <a:font script="Olck" typeface="Nirmala UI"/>
+        <a:font script="Osma" typeface="Ebrima"/>
+        <a:font script="Phag" typeface="Phagspa"/>
+        <a:font script="Syrn" typeface="Estrangelo Edessa"/>
+        <a:font script="Syrj" typeface="Estrangelo Edessa"/>
+        <a:font script="Syre" typeface="Estrangelo Edessa"/>
+        <a:font script="Sora" typeface="Nirmala UI"/>
+        <a:font script="Tale" typeface="Microsoft Tai Le"/>
+        <a:font script="Talu" typeface="Microsoft New Tai Lue"/>
+        <a:font script="Tfng" typeface="Ebrima"/>
+      </a:minorFont>
+    </a:fontScheme>
+    <a:fmtScheme name="Office">
+      <a:fillStyleLst>
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:gradFill rotWithShape="1">
+          <a:gsLst>
+            <a:gs pos="0">
+              <a:schemeClr val="phClr">
+                <a:lumMod val="110000"/>
+                <a:satMod val="105000"/>
+                <a:tint val="67000"/>
+              </a:schemeClr>
+            </a:gs>
+            <a:gs pos="50000">
+              <a:schemeClr val="phClr">
+                <a:lumMod val="105000"/>
+                <a:satMod val="103000"/>
+                <a:tint val="73000"/>
+              </a:schemeClr>
+            </a:gs>
+            <a:gs pos="100000">
+              <a:schemeClr val="phClr">
+                <a:lumMod val="105000"/>
+                <a:satMod val="109000"/>
+                <a:tint val="81000"/>
+              </a:schemeClr>
+            </a:gs>
+          </a:gsLst>
+          <a:lin ang="5400000" scaled="0"/>
+        </a:gradFill>
+        <a:gradFill rotWithShape="1">
+          <a:gsLst>
+            <a:gs pos="0">
+              <a:schemeClr val="phClr">
+                <a:satMod val="103000"/>
+                <a:lumMod val="102000"/>
+                <a:tint val="94000"/>
+              </a:schemeClr>
+            </a:gs>
+            <a:gs pos="50000">
+              <a:schemeClr val="phClr">
+                <a:satMod val="110000"/>
+                <a:lumMod val="100000"/>
+                <a:shade val="100000"/>
+              </a:schemeClr>
+            </a:gs>
+            <a:gs pos="100000">
+              <a:schemeClr val="phClr">
+                <a:lumMod val="99000"/>
+                <a:satMod val="120000"/>
+                <a:shade val="78000"/>
+              </a:schemeClr>
+            </a:gs>
+          </a:gsLst>
+          <a:lin ang="5400000" scaled="0"/>
+        </a:gradFill>
+      </a:fillStyleLst>
+      <a:lnStyleLst>
+        <a:ln w="6350" cap="flat" cmpd="sng" algn="ctr">
+          <a:solidFill>
+            <a:schemeClr val="phClr"/>
+          </a:solidFill>
+          <a:prstDash val="solid"/>
+          <a:miter lim="800000"/>
+        </a:ln>
+        <a:ln w="12700" cap="flat" cmpd="sng" algn="ctr">
+          <a:solidFill>
+            <a:schemeClr val="phClr"/>
+          </a:solidFill>
+          <a:prstDash val="solid"/>
+          <a:miter lim="800000"/>
+        </a:ln>
+        <a:ln w="19050" cap="flat" cmpd="sng" algn="ctr">
+          <a:solidFill>
+            <a:schemeClr val="phClr"/>
+          </a:solidFill>
+          <a:prstDash val="solid"/>
+          <a:miter lim="800000"/>
+        </a:ln>
+      </a:lnStyleLst>
+      <a:effectStyleLst>
+        <a:effectStyle>
+          <a:effectLst/>
+        </a:effectStyle>
+        <a:effectStyle>
+          <a:effectLst/>
+        </a:effectStyle>
+        <a:effectStyle>
+          <a:effectLst>
+            <a:outerShdw blurRad="57150" dist="19050" dir="5400000" algn="ctr" rotWithShape="0">
+              <a:srgbClr val="000000">
+                <a:alpha val="63000"/>
+              </a:srgbClr>
+            </a:outerShdw>
+          </a:effectLst>
+        </a:effectStyle>
+      </a:effectStyleLst>
+      <a:bgFillStyleLst>
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:solidFill>
+          <a:schemeClr val="phClr">
+            <a:tint val="95000"/>
+            <a:satMod val="170000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:gradFill rotWithShape="1">
+          <a:gsLst>
+            <a:gs pos="0">
+              <a:schemeClr val="phClr">
+                <a:tint val="93000"/>
+                <a:satMod val="150000"/>
+                <a:shade val="98000"/>
+                <a:lumMod val="102000"/>
+              </a:schemeClr>
+            </a:gs>
+            <a:gs pos="50000">
+              <a:schemeClr val="phClr">
+                <a:tint val="98000"/>
+                <a:satMod val="130000"/>
+                <a:shade val="90000"/>
+                <a:lumMod val="103000"/>
+              </a:schemeClr>
+            </a:gs>
+            <a:gs pos="100000">
+              <a:schemeClr val="phClr">
+                <a:shade val="63000"/>
+                <a:satMod val="120000"/>
+              </a:schemeClr>
+            </a:gs>
+          </a:gsLst>
+          <a:lin ang="5400000" scaled="0"/>
+        </a:gradFill>
+      </a:bgFillStyleLst>
+    </a:fmtScheme>
+  </a:themeElements>
+  <a:objectDefaults/>
+  <a:extraClrSchemeLst/>
+  <a:extLst>
+    <a:ext uri="{05A4C25C-085E-4340-85A3-A5531E510DB2}">
+      <thm15:themeFamily xmlns:thm15="http://schemas.microsoft.com/office/thememl/2012/main" name="Office Theme" id="{62F939B6-93AF-4DB8-9C6B-D6C7DFDC589F}" vid="{4A3C46E8-61CC-4603-A589-7422A47A8E4A}"/>
+    </a:ext>
+  </a:extLst>
+</a:theme>
+</file>
+
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
+  <dimension ref="A1:CG26"/>
+  <sheetViews>
+    <sheetView tabSelected="1" workbookViewId="0"/>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="14.5"/>
   <sheetData>
-    <row r="1">
-      <c r="A1" t="inlineStr">
-        <is>
-          <t>Untitled</t>
-        </is>
-      </c>
-      <c r="B1" t="inlineStr">
-        <is>
-          <t>Untitled 1</t>
-        </is>
-      </c>
-      <c r="C1" t="inlineStr">
-        <is>
-          <t>Untitled 2</t>
-        </is>
-      </c>
-      <c r="D1" t="inlineStr">
-        <is>
-          <t>Untitled 3</t>
-        </is>
-      </c>
-      <c r="E1" t="inlineStr">
-        <is>
-          <t>Untitled 4</t>
-        </is>
-      </c>
-      <c r="F1" t="inlineStr">
-        <is>
-          <t>Untitled 5</t>
-        </is>
-      </c>
-      <c r="G1" t="inlineStr">
-        <is>
-          <t>Untitled 6</t>
-        </is>
-      </c>
-      <c r="H1" t="inlineStr">
-        <is>
-          <t>Untitled 7</t>
-        </is>
-      </c>
-      <c r="I1" t="inlineStr">
-        <is>
-          <t>Untitled 8</t>
-        </is>
-      </c>
-      <c r="J1" t="inlineStr">
-        <is>
-          <t>Untitled 9</t>
-        </is>
-      </c>
-      <c r="K1" t="inlineStr">
-        <is>
-          <t>Untitled 10</t>
-        </is>
-      </c>
-      <c r="L1" t="inlineStr">
-        <is>
-          <t>Untitled 11</t>
-        </is>
-      </c>
-      <c r="M1" t="inlineStr">
-        <is>
-          <t>Untitled 12</t>
-        </is>
-      </c>
-      <c r="N1" t="inlineStr">
-        <is>
-          <t>Untitled 13</t>
-        </is>
-      </c>
-      <c r="O1" t="inlineStr">
-        <is>
-          <t>Untitled 14</t>
-        </is>
-      </c>
-      <c r="P1" t="inlineStr">
-        <is>
-          <t>Untitled 15</t>
-        </is>
-      </c>
-      <c r="Q1" t="inlineStr">
-        <is>
-          <t>Untitled 16</t>
-        </is>
-      </c>
-      <c r="R1" t="inlineStr">
-        <is>
-          <t>Untitled 17</t>
-        </is>
-      </c>
-      <c r="S1" t="inlineStr">
-        <is>
-          <t>Untitled 18</t>
-        </is>
-      </c>
-      <c r="T1" t="inlineStr">
-        <is>
-          <t>Untitled 19</t>
-        </is>
-      </c>
-      <c r="U1" t="inlineStr">
-        <is>
-          <t>Untitled 20</t>
-        </is>
-      </c>
-      <c r="V1" t="inlineStr">
-        <is>
-          <t>Untitled 21</t>
-        </is>
-      </c>
-      <c r="W1" t="inlineStr">
-        <is>
-          <t>Untitled 22</t>
-        </is>
-      </c>
-      <c r="X1" t="inlineStr">
-        <is>
-          <t>Untitled 23</t>
-        </is>
-      </c>
-      <c r="Y1" t="inlineStr">
-        <is>
-          <t>Untitled 24</t>
-        </is>
-      </c>
-      <c r="Z1" t="inlineStr">
-        <is>
-          <t>Untitled 25</t>
-        </is>
-      </c>
-      <c r="AA1" t="inlineStr">
-        <is>
-          <t>Untitled 26</t>
-        </is>
-      </c>
-      <c r="AB1" t="inlineStr">
-        <is>
-          <t>Untitled 27</t>
-        </is>
-      </c>
-      <c r="AC1" t="inlineStr">
-        <is>
-          <t>Untitled 28</t>
-        </is>
-      </c>
-      <c r="AD1" t="inlineStr">
-        <is>
-          <t>Untitled 29</t>
-        </is>
-      </c>
-      <c r="AE1" t="inlineStr">
-        <is>
-          <t>Untitled 30</t>
-        </is>
-      </c>
-      <c r="AF1" t="inlineStr">
-        <is>
-          <t>Untitled 31</t>
-        </is>
-      </c>
-      <c r="AG1" t="inlineStr">
-        <is>
-          <t>Untitled 32</t>
-        </is>
-      </c>
-      <c r="AH1" t="inlineStr">
-        <is>
-          <t>Untitled 33</t>
-        </is>
-      </c>
-      <c r="AI1" t="inlineStr">
-        <is>
-          <t>Untitled 34</t>
-        </is>
-      </c>
-      <c r="AJ1" t="inlineStr">
-        <is>
-          <t>Untitled 35</t>
-        </is>
-      </c>
-      <c r="AK1" t="inlineStr">
-        <is>
-          <t>Untitled 36</t>
-        </is>
-      </c>
-      <c r="AL1" t="inlineStr">
-        <is>
-          <t>Untitled 37</t>
-        </is>
-      </c>
-      <c r="AM1" t="inlineStr">
-        <is>
-          <t>Untitled 38</t>
-        </is>
-      </c>
-      <c r="AN1" t="inlineStr">
-        <is>
-          <t>Untitled 39</t>
-        </is>
-      </c>
-      <c r="AO1" t="inlineStr">
-        <is>
-          <t>Untitled 40</t>
-        </is>
-      </c>
-      <c r="AP1" t="inlineStr">
-        <is>
-          <t>Untitled 41</t>
-        </is>
-      </c>
-      <c r="AQ1" t="inlineStr">
-        <is>
-          <t>Untitled 42</t>
-        </is>
-      </c>
-      <c r="AR1" t="inlineStr">
-        <is>
-          <t>Untitled 43</t>
-        </is>
-      </c>
-      <c r="AS1" t="inlineStr">
-        <is>
-          <t>Untitled 44</t>
-        </is>
-      </c>
-      <c r="AT1" t="inlineStr">
-        <is>
-          <t>Untitled 45</t>
-        </is>
-      </c>
-      <c r="AU1" t="inlineStr">
-        <is>
-          <t>Untitled 46</t>
-        </is>
-      </c>
-      <c r="AV1" t="inlineStr">
-        <is>
-          <t>Untitled 47</t>
-        </is>
-      </c>
-      <c r="AW1" t="inlineStr">
-        <is>
-          <t>Untitled 48</t>
-        </is>
-      </c>
-      <c r="AX1" t="inlineStr">
-        <is>
-          <t>Untitled 49</t>
-        </is>
-      </c>
-      <c r="AY1" t="inlineStr">
-        <is>
-          <t>Untitled 50</t>
-        </is>
-      </c>
-      <c r="AZ1" t="inlineStr">
-        <is>
-          <t>Untitled 51</t>
-        </is>
-      </c>
-      <c r="BA1" t="inlineStr">
-        <is>
-          <t>Untitled 52</t>
-        </is>
-      </c>
-      <c r="BB1" t="inlineStr">
-        <is>
-          <t>Untitled 53</t>
-        </is>
-      </c>
-      <c r="BC1" t="inlineStr">
-        <is>
-          <t>Untitled 54</t>
-        </is>
-      </c>
-      <c r="BD1" t="inlineStr">
-        <is>
-          <t>Untitled 55</t>
-        </is>
-      </c>
-      <c r="BE1" t="inlineStr">
-        <is>
-          <t>Untitled 56</t>
-        </is>
-      </c>
-      <c r="BF1" t="inlineStr">
-        <is>
-          <t>Untitled 57</t>
-        </is>
-      </c>
-      <c r="BG1" t="inlineStr">
-        <is>
-          <t>Untitled 58</t>
-        </is>
-      </c>
-      <c r="BH1" t="inlineStr">
-        <is>
-          <t>Untitled 59</t>
-        </is>
-      </c>
-      <c r="BI1" t="inlineStr">
-        <is>
-          <t>Untitled 60</t>
-        </is>
-      </c>
-      <c r="BJ1" t="inlineStr">
-        <is>
-          <t>Untitled 61</t>
-        </is>
-      </c>
-      <c r="BK1" t="inlineStr">
-        <is>
-          <t>Untitled 62</t>
-        </is>
-      </c>
-      <c r="BL1" t="inlineStr">
-        <is>
-          <t>Untitled 63</t>
-        </is>
-      </c>
-      <c r="BM1" t="inlineStr">
-        <is>
-          <t>Untitled 64</t>
-        </is>
-      </c>
-      <c r="BN1" t="inlineStr">
-        <is>
-          <t>Untitled 65</t>
-        </is>
-      </c>
-      <c r="BO1" t="inlineStr">
-        <is>
-          <t>Untitled 66</t>
-        </is>
-      </c>
-      <c r="BP1" t="inlineStr">
-        <is>
-          <t>Untitled 67</t>
-        </is>
-      </c>
-      <c r="BQ1" t="inlineStr">
-        <is>
-          <t>Untitled 68</t>
-        </is>
-      </c>
-      <c r="BR1" t="inlineStr">
-        <is>
-          <t>Untitled 69</t>
-        </is>
-      </c>
-      <c r="BS1" t="inlineStr">
-        <is>
-          <t>Untitled 70</t>
-        </is>
-      </c>
-      <c r="BT1" t="inlineStr">
-        <is>
-          <t>Untitled 71</t>
-        </is>
-      </c>
-      <c r="BU1" t="inlineStr">
-        <is>
-          <t>Untitled 72</t>
-        </is>
-      </c>
-      <c r="BV1" t="inlineStr">
-        <is>
-          <t>Untitled 73</t>
-        </is>
-      </c>
-      <c r="BW1" t="inlineStr">
-        <is>
-          <t>Untitled 74</t>
-        </is>
-      </c>
-      <c r="BX1" t="inlineStr">
-        <is>
-          <t>Untitled 75</t>
-        </is>
-      </c>
-      <c r="BY1" t="inlineStr">
-        <is>
-          <t>Untitled 76</t>
-        </is>
-      </c>
-      <c r="BZ1" t="inlineStr">
-        <is>
-          <t>Untitled 77</t>
-        </is>
-      </c>
-      <c r="CA1" t="inlineStr">
-        <is>
-          <t>Untitled 78</t>
-        </is>
-      </c>
-      <c r="CB1" t="inlineStr">
-        <is>
-          <t>Untitled 79</t>
-        </is>
-      </c>
-      <c r="CC1" t="inlineStr">
-        <is>
-          <t>Untitled 80</t>
-        </is>
-      </c>
-      <c r="CD1" t="inlineStr">
-        <is>
-          <t>Untitled 81</t>
-        </is>
-      </c>
-      <c r="CE1" t="inlineStr">
-        <is>
-          <t>Untitled 82</t>
-        </is>
-      </c>
-      <c r="CF1" t="inlineStr">
-        <is>
-          <t>Untitled 83</t>
-        </is>
-      </c>
-      <c r="CG1" t="inlineStr">
-        <is>
-          <t>Untitled 84</t>
-        </is>
+    <row r="1" spans="1:85">
+      <c r="A1" t="s">
+        <v>0</v>
+      </c>
+      <c r="B1" t="s">
+        <v>1</v>
+      </c>
+      <c r="C1" t="s">
+        <v>2</v>
+      </c>
+      <c r="D1" t="s">
+        <v>3</v>
+      </c>
+      <c r="E1" t="s">
+        <v>4</v>
+      </c>
+      <c r="F1" t="s">
+        <v>5</v>
+      </c>
+      <c r="G1" t="s">
+        <v>6</v>
+      </c>
+      <c r="H1" t="s">
+        <v>7</v>
+      </c>
+      <c r="I1" t="s">
+        <v>8</v>
+      </c>
+      <c r="J1" t="s">
+        <v>9</v>
+      </c>
+      <c r="K1" t="s">
+        <v>10</v>
+      </c>
+      <c r="L1" t="s">
+        <v>11</v>
+      </c>
+      <c r="M1" t="s">
+        <v>12</v>
+      </c>
+      <c r="N1" t="s">
+        <v>13</v>
+      </c>
+      <c r="O1" t="s">
+        <v>14</v>
+      </c>
+      <c r="P1" t="s">
+        <v>15</v>
+      </c>
+      <c r="Q1" t="s">
+        <v>16</v>
+      </c>
+      <c r="R1" t="s">
+        <v>17</v>
+      </c>
+      <c r="S1" t="s">
+        <v>18</v>
+      </c>
+      <c r="T1" t="s">
+        <v>19</v>
+      </c>
+      <c r="U1" t="s">
+        <v>20</v>
+      </c>
+      <c r="V1" t="s">
+        <v>21</v>
+      </c>
+      <c r="W1" t="s">
+        <v>22</v>
+      </c>
+      <c r="X1" t="s">
+        <v>23</v>
+      </c>
+      <c r="Y1" t="s">
+        <v>24</v>
+      </c>
+      <c r="Z1" t="s">
+        <v>25</v>
+      </c>
+      <c r="AA1" t="s">
+        <v>26</v>
+      </c>
+      <c r="AB1" t="s">
+        <v>27</v>
+      </c>
+      <c r="AC1" t="s">
+        <v>28</v>
+      </c>
+      <c r="AD1" t="s">
+        <v>29</v>
+      </c>
+      <c r="AE1" t="s">
+        <v>30</v>
+      </c>
+      <c r="AF1" t="s">
+        <v>31</v>
+      </c>
+      <c r="AG1" t="s">
+        <v>32</v>
+      </c>
+      <c r="AH1" t="s">
+        <v>33</v>
+      </c>
+      <c r="AI1" t="s">
+        <v>34</v>
+      </c>
+      <c r="AJ1" t="s">
+        <v>35</v>
+      </c>
+      <c r="AK1" t="s">
+        <v>36</v>
+      </c>
+      <c r="AL1" t="s">
+        <v>37</v>
+      </c>
+      <c r="AM1" t="s">
+        <v>38</v>
+      </c>
+      <c r="AN1" t="s">
+        <v>39</v>
+      </c>
+      <c r="AO1" t="s">
+        <v>40</v>
+      </c>
+      <c r="AP1" t="s">
+        <v>41</v>
+      </c>
+      <c r="AQ1" t="s">
+        <v>42</v>
+      </c>
+      <c r="AR1" t="s">
+        <v>43</v>
+      </c>
+      <c r="AS1" t="s">
+        <v>44</v>
+      </c>
+      <c r="AT1" t="s">
+        <v>45</v>
+      </c>
+      <c r="AU1" t="s">
+        <v>46</v>
+      </c>
+      <c r="AV1" t="s">
+        <v>47</v>
+      </c>
+      <c r="AW1" t="s">
+        <v>48</v>
+      </c>
+      <c r="AX1" t="s">
+        <v>49</v>
+      </c>
+      <c r="AY1" t="s">
+        <v>50</v>
+      </c>
+      <c r="AZ1" t="s">
+        <v>51</v>
+      </c>
+      <c r="BA1" t="s">
+        <v>52</v>
+      </c>
+      <c r="BB1" t="s">
+        <v>53</v>
+      </c>
+      <c r="BC1" t="s">
+        <v>54</v>
+      </c>
+      <c r="BD1" t="s">
+        <v>55</v>
+      </c>
+      <c r="BE1" t="s">
+        <v>56</v>
+      </c>
+      <c r="BF1" t="s">
+        <v>57</v>
+      </c>
+      <c r="BG1" t="s">
+        <v>58</v>
+      </c>
+      <c r="BH1" t="s">
+        <v>59</v>
+      </c>
+      <c r="BI1" t="s">
+        <v>60</v>
+      </c>
+      <c r="BJ1" t="s">
+        <v>61</v>
+      </c>
+      <c r="BK1" t="s">
+        <v>62</v>
+      </c>
+      <c r="BL1" t="s">
+        <v>63</v>
+      </c>
+      <c r="BM1" t="s">
+        <v>64</v>
+      </c>
+      <c r="BN1" t="s">
+        <v>65</v>
+      </c>
+      <c r="BO1" t="s">
+        <v>66</v>
+      </c>
+      <c r="BP1" t="s">
+        <v>67</v>
+      </c>
+      <c r="BQ1" t="s">
+        <v>68</v>
+      </c>
+      <c r="BR1" t="s">
+        <v>69</v>
+      </c>
+      <c r="BS1" t="s">
+        <v>70</v>
+      </c>
+      <c r="BT1" t="s">
+        <v>71</v>
+      </c>
+      <c r="BU1" t="s">
+        <v>72</v>
+      </c>
+      <c r="BV1" t="s">
+        <v>73</v>
+      </c>
+      <c r="BW1" t="s">
+        <v>74</v>
+      </c>
+      <c r="BX1" t="s">
+        <v>75</v>
+      </c>
+      <c r="BY1" t="s">
+        <v>76</v>
+      </c>
+      <c r="BZ1" t="s">
+        <v>77</v>
+      </c>
+      <c r="CA1" t="s">
+        <v>78</v>
+      </c>
+      <c r="CB1" t="s">
+        <v>79</v>
+      </c>
+      <c r="CC1" t="s">
+        <v>80</v>
+      </c>
+      <c r="CD1" t="s">
+        <v>81</v>
+      </c>
+      <c r="CE1" t="s">
+        <v>82</v>
+      </c>
+      <c r="CF1" t="s">
+        <v>83</v>
+      </c>
+      <c r="CG1" t="s">
+        <v>84</v>
       </c>
     </row>
-    <row r="2">
+    <row r="2" spans="1:85">
       <c r="A2" s="1">
         <v>19986.652403</v>
       </c>
       <c r="B2" s="1">
-        <v>5.551848</v>
+        <v>5.5518479999999997</v>
       </c>
       <c r="C2" s="1">
-        <v>895.443000</v>
+        <v>895.44299999999998</v>
       </c>
       <c r="D2" s="1">
-        <v>-200.268000</v>
+        <v>-200.268</v>
       </c>
       <c r="E2" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="F2" s="1">
-        <v>19996.725647</v>
+        <v>19996.725646999999</v>
       </c>
       <c r="G2" s="1">
         <v>5.554646</v>
       </c>
       <c r="H2" s="1">
-        <v>913.191000</v>
+        <v>913.19100000000003</v>
       </c>
       <c r="I2" s="1">
-        <v>-168.744000</v>
+        <v>-168.744</v>
       </c>
       <c r="J2" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="K2" s="1">
-        <v>20007.471504</v>
+        <v>20007.471504000001</v>
       </c>
       <c r="L2" s="1">
-        <v>5.557631</v>
+        <v>5.5576309999999998</v>
       </c>
       <c r="M2" s="1">
-        <v>936.310000</v>
+        <v>936.31</v>
       </c>
       <c r="N2" s="1">
-        <v>-119.691000</v>
+        <v>-119.691</v>
       </c>
       <c r="O2" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="P2" s="1">
-        <v>20017.664290</v>
+        <v>20017.664290000001</v>
       </c>
       <c r="Q2" s="1">
-        <v>5.560462</v>
+        <v>5.5604620000000002</v>
       </c>
       <c r="R2" s="1">
-        <v>942.757000</v>
+        <v>942.75699999999995</v>
       </c>
       <c r="S2" s="1">
-        <v>-103.388000</v>
+        <v>-103.38800000000001</v>
       </c>
       <c r="T2" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="U2" s="1">
-        <v>20028.341140</v>
+        <v>20028.34114</v>
       </c>
       <c r="V2" s="1">
         <v>5.563428</v>
       </c>
       <c r="W2" s="1">
-        <v>949.013000</v>
+        <v>949.01300000000003</v>
       </c>
       <c r="X2" s="1">
-        <v>-88.493700</v>
+        <v>-88.493700000000004</v>
       </c>
       <c r="Y2" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="Z2" s="1">
-        <v>20038.488790</v>
+        <v>20038.488789999999</v>
       </c>
       <c r="AA2" s="1">
-        <v>5.566247</v>
+        <v>5.5662469999999997</v>
       </c>
       <c r="AB2" s="1">
-        <v>956.191000</v>
+        <v>956.19100000000003</v>
       </c>
       <c r="AC2" s="1">
-        <v>-77.006700</v>
+        <v>-77.006699999999995</v>
       </c>
       <c r="AD2" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="AE2" s="1">
-        <v>20048.679099</v>
+        <v>20048.679099000001</v>
       </c>
       <c r="AF2" s="1">
-        <v>5.569078</v>
+        <v>5.5690780000000002</v>
       </c>
       <c r="AG2" s="1">
-        <v>960.817000</v>
+        <v>960.81700000000001</v>
       </c>
       <c r="AH2" s="1">
-        <v>-74.888300</v>
+        <v>-74.888300000000001</v>
       </c>
       <c r="AI2" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="AJ2" s="1">
-        <v>20058.790572</v>
+        <v>20058.790572000002</v>
       </c>
       <c r="AK2" s="1">
-        <v>5.571886</v>
+        <v>5.5718860000000001</v>
       </c>
       <c r="AL2" s="1">
-        <v>967.947000</v>
+        <v>967.947</v>
       </c>
       <c r="AM2" s="1">
-        <v>-79.839100</v>
+        <v>-79.839100000000002</v>
       </c>
       <c r="AN2" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="AO2" s="1">
-        <v>20069.054254</v>
+        <v>20069.054253999999</v>
       </c>
       <c r="AP2" s="1">
-        <v>5.574737</v>
+        <v>5.5747369999999998</v>
       </c>
       <c r="AQ2" s="1">
-        <v>976.078000</v>
+        <v>976.07799999999997</v>
       </c>
       <c r="AR2" s="1">
-        <v>-91.599400</v>
+        <v>-91.599400000000003</v>
       </c>
       <c r="AS2" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="AT2" s="1">
-        <v>20079.983103</v>
+        <v>20079.983102999999</v>
       </c>
       <c r="AU2" s="1">
-        <v>5.577773</v>
+        <v>5.5777729999999996</v>
       </c>
       <c r="AV2" s="1">
-        <v>986.005000</v>
+        <v>986.005</v>
       </c>
       <c r="AW2" s="1">
-        <v>-109.520000</v>
+        <v>-109.52</v>
       </c>
       <c r="AX2" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="AY2" s="1">
         <v>20090.756707</v>
       </c>
       <c r="AZ2" s="1">
-        <v>5.580766</v>
+        <v>5.5807659999999997</v>
       </c>
       <c r="BA2" s="1">
-        <v>994.344000</v>
+        <v>994.34400000000005</v>
       </c>
       <c r="BB2" s="1">
-        <v>-125.290000</v>
+        <v>-125.29</v>
       </c>
       <c r="BC2" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="BD2" s="1">
-        <v>20101.786244</v>
+        <v>20101.786243999999</v>
       </c>
       <c r="BE2" s="1">
-        <v>5.583830</v>
+        <v>5.5838299999999998</v>
       </c>
       <c r="BF2" s="1">
-        <v>1033.240000</v>
+        <v>1033.24</v>
       </c>
       <c r="BG2" s="1">
-        <v>-197.871000</v>
+        <v>-197.87100000000001</v>
       </c>
       <c r="BH2" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="BI2" s="1">
-        <v>20112.743364</v>
+        <v>20112.743364000002</v>
       </c>
       <c r="BJ2" s="1">
-        <v>5.586873</v>
+        <v>5.5868729999999998</v>
       </c>
       <c r="BK2" s="1">
-        <v>1100.270000</v>
+        <v>1100.27</v>
       </c>
       <c r="BL2" s="1">
-        <v>-315.509000</v>
+        <v>-315.50900000000001</v>
       </c>
       <c r="BM2" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="BN2" s="1">
-        <v>20123.447540</v>
+        <v>20123.447540000001</v>
       </c>
       <c r="BO2" s="1">
-        <v>5.589847</v>
+        <v>5.5898469999999998</v>
       </c>
       <c r="BP2" s="1">
-        <v>1208.950000</v>
+        <v>1208.95</v>
       </c>
       <c r="BQ2" s="1">
-        <v>-501.281000</v>
+        <v>-501.28100000000001</v>
       </c>
       <c r="BR2" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="BS2" s="1">
-        <v>20134.231049</v>
+        <v>20134.231049000002</v>
       </c>
       <c r="BT2" s="1">
-        <v>5.592842</v>
+        <v>5.5928420000000001</v>
       </c>
       <c r="BU2" s="1">
-        <v>1331.560000</v>
+        <v>1331.56</v>
       </c>
       <c r="BV2" s="1">
-        <v>-705.422000</v>
+        <v>-705.42200000000003</v>
       </c>
       <c r="BW2" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="BX2" s="1">
         <v>20145.170842</v>
       </c>
       <c r="BY2" s="1">
-        <v>5.595881</v>
+        <v>5.5958810000000003</v>
       </c>
       <c r="BZ2" s="1">
-        <v>1468.530000</v>
+        <v>1468.53</v>
       </c>
       <c r="CA2" s="1">
-        <v>-923.185000</v>
+        <v>-923.18499999999995</v>
       </c>
       <c r="CB2" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="CC2" s="1">
-        <v>20156.451322</v>
+        <v>20156.451322000001</v>
       </c>
       <c r="CD2" s="1">
-        <v>5.599014</v>
+        <v>5.5990140000000004</v>
       </c>
       <c r="CE2" s="1">
-        <v>1830.210000</v>
+        <v>1830.21</v>
       </c>
       <c r="CF2" s="1">
-        <v>-1440.580000</v>
+        <v>-1440.58</v>
       </c>
       <c r="CG2" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
     </row>
-    <row r="3">
+    <row r="3" spans="1:85">
       <c r="A3" s="1">
         <v>19987.039803</v>
       </c>
       <c r="B3" s="1">
-        <v>5.551956</v>
+        <v>5.5519559999999997</v>
       </c>
       <c r="C3" s="1">
-        <v>895.431000</v>
+        <v>895.43100000000004</v>
       </c>
       <c r="D3" s="1">
-        <v>-200.141000</v>
+        <v>-200.14099999999999</v>
       </c>
       <c r="E3" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="F3" s="1">
         <v>19997.373421</v>
       </c>
       <c r="G3" s="1">
-        <v>5.554826</v>
+        <v>5.5548260000000003</v>
       </c>
       <c r="H3" s="1">
-        <v>913.397000</v>
+        <v>913.39700000000005</v>
       </c>
       <c r="I3" s="1">
-        <v>-168.913000</v>
+        <v>-168.91300000000001</v>
       </c>
       <c r="J3" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="K3" s="1">
-        <v>20007.579636</v>
+        <v>20007.579635999999</v>
       </c>
       <c r="L3" s="1">
-        <v>5.557661</v>
+        <v>5.5576610000000004</v>
       </c>
       <c r="M3" s="1">
-        <v>936.129000</v>
+        <v>936.12900000000002</v>
       </c>
       <c r="N3" s="1">
-        <v>-119.599000</v>
+        <v>-119.599</v>
       </c>
       <c r="O3" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="P3" s="1">
-        <v>20018.091841</v>
+        <v>20018.091841000001</v>
       </c>
       <c r="Q3" s="1">
         <v>5.560581</v>
       </c>
       <c r="R3" s="1">
-        <v>942.780000</v>
+        <v>942.78</v>
       </c>
       <c r="S3" s="1">
-        <v>-103.358000</v>
+        <v>-103.358</v>
       </c>
       <c r="T3" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="U3" s="1">
         <v>20028.687844</v>
       </c>
       <c r="V3" s="1">
-        <v>5.563524</v>
+        <v>5.5635240000000001</v>
       </c>
       <c r="W3" s="1">
-        <v>949.049000</v>
+        <v>949.04899999999998</v>
       </c>
       <c r="X3" s="1">
-        <v>-88.351700</v>
+        <v>-88.351699999999994</v>
       </c>
       <c r="Y3" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="Z3" s="1">
-        <v>20038.837975</v>
+        <v>20038.837974999999</v>
       </c>
       <c r="AA3" s="1">
         <v>5.566344</v>
       </c>
       <c r="AB3" s="1">
-        <v>956.097000</v>
+        <v>956.09699999999998</v>
       </c>
       <c r="AC3" s="1">
-        <v>-76.969400</v>
+        <v>-76.969399999999993</v>
       </c>
       <c r="AD3" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="AE3" s="1">
-        <v>20049.058042</v>
+        <v>20049.058042000001</v>
       </c>
       <c r="AF3" s="1">
-        <v>5.569183</v>
+        <v>5.5691829999999998</v>
       </c>
       <c r="AG3" s="1">
-        <v>960.787000</v>
+        <v>960.78700000000003</v>
       </c>
       <c r="AH3" s="1">
-        <v>-74.890400</v>
+        <v>-74.8904</v>
       </c>
       <c r="AI3" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="AJ3" s="1">
-        <v>20059.204203</v>
+        <v>20059.204203000001</v>
       </c>
       <c r="AK3" s="1">
-        <v>5.572001</v>
+        <v>5.5720010000000002</v>
       </c>
       <c r="AL3" s="1">
-        <v>967.964000</v>
+        <v>967.96400000000006</v>
       </c>
       <c r="AM3" s="1">
-        <v>-79.828700</v>
+        <v>-79.828699999999998</v>
       </c>
       <c r="AN3" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="AO3" s="1">
-        <v>20069.469902</v>
+        <v>20069.469902000001</v>
       </c>
       <c r="AP3" s="1">
-        <v>5.574853</v>
+        <v>5.5748530000000001</v>
       </c>
       <c r="AQ3" s="1">
-        <v>976.078000</v>
+        <v>976.07799999999997</v>
       </c>
       <c r="AR3" s="1">
-        <v>-91.627800</v>
+        <v>-91.627799999999993</v>
       </c>
       <c r="AS3" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="AT3" s="1">
         <v>20080.094716</v>
       </c>
       <c r="AU3" s="1">
-        <v>5.577804</v>
+        <v>5.5778040000000004</v>
       </c>
       <c r="AV3" s="1">
-        <v>986.005000</v>
+        <v>986.005</v>
       </c>
       <c r="AW3" s="1">
-        <v>-109.510000</v>
+        <v>-109.51</v>
       </c>
       <c r="AX3" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="AY3" s="1">
-        <v>20091.192688</v>
+        <v>20091.192687999999</v>
       </c>
       <c r="AZ3" s="1">
-        <v>5.580887</v>
+        <v>5.5808869999999997</v>
       </c>
       <c r="BA3" s="1">
-        <v>994.335000</v>
+        <v>994.33500000000004</v>
       </c>
       <c r="BB3" s="1">
-        <v>-125.274000</v>
+        <v>-125.274</v>
       </c>
       <c r="BC3" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="BD3" s="1">
-        <v>20102.147864</v>
+        <v>20102.147863999999</v>
       </c>
       <c r="BE3" s="1">
-        <v>5.583930</v>
+        <v>5.5839299999999996</v>
       </c>
       <c r="BF3" s="1">
-        <v>1033.260000</v>
+        <v>1033.26</v>
       </c>
       <c r="BG3" s="1">
-        <v>-197.852000</v>
+        <v>-197.852</v>
       </c>
       <c r="BH3" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="BI3" s="1">
         <v>20113.124291</v>
       </c>
       <c r="BJ3" s="1">
-        <v>5.586979</v>
+        <v>5.5869790000000004</v>
       </c>
       <c r="BK3" s="1">
-        <v>1100.260000</v>
+        <v>1100.26</v>
       </c>
       <c r="BL3" s="1">
-        <v>-315.530000</v>
+        <v>-315.52999999999997</v>
       </c>
       <c r="BM3" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="BN3" s="1">
-        <v>20123.894454</v>
+        <v>20123.894454000001</v>
       </c>
       <c r="BO3" s="1">
-        <v>5.589971</v>
+        <v>5.5899710000000002</v>
       </c>
       <c r="BP3" s="1">
-        <v>1208.930000</v>
+        <v>1208.93</v>
       </c>
       <c r="BQ3" s="1">
-        <v>-501.303000</v>
+        <v>-501.303</v>
       </c>
       <c r="BR3" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="BS3" s="1">
         <v>20134.685404</v>
       </c>
       <c r="BT3" s="1">
-        <v>5.592968</v>
+        <v>5.5929679999999999</v>
       </c>
       <c r="BU3" s="1">
-        <v>1331.640000</v>
+        <v>1331.64</v>
       </c>
       <c r="BV3" s="1">
-        <v>-705.315000</v>
+        <v>-705.31500000000005</v>
       </c>
       <c r="BW3" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="BX3" s="1">
-        <v>20145.640553</v>
+        <v>20145.640553000001</v>
       </c>
       <c r="BY3" s="1">
-        <v>5.596011</v>
+        <v>5.5960109999999998</v>
       </c>
       <c r="BZ3" s="1">
-        <v>1468.560000</v>
+        <v>1468.56</v>
       </c>
       <c r="CA3" s="1">
-        <v>-923.170000</v>
+        <v>-923.17</v>
       </c>
       <c r="CB3" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="CC3" s="1">
-        <v>20157.015275</v>
+        <v>20157.015275000002</v>
       </c>
       <c r="CD3" s="1">
-        <v>5.599171</v>
+        <v>5.5991710000000001</v>
       </c>
       <c r="CE3" s="1">
-        <v>1829.210000</v>
+        <v>1829.21</v>
       </c>
       <c r="CF3" s="1">
-        <v>-1439.660000</v>
+        <v>-1439.66</v>
       </c>
       <c r="CG3" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
     </row>
-    <row r="4">
+    <row r="4" spans="1:85">
       <c r="A4" s="1">
         <v>19987.693034</v>
       </c>
       <c r="B4" s="1">
-        <v>5.552137</v>
+        <v>5.5521370000000001</v>
       </c>
       <c r="C4" s="1">
-        <v>895.443000</v>
+        <v>895.44299999999998</v>
       </c>
       <c r="D4" s="1">
-        <v>-200.057000</v>
+        <v>-200.05699999999999</v>
       </c>
       <c r="E4" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="F4" s="1">
-        <v>19997.757820</v>
+        <v>19997.757819999999</v>
       </c>
       <c r="G4" s="1">
-        <v>5.554933</v>
+        <v>5.5549330000000001</v>
       </c>
       <c r="H4" s="1">
-        <v>913.517000</v>
+        <v>913.51700000000005</v>
       </c>
       <c r="I4" s="1">
-        <v>-169.195000</v>
+        <v>-169.19499999999999</v>
       </c>
       <c r="J4" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="K4" s="1">
-        <v>20007.924816</v>
+        <v>20007.924815999999</v>
       </c>
       <c r="L4" s="1">
-        <v>5.557757</v>
+        <v>5.5577569999999996</v>
       </c>
       <c r="M4" s="1">
-        <v>936.086000</v>
+        <v>936.08600000000001</v>
       </c>
       <c r="N4" s="1">
-        <v>-119.763000</v>
+        <v>-119.76300000000001</v>
       </c>
       <c r="O4" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="P4" s="1">
-        <v>20018.440002</v>
+        <v>20018.440001999999</v>
       </c>
       <c r="Q4" s="1">
-        <v>5.560678</v>
+        <v>5.5606780000000002</v>
       </c>
       <c r="R4" s="1">
-        <v>942.814000</v>
+        <v>942.81399999999996</v>
       </c>
       <c r="S4" s="1">
-        <v>-103.344000</v>
+        <v>-103.34399999999999</v>
       </c>
       <c r="T4" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="U4" s="1">
-        <v>20029.035570</v>
+        <v>20029.03557</v>
       </c>
       <c r="V4" s="1">
-        <v>5.563621</v>
+        <v>5.5636210000000004</v>
       </c>
       <c r="W4" s="1">
-        <v>949.143000</v>
+        <v>949.14300000000003</v>
       </c>
       <c r="X4" s="1">
-        <v>-88.413400</v>
+        <v>-88.413399999999996</v>
       </c>
       <c r="Y4" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="Z4" s="1">
-        <v>20039.189637</v>
+        <v>20039.189636999999</v>
       </c>
       <c r="AA4" s="1">
-        <v>5.566442</v>
+        <v>5.5664420000000003</v>
       </c>
       <c r="AB4" s="1">
-        <v>956.141000</v>
+        <v>956.14099999999996</v>
       </c>
       <c r="AC4" s="1">
-        <v>-76.995900</v>
+        <v>-76.995900000000006</v>
       </c>
       <c r="AD4" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="AE4" s="1">
-        <v>20049.483608</v>
+        <v>20049.483607999999</v>
       </c>
       <c r="AF4" s="1">
-        <v>5.569301</v>
+        <v>5.5693010000000003</v>
       </c>
       <c r="AG4" s="1">
-        <v>960.784000</v>
+        <v>960.78399999999999</v>
       </c>
       <c r="AH4" s="1">
-        <v>-74.856200</v>
+        <v>-74.856200000000001</v>
       </c>
       <c r="AI4" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="AJ4" s="1">
         <v>20059.553883</v>
       </c>
       <c r="AK4" s="1">
-        <v>5.572098</v>
+        <v>5.5720980000000004</v>
       </c>
       <c r="AL4" s="1">
-        <v>967.967000</v>
+        <v>967.96699999999998</v>
       </c>
       <c r="AM4" s="1">
-        <v>-79.845700</v>
+        <v>-79.845699999999994</v>
       </c>
       <c r="AN4" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="AO4" s="1">
         <v>20069.816142</v>
       </c>
       <c r="AP4" s="1">
-        <v>5.574949</v>
+        <v>5.5749490000000002</v>
       </c>
       <c r="AQ4" s="1">
-        <v>976.075000</v>
+        <v>976.07500000000005</v>
       </c>
       <c r="AR4" s="1">
-        <v>-91.609200</v>
+        <v>-91.609200000000001</v>
       </c>
       <c r="AS4" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="AT4" s="1">
         <v>20080.442894</v>
       </c>
       <c r="AU4" s="1">
-        <v>5.577901</v>
+        <v>5.5779009999999998</v>
       </c>
       <c r="AV4" s="1">
-        <v>986.025000</v>
+        <v>986.02499999999998</v>
       </c>
       <c r="AW4" s="1">
-        <v>-109.532000</v>
+        <v>-109.532</v>
       </c>
       <c r="AX4" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="AY4" s="1">
-        <v>20091.551296</v>
+        <v>20091.551296000001</v>
       </c>
       <c r="AZ4" s="1">
-        <v>5.580986</v>
+        <v>5.5809860000000002</v>
       </c>
       <c r="BA4" s="1">
-        <v>994.336000</v>
+        <v>994.33600000000001</v>
       </c>
       <c r="BB4" s="1">
-        <v>-125.279000</v>
+        <v>-125.279</v>
       </c>
       <c r="BC4" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="BD4" s="1">
-        <v>20102.512386</v>
+        <v>20102.512385999999</v>
       </c>
       <c r="BE4" s="1">
-        <v>5.584031</v>
+        <v>5.5840310000000004</v>
       </c>
       <c r="BF4" s="1">
-        <v>1033.240000</v>
+        <v>1033.24</v>
       </c>
       <c r="BG4" s="1">
-        <v>-197.856000</v>
+        <v>-197.85599999999999</v>
       </c>
       <c r="BH4" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="BI4" s="1">
-        <v>20113.874823</v>
+        <v>20113.874822999998</v>
       </c>
       <c r="BJ4" s="1">
-        <v>5.587187</v>
+        <v>5.5871870000000001</v>
       </c>
       <c r="BK4" s="1">
-        <v>1100.240000</v>
+        <v>1100.24</v>
       </c>
       <c r="BL4" s="1">
-        <v>-315.533000</v>
+        <v>-315.53300000000002</v>
       </c>
       <c r="BM4" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="BN4" s="1">
-        <v>20124.314569</v>
+        <v>20124.314568999998</v>
       </c>
       <c r="BO4" s="1">
-        <v>5.590087</v>
+        <v>5.5900869999999996</v>
       </c>
       <c r="BP4" s="1">
-        <v>1208.960000</v>
+        <v>1208.96</v>
       </c>
       <c r="BQ4" s="1">
-        <v>-501.266000</v>
+        <v>-501.26600000000002</v>
       </c>
       <c r="BR4" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="BS4" s="1">
-        <v>20135.110455</v>
+        <v>20135.110454999998</v>
       </c>
       <c r="BT4" s="1">
-        <v>5.593086</v>
+        <v>5.5930859999999996</v>
       </c>
       <c r="BU4" s="1">
-        <v>1331.620000</v>
+        <v>1331.62</v>
       </c>
       <c r="BV4" s="1">
-        <v>-705.236000</v>
+        <v>-705.23599999999999</v>
       </c>
       <c r="BW4" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="BX4" s="1">
         <v>20146.085959</v>
       </c>
       <c r="BY4" s="1">
-        <v>5.596135</v>
+        <v>5.5961350000000003</v>
       </c>
       <c r="BZ4" s="1">
-        <v>1468.490000</v>
+        <v>1468.49</v>
       </c>
       <c r="CA4" s="1">
-        <v>-923.243000</v>
+        <v>-923.24300000000005</v>
       </c>
       <c r="CB4" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="CC4" s="1">
-        <v>20157.536073</v>
+        <v>20157.536072999999</v>
       </c>
       <c r="CD4" s="1">
         <v>5.599316</v>
       </c>
       <c r="CE4" s="1">
-        <v>1828.580000</v>
+        <v>1828.58</v>
       </c>
       <c r="CF4" s="1">
-        <v>-1441.120000</v>
+        <v>-1441.12</v>
       </c>
       <c r="CG4" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
     </row>
-    <row r="5">
+    <row r="5" spans="1:85">
       <c r="A5" s="1">
-        <v>19988.067977</v>
+        <v>19988.067976999999</v>
       </c>
       <c r="B5" s="1">
-        <v>5.552241</v>
+        <v>5.5522410000000004</v>
       </c>
       <c r="C5" s="1">
-        <v>895.295000</v>
+        <v>895.29499999999996</v>
       </c>
       <c r="D5" s="1">
-        <v>-200.070000</v>
+        <v>-200.07</v>
       </c>
       <c r="E5" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="F5" s="1">
         <v>19998.102058</v>
       </c>
       <c r="G5" s="1">
-        <v>5.555028</v>
+        <v>5.5550280000000001</v>
       </c>
       <c r="H5" s="1">
-        <v>913.608000</v>
+        <v>913.60799999999995</v>
       </c>
       <c r="I5" s="1">
-        <v>-169.401000</v>
+        <v>-169.40100000000001</v>
       </c>
       <c r="J5" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="K5" s="1">
-        <v>20008.268543</v>
+        <v>20008.268542999998</v>
       </c>
       <c r="L5" s="1">
-        <v>5.557852</v>
+        <v>5.5578519999999996</v>
       </c>
       <c r="M5" s="1">
-        <v>936.299000</v>
+        <v>936.29899999999998</v>
       </c>
       <c r="N5" s="1">
-        <v>-119.693000</v>
+        <v>-119.693</v>
       </c>
       <c r="O5" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="P5" s="1">
         <v>20018.788193</v>
       </c>
       <c r="Q5" s="1">
-        <v>5.560774</v>
+        <v>5.5607740000000003</v>
       </c>
       <c r="R5" s="1">
-        <v>942.802000</v>
+        <v>942.80200000000002</v>
       </c>
       <c r="S5" s="1">
-        <v>-103.382000</v>
+        <v>-103.38200000000001</v>
       </c>
       <c r="T5" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="U5" s="1">
         <v>20029.446259</v>
       </c>
       <c r="V5" s="1">
-        <v>5.563735</v>
+        <v>5.5637350000000003</v>
       </c>
       <c r="W5" s="1">
-        <v>949.084000</v>
+        <v>949.08399999999995</v>
       </c>
       <c r="X5" s="1">
-        <v>-88.422900</v>
+        <v>-88.422899999999998</v>
       </c>
       <c r="Y5" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="Z5" s="1">
-        <v>20039.621653</v>
+        <v>20039.621652999998</v>
       </c>
       <c r="AA5" s="1">
-        <v>5.566562</v>
+        <v>5.5665620000000002</v>
       </c>
       <c r="AB5" s="1">
-        <v>956.273000</v>
+        <v>956.27300000000002</v>
       </c>
       <c r="AC5" s="1">
-        <v>-76.992300</v>
+        <v>-76.9923</v>
       </c>
       <c r="AD5" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="AE5" s="1">
-        <v>20049.749959</v>
+        <v>20049.749959000001</v>
       </c>
       <c r="AF5" s="1">
         <v>5.569375</v>
       </c>
       <c r="AG5" s="1">
-        <v>960.862000</v>
+        <v>960.86199999999997</v>
       </c>
       <c r="AH5" s="1">
-        <v>-74.962400</v>
+        <v>-74.962400000000002</v>
       </c>
       <c r="AI5" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="AJ5" s="1">
-        <v>20059.906538</v>
+        <v>20059.906537999999</v>
       </c>
       <c r="AK5" s="1">
-        <v>5.572196</v>
+        <v>5.5721959999999999</v>
       </c>
       <c r="AL5" s="1">
-        <v>967.942000</v>
+        <v>967.94200000000001</v>
       </c>
       <c r="AM5" s="1">
-        <v>-79.814100</v>
+        <v>-79.814099999999996</v>
       </c>
       <c r="AN5" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="AO5" s="1">
         <v>20070.179182</v>
       </c>
       <c r="AP5" s="1">
-        <v>5.575050</v>
+        <v>5.5750500000000001</v>
       </c>
       <c r="AQ5" s="1">
-        <v>976.085000</v>
+        <v>976.08500000000004</v>
       </c>
       <c r="AR5" s="1">
-        <v>-91.596400</v>
+        <v>-91.596400000000003</v>
       </c>
       <c r="AS5" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="AT5" s="1">
         <v>20080.808944</v>
       </c>
       <c r="AU5" s="1">
-        <v>5.578002</v>
+        <v>5.5780019999999997</v>
       </c>
       <c r="AV5" s="1">
-        <v>986.007000</v>
+        <v>986.00699999999995</v>
       </c>
       <c r="AW5" s="1">
-        <v>-109.523000</v>
+        <v>-109.523</v>
       </c>
       <c r="AX5" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="AY5" s="1">
-        <v>20092.274464</v>
+        <v>20092.274463999998</v>
       </c>
       <c r="AZ5" s="1">
-        <v>5.581187</v>
+        <v>5.5811869999999999</v>
       </c>
       <c r="BA5" s="1">
-        <v>994.345000</v>
+        <v>994.34500000000003</v>
       </c>
       <c r="BB5" s="1">
-        <v>-125.282000</v>
+        <v>-125.282</v>
       </c>
       <c r="BC5" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="BD5" s="1">
         <v>20103.232108</v>
       </c>
       <c r="BE5" s="1">
-        <v>5.584231</v>
+        <v>5.5842309999999999</v>
       </c>
       <c r="BF5" s="1">
-        <v>1033.240000</v>
+        <v>1033.24</v>
       </c>
       <c r="BG5" s="1">
-        <v>-197.837000</v>
+        <v>-197.83699999999999</v>
       </c>
       <c r="BH5" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="BI5" s="1">
         <v>20114.249226</v>
       </c>
       <c r="BJ5" s="1">
-        <v>5.587291</v>
+        <v>5.5872909999999996</v>
       </c>
       <c r="BK5" s="1">
-        <v>1100.250000</v>
+        <v>1100.25</v>
       </c>
       <c r="BL5" s="1">
-        <v>-315.556000</v>
+        <v>-315.55599999999998</v>
       </c>
       <c r="BM5" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="BN5" s="1">
-        <v>20124.711830</v>
+        <v>20124.71183</v>
       </c>
       <c r="BO5" s="1">
         <v>5.590198</v>
       </c>
       <c r="BP5" s="1">
-        <v>1208.970000</v>
+        <v>1208.97</v>
       </c>
       <c r="BQ5" s="1">
-        <v>-501.297000</v>
+        <v>-501.29700000000003</v>
       </c>
       <c r="BR5" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="BS5" s="1">
         <v>20135.523126</v>
       </c>
       <c r="BT5" s="1">
-        <v>5.593201</v>
+        <v>5.5932009999999996</v>
       </c>
       <c r="BU5" s="1">
-        <v>1331.550000</v>
+        <v>1331.55</v>
       </c>
       <c r="BV5" s="1">
-        <v>-705.248000</v>
+        <v>-705.24800000000005</v>
       </c>
       <c r="BW5" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="BX5" s="1">
-        <v>20146.848279</v>
+        <v>20146.848279000002</v>
       </c>
       <c r="BY5" s="1">
-        <v>5.596347</v>
+        <v>5.5963469999999997</v>
       </c>
       <c r="BZ5" s="1">
-        <v>1468.410000</v>
+        <v>1468.41</v>
       </c>
       <c r="CA5" s="1">
-        <v>-923.234000</v>
+        <v>-923.23400000000004</v>
       </c>
       <c r="CB5" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="CC5" s="1">
-        <v>20158.361453</v>
+        <v>20158.361453000001</v>
       </c>
       <c r="CD5" s="1">
         <v>5.599545</v>
       </c>
       <c r="CE5" s="1">
-        <v>1830.030000</v>
+        <v>1830.03</v>
       </c>
       <c r="CF5" s="1">
-        <v>-1441.450000</v>
+        <v>-1441.45</v>
       </c>
       <c r="CG5" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
     </row>
-    <row r="6">
+    <row r="6" spans="1:85">
       <c r="A6" s="1">
-        <v>19988.409720</v>
+        <v>19988.40972</v>
       </c>
       <c r="B6" s="1">
-        <v>5.552336</v>
+        <v>5.5523360000000004</v>
       </c>
       <c r="C6" s="1">
-        <v>895.463000</v>
+        <v>895.46299999999997</v>
       </c>
       <c r="D6" s="1">
-        <v>-200.176000</v>
+        <v>-200.17599999999999</v>
       </c>
       <c r="E6" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="F6" s="1">
-        <v>19998.444780</v>
+        <v>19998.444780000002</v>
       </c>
       <c r="G6" s="1">
-        <v>5.555124</v>
+        <v>5.5551240000000002</v>
       </c>
       <c r="H6" s="1">
-        <v>912.971000</v>
+        <v>912.971</v>
       </c>
       <c r="I6" s="1">
-        <v>-168.497000</v>
+        <v>-168.49700000000001</v>
       </c>
       <c r="J6" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="K6" s="1">
         <v>20008.687694</v>
       </c>
       <c r="L6" s="1">
-        <v>5.557969</v>
+        <v>5.5579689999999999</v>
       </c>
       <c r="M6" s="1">
-        <v>936.105000</v>
+        <v>936.10500000000002</v>
       </c>
       <c r="N6" s="1">
-        <v>-119.699000</v>
+        <v>-119.699</v>
       </c>
       <c r="O6" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="P6" s="1">
-        <v>20019.209793</v>
+        <v>20019.209793000002</v>
       </c>
       <c r="Q6" s="1">
-        <v>5.560892</v>
+        <v>5.5608919999999999</v>
       </c>
       <c r="R6" s="1">
-        <v>942.798000</v>
+        <v>942.798</v>
       </c>
       <c r="S6" s="1">
-        <v>-103.414000</v>
+        <v>-103.414</v>
       </c>
       <c r="T6" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="U6" s="1">
         <v>20029.739393</v>
       </c>
       <c r="V6" s="1">
-        <v>5.563816</v>
+        <v>5.5638160000000001</v>
       </c>
       <c r="W6" s="1">
-        <v>949.065000</v>
+        <v>949.06500000000005</v>
       </c>
       <c r="X6" s="1">
-        <v>-88.387200</v>
+        <v>-88.387200000000007</v>
       </c>
       <c r="Y6" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="Z6" s="1">
-        <v>20039.889990</v>
+        <v>20039.88999</v>
       </c>
       <c r="AA6" s="1">
-        <v>5.566636</v>
+        <v>5.5666359999999999</v>
       </c>
       <c r="AB6" s="1">
-        <v>956.179000</v>
+        <v>956.17899999999997</v>
       </c>
       <c r="AC6" s="1">
-        <v>-77.045600</v>
+        <v>-77.045599999999993</v>
       </c>
       <c r="AD6" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="AE6" s="1">
-        <v>20050.086246</v>
+        <v>20050.086245999999</v>
       </c>
       <c r="AF6" s="1">
-        <v>5.569468</v>
+        <v>5.5694679999999996</v>
       </c>
       <c r="AG6" s="1">
-        <v>960.641000</v>
+        <v>960.64099999999996</v>
       </c>
       <c r="AH6" s="1">
-        <v>-74.965300</v>
+        <v>-74.965299999999999</v>
       </c>
       <c r="AI6" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="AJ6" s="1">
         <v>20060.254761</v>
       </c>
       <c r="AK6" s="1">
-        <v>5.572293</v>
+        <v>5.5722930000000002</v>
       </c>
       <c r="AL6" s="1">
-        <v>967.960000</v>
+        <v>967.96</v>
       </c>
       <c r="AM6" s="1">
-        <v>-79.836900</v>
+        <v>-79.8369</v>
       </c>
       <c r="AN6" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="AO6" s="1">
         <v>20070.539276</v>
       </c>
       <c r="AP6" s="1">
-        <v>5.575150</v>
+        <v>5.5751499999999998</v>
       </c>
       <c r="AQ6" s="1">
-        <v>976.095000</v>
+        <v>976.09500000000003</v>
       </c>
       <c r="AR6" s="1">
-        <v>-91.622900</v>
+        <v>-91.622900000000001</v>
       </c>
       <c r="AS6" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="AT6" s="1">
-        <v>20081.538099</v>
+        <v>20081.538099000001</v>
       </c>
       <c r="AU6" s="1">
-        <v>5.578205</v>
+        <v>5.5782049999999996</v>
       </c>
       <c r="AV6" s="1">
-        <v>986.026000</v>
+        <v>986.02599999999995</v>
       </c>
       <c r="AW6" s="1">
-        <v>-109.502000</v>
+        <v>-109.502</v>
       </c>
       <c r="AX6" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="AY6" s="1">
-        <v>20092.649936</v>
+        <v>20092.649936000002</v>
       </c>
       <c r="AZ6" s="1">
-        <v>5.581292</v>
+        <v>5.5812920000000004</v>
       </c>
       <c r="BA6" s="1">
-        <v>994.346000</v>
+        <v>994.346</v>
       </c>
       <c r="BB6" s="1">
-        <v>-125.266000</v>
+        <v>-125.26600000000001</v>
       </c>
       <c r="BC6" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="BD6" s="1">
-        <v>20103.592673</v>
+        <v>20103.592672999999</v>
       </c>
       <c r="BE6" s="1">
-        <v>5.584331</v>
+        <v>5.5843309999999997</v>
       </c>
       <c r="BF6" s="1">
-        <v>1033.260000</v>
+        <v>1033.26</v>
       </c>
       <c r="BG6" s="1">
-        <v>-197.845000</v>
+        <v>-197.845</v>
       </c>
       <c r="BH6" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="BI6" s="1">
-        <v>20114.625683</v>
+        <v>20114.625682999998</v>
       </c>
       <c r="BJ6" s="1">
         <v>5.587396</v>
       </c>
       <c r="BK6" s="1">
-        <v>1100.270000</v>
+        <v>1100.27</v>
       </c>
       <c r="BL6" s="1">
-        <v>-315.559000</v>
+        <v>-315.55900000000003</v>
       </c>
       <c r="BM6" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="BN6" s="1">
-        <v>20125.448910</v>
+        <v>20125.448909999999</v>
       </c>
       <c r="BO6" s="1">
-        <v>5.590402</v>
+        <v>5.5904020000000001</v>
       </c>
       <c r="BP6" s="1">
-        <v>1208.950000</v>
+        <v>1208.95</v>
       </c>
       <c r="BQ6" s="1">
-        <v>-501.281000</v>
+        <v>-501.28100000000001</v>
       </c>
       <c r="BR6" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="BS6" s="1">
-        <v>20136.234917</v>
+        <v>20136.234917000002</v>
       </c>
       <c r="BT6" s="1">
-        <v>5.593399</v>
+        <v>5.5933989999999998</v>
       </c>
       <c r="BU6" s="1">
-        <v>1331.510000</v>
+        <v>1331.51</v>
       </c>
       <c r="BV6" s="1">
-        <v>-705.202000</v>
+        <v>-705.202</v>
       </c>
       <c r="BW6" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="BX6" s="1">
-        <v>20146.992615</v>
+        <v>20146.992614999999</v>
       </c>
       <c r="BY6" s="1">
         <v>5.596387</v>
       </c>
       <c r="BZ6" s="1">
-        <v>1468.580000</v>
+        <v>1468.58</v>
       </c>
       <c r="CA6" s="1">
-        <v>-923.243000</v>
+        <v>-923.24300000000005</v>
       </c>
       <c r="CB6" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="CC6" s="1">
-        <v>20158.578202</v>
+        <v>20158.578202000001</v>
       </c>
       <c r="CD6" s="1">
-        <v>5.599605</v>
+        <v>5.5996050000000004</v>
       </c>
       <c r="CE6" s="1">
-        <v>1829.370000</v>
+        <v>1829.37</v>
       </c>
       <c r="CF6" s="1">
-        <v>-1441.450000</v>
+        <v>-1441.45</v>
       </c>
       <c r="CG6" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
     </row>
-    <row r="7">
+    <row r="7" spans="1:85">
       <c r="A7" s="1">
-        <v>19988.752723</v>
+        <v>19988.752723000001</v>
       </c>
       <c r="B7" s="1">
-        <v>5.552431</v>
+        <v>5.5524310000000003</v>
       </c>
       <c r="C7" s="1">
-        <v>895.498000</v>
+        <v>895.49800000000005</v>
       </c>
       <c r="D7" s="1">
-        <v>-200.186000</v>
+        <v>-200.18600000000001</v>
       </c>
       <c r="E7" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="F7" s="1">
-        <v>19998.875804</v>
+        <v>19998.875803999999</v>
       </c>
       <c r="G7" s="1">
-        <v>5.555243</v>
+        <v>5.5552429999999999</v>
       </c>
       <c r="H7" s="1">
-        <v>913.071000</v>
+        <v>913.07100000000003</v>
       </c>
       <c r="I7" s="1">
-        <v>-169.520000</v>
+        <v>-169.52</v>
       </c>
       <c r="J7" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="K7" s="1">
-        <v>20008.978318</v>
+        <v>20008.978318000001</v>
       </c>
       <c r="L7" s="1">
-        <v>5.558050</v>
+        <v>5.5580499999999997</v>
       </c>
       <c r="M7" s="1">
-        <v>936.231000</v>
+        <v>936.23099999999999</v>
       </c>
       <c r="N7" s="1">
-        <v>-119.625000</v>
+        <v>-119.625</v>
       </c>
       <c r="O7" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="P7" s="1">
         <v>20019.489039</v>
       </c>
       <c r="Q7" s="1">
-        <v>5.560969</v>
+        <v>5.5609690000000001</v>
       </c>
       <c r="R7" s="1">
-        <v>942.820000</v>
+        <v>942.82</v>
       </c>
       <c r="S7" s="1">
-        <v>-103.424000</v>
+        <v>-103.42400000000001</v>
       </c>
       <c r="T7" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="U7" s="1">
-        <v>20030.081601</v>
+        <v>20030.081601000002</v>
       </c>
       <c r="V7" s="1">
-        <v>5.563912</v>
+        <v>5.5639120000000002</v>
       </c>
       <c r="W7" s="1">
-        <v>949.148000</v>
+        <v>949.14800000000002</v>
       </c>
       <c r="X7" s="1">
-        <v>-88.388600</v>
+        <v>-88.388599999999997</v>
       </c>
       <c r="Y7" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="Z7" s="1">
-        <v>20040.236196</v>
+        <v>20040.236196000002</v>
       </c>
       <c r="AA7" s="1">
         <v>5.566732</v>
       </c>
       <c r="AB7" s="1">
-        <v>956.170000</v>
+        <v>956.17</v>
       </c>
       <c r="AC7" s="1">
-        <v>-77.015100</v>
+        <v>-77.015100000000004</v>
       </c>
       <c r="AD7" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="AE7" s="1">
-        <v>20050.434439</v>
+        <v>20050.434439000001</v>
       </c>
       <c r="AF7" s="1">
-        <v>5.569565</v>
+        <v>5.5695649999999999</v>
       </c>
       <c r="AG7" s="1">
-        <v>960.616000</v>
+        <v>960.61599999999999</v>
       </c>
       <c r="AH7" s="1">
-        <v>-75.151300</v>
+        <v>-75.151300000000006</v>
       </c>
       <c r="AI7" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="AJ7" s="1">
-        <v>20060.950120</v>
+        <v>20060.950120000001</v>
       </c>
       <c r="AK7" s="1">
-        <v>5.572486</v>
+        <v>5.5724859999999996</v>
       </c>
       <c r="AL7" s="1">
-        <v>967.967000</v>
+        <v>967.96699999999998</v>
       </c>
       <c r="AM7" s="1">
-        <v>-79.808900</v>
+        <v>-79.808899999999994</v>
       </c>
       <c r="AN7" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="AO7" s="1">
-        <v>20071.258986</v>
+        <v>20071.258986000001</v>
       </c>
       <c r="AP7" s="1">
-        <v>5.575350</v>
+        <v>5.5753500000000003</v>
       </c>
       <c r="AQ7" s="1">
-        <v>976.072000</v>
+        <v>976.072</v>
       </c>
       <c r="AR7" s="1">
-        <v>-91.611300</v>
+        <v>-91.6113</v>
       </c>
       <c r="AS7" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="AT7" s="1">
-        <v>20081.928448</v>
+        <v>20081.928447999999</v>
       </c>
       <c r="AU7" s="1">
-        <v>5.578313</v>
+        <v>5.5783129999999996</v>
       </c>
       <c r="AV7" s="1">
-        <v>986.029000</v>
+        <v>986.029</v>
       </c>
       <c r="AW7" s="1">
-        <v>-109.531000</v>
+        <v>-109.53100000000001</v>
       </c>
       <c r="AX7" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="AY7" s="1">
         <v>20093.030862</v>
       </c>
       <c r="AZ7" s="1">
-        <v>5.581397</v>
+        <v>5.5813969999999999</v>
       </c>
       <c r="BA7" s="1">
-        <v>994.345000</v>
+        <v>994.34500000000003</v>
       </c>
       <c r="BB7" s="1">
-        <v>-125.286000</v>
+        <v>-125.286</v>
       </c>
       <c r="BC7" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="BD7" s="1">
-        <v>20103.955248</v>
+        <v>20103.955247999998</v>
       </c>
       <c r="BE7" s="1">
-        <v>5.584432</v>
+        <v>5.5844319999999996</v>
       </c>
       <c r="BF7" s="1">
-        <v>1033.250000</v>
+        <v>1033.25</v>
       </c>
       <c r="BG7" s="1">
-        <v>-197.845000</v>
+        <v>-197.845</v>
       </c>
       <c r="BH7" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="BI7" s="1">
-        <v>20115.305730</v>
+        <v>20115.30573</v>
       </c>
       <c r="BJ7" s="1">
-        <v>5.587585</v>
+        <v>5.5875849999999998</v>
       </c>
       <c r="BK7" s="1">
-        <v>1100.270000</v>
+        <v>1100.27</v>
       </c>
       <c r="BL7" s="1">
-        <v>-315.558000</v>
+        <v>-315.55799999999999</v>
       </c>
       <c r="BM7" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="BN7" s="1">
-        <v>20125.954803</v>
+        <v>20125.954803000001</v>
       </c>
       <c r="BO7" s="1">
-        <v>5.590543</v>
+        <v>5.5905430000000003</v>
       </c>
       <c r="BP7" s="1">
-        <v>1208.940000</v>
+        <v>1208.94</v>
       </c>
       <c r="BQ7" s="1">
-        <v>-501.260000</v>
+        <v>-501.26</v>
       </c>
       <c r="BR7" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="BS7" s="1">
         <v>20136.350949</v>
       </c>
       <c r="BT7" s="1">
-        <v>5.593431</v>
+        <v>5.5934309999999998</v>
       </c>
       <c r="BU7" s="1">
-        <v>1331.420000</v>
+        <v>1331.42</v>
       </c>
       <c r="BV7" s="1">
-        <v>-705.186000</v>
+        <v>-705.18600000000004</v>
       </c>
       <c r="BW7" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="BX7" s="1">
-        <v>20147.413750</v>
+        <v>20147.41375</v>
       </c>
       <c r="BY7" s="1">
-        <v>5.596504</v>
+        <v>5.5965040000000004</v>
       </c>
       <c r="BZ7" s="1">
-        <v>1468.490000</v>
+        <v>1468.49</v>
       </c>
       <c r="CA7" s="1">
-        <v>-923.196000</v>
+        <v>-923.19600000000003</v>
       </c>
       <c r="CB7" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="CC7" s="1">
-        <v>20159.102935</v>
+        <v>20159.102934999999</v>
       </c>
       <c r="CD7" s="1">
-        <v>5.599751</v>
+        <v>5.5997510000000004</v>
       </c>
       <c r="CE7" s="1">
-        <v>1829.110000</v>
+        <v>1829.11</v>
       </c>
       <c r="CF7" s="1">
-        <v>-1441.210000</v>
+        <v>-1441.21</v>
       </c>
       <c r="CG7" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
     </row>
-    <row r="8">
+    <row r="8" spans="1:85">
       <c r="A8" s="1">
-        <v>19989.172072</v>
+        <v>19989.172072000001</v>
       </c>
       <c r="B8" s="1">
-        <v>5.552548</v>
+        <v>5.5525479999999998</v>
       </c>
       <c r="C8" s="1">
-        <v>895.520000</v>
+        <v>895.52</v>
       </c>
       <c r="D8" s="1">
-        <v>-200.251000</v>
+        <v>-200.251</v>
       </c>
       <c r="E8" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="F8" s="1">
-        <v>19999.156042</v>
+        <v>19999.156041999999</v>
       </c>
       <c r="G8" s="1">
-        <v>5.555321</v>
+        <v>5.5553210000000002</v>
       </c>
       <c r="H8" s="1">
-        <v>912.947000</v>
+        <v>912.947</v>
       </c>
       <c r="I8" s="1">
-        <v>-169.205000</v>
+        <v>-169.20500000000001</v>
       </c>
       <c r="J8" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="K8" s="1">
         <v>20009.325052</v>
       </c>
       <c r="L8" s="1">
-        <v>5.558146</v>
+        <v>5.5581459999999998</v>
       </c>
       <c r="M8" s="1">
-        <v>936.116000</v>
+        <v>936.11599999999999</v>
       </c>
       <c r="N8" s="1">
-        <v>-119.771000</v>
+        <v>-119.771</v>
       </c>
       <c r="O8" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="P8" s="1">
         <v>20019.839742</v>
       </c>
       <c r="Q8" s="1">
-        <v>5.561067</v>
+        <v>5.5610670000000004</v>
       </c>
       <c r="R8" s="1">
-        <v>942.768000</v>
+        <v>942.76800000000003</v>
       </c>
       <c r="S8" s="1">
-        <v>-103.381000</v>
+        <v>-103.381</v>
       </c>
       <c r="T8" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="U8" s="1">
         <v>20030.426817</v>
       </c>
       <c r="V8" s="1">
-        <v>5.564007</v>
+        <v>5.5640070000000001</v>
       </c>
       <c r="W8" s="1">
-        <v>949.059000</v>
+        <v>949.05899999999997</v>
       </c>
       <c r="X8" s="1">
-        <v>-88.443200</v>
+        <v>-88.443200000000004</v>
       </c>
       <c r="Y8" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="Z8" s="1">
-        <v>20040.922194</v>
+        <v>20040.922193999999</v>
       </c>
       <c r="AA8" s="1">
-        <v>5.566923</v>
+        <v>5.5669230000000001</v>
       </c>
       <c r="AB8" s="1">
-        <v>956.079000</v>
+        <v>956.07899999999995</v>
       </c>
       <c r="AC8" s="1">
-        <v>-76.973300</v>
+        <v>-76.973299999999995</v>
       </c>
       <c r="AD8" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="AE8" s="1">
-        <v>20051.122887</v>
+        <v>20051.122887000001</v>
       </c>
       <c r="AF8" s="1">
-        <v>5.569756</v>
+        <v>5.5697559999999999</v>
       </c>
       <c r="AG8" s="1">
-        <v>960.759000</v>
+        <v>960.75900000000001</v>
       </c>
       <c r="AH8" s="1">
-        <v>-74.960700</v>
+        <v>-74.960700000000003</v>
       </c>
       <c r="AI8" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="AJ8" s="1">
-        <v>20061.298312</v>
+        <v>20061.298311999999</v>
       </c>
       <c r="AK8" s="1">
-        <v>5.572583</v>
+        <v>5.5725829999999998</v>
       </c>
       <c r="AL8" s="1">
-        <v>967.949000</v>
+        <v>967.94899999999996</v>
       </c>
       <c r="AM8" s="1">
-        <v>-79.831900</v>
+        <v>-79.831900000000005</v>
       </c>
       <c r="AN8" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="AO8" s="1">
-        <v>20071.617082</v>
+        <v>20071.617082000001</v>
       </c>
       <c r="AP8" s="1">
-        <v>5.575449</v>
+        <v>5.5754489999999999</v>
       </c>
       <c r="AQ8" s="1">
-        <v>976.095000</v>
+        <v>976.09500000000003</v>
       </c>
       <c r="AR8" s="1">
-        <v>-91.619800</v>
+        <v>-91.619799999999998</v>
       </c>
       <c r="AS8" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="AT8" s="1">
         <v>20082.293468</v>
       </c>
       <c r="AU8" s="1">
-        <v>5.578415</v>
+        <v>5.5784149999999997</v>
       </c>
       <c r="AV8" s="1">
-        <v>986.015000</v>
+        <v>986.01499999999999</v>
       </c>
       <c r="AW8" s="1">
-        <v>-109.524000</v>
+        <v>-109.524</v>
       </c>
       <c r="AX8" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="AY8" s="1">
-        <v>20093.693296</v>
+        <v>20093.693296000001</v>
       </c>
       <c r="AZ8" s="1">
-        <v>5.581581</v>
+        <v>5.5815809999999999</v>
       </c>
       <c r="BA8" s="1">
-        <v>994.347000</v>
+        <v>994.34699999999998</v>
       </c>
       <c r="BB8" s="1">
-        <v>-125.269000</v>
+        <v>-125.26900000000001</v>
       </c>
       <c r="BC8" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="BD8" s="1">
-        <v>20104.623870</v>
+        <v>20104.623869999999</v>
       </c>
       <c r="BE8" s="1">
-        <v>5.584618</v>
+        <v>5.5846179999999999</v>
       </c>
       <c r="BF8" s="1">
-        <v>1033.230000</v>
+        <v>1033.23</v>
       </c>
       <c r="BG8" s="1">
-        <v>-197.836000</v>
+        <v>-197.83600000000001</v>
       </c>
       <c r="BH8" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="BI8" s="1">
-        <v>20115.412832</v>
+        <v>20115.412832000002</v>
       </c>
       <c r="BJ8" s="1">
-        <v>5.587615</v>
+        <v>5.5876150000000004</v>
       </c>
       <c r="BK8" s="1">
-        <v>1100.250000</v>
+        <v>1100.25</v>
       </c>
       <c r="BL8" s="1">
-        <v>-315.527000</v>
+        <v>-315.52699999999999</v>
       </c>
       <c r="BM8" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="BN8" s="1">
-        <v>20126.372930</v>
+        <v>20126.372930000001</v>
       </c>
       <c r="BO8" s="1">
-        <v>5.590659</v>
+        <v>5.5906589999999996</v>
       </c>
       <c r="BP8" s="1">
-        <v>1209.000000</v>
+        <v>1209</v>
       </c>
       <c r="BQ8" s="1">
-        <v>-501.304000</v>
+        <v>-501.30399999999997</v>
       </c>
       <c r="BR8" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="BS8" s="1">
-        <v>20136.792884</v>
+        <v>20136.792883999999</v>
       </c>
       <c r="BT8" s="1">
-        <v>5.593554</v>
+        <v>5.5935540000000001</v>
       </c>
       <c r="BU8" s="1">
-        <v>1331.350000</v>
+        <v>1331.35</v>
       </c>
       <c r="BV8" s="1">
-        <v>-705.112000</v>
+        <v>-705.11199999999997</v>
       </c>
       <c r="BW8" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="BX8" s="1">
         <v>20147.847221</v>
       </c>
       <c r="BY8" s="1">
-        <v>5.596624</v>
+        <v>5.5966240000000003</v>
       </c>
       <c r="BZ8" s="1">
-        <v>1468.490000</v>
+        <v>1468.49</v>
       </c>
       <c r="CA8" s="1">
-        <v>-923.102000</v>
+        <v>-923.10199999999998</v>
       </c>
       <c r="CB8" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="CC8" s="1">
-        <v>20159.624230</v>
+        <v>20159.624230000001</v>
       </c>
       <c r="CD8" s="1">
-        <v>5.599896</v>
+        <v>5.5998960000000002</v>
       </c>
       <c r="CE8" s="1">
-        <v>1830.150000</v>
+        <v>1830.15</v>
       </c>
       <c r="CF8" s="1">
-        <v>-1440.970000</v>
+        <v>-1440.97</v>
       </c>
       <c r="CG8" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
     </row>
-    <row r="9">
+    <row r="9" spans="1:85">
       <c r="A9" s="1">
         <v>19989.472188</v>
       </c>
       <c r="B9" s="1">
-        <v>5.552631</v>
+        <v>5.5526309999999999</v>
       </c>
       <c r="C9" s="1">
-        <v>895.580000</v>
+        <v>895.58</v>
       </c>
       <c r="D9" s="1">
-        <v>-200.111000</v>
+        <v>-200.11099999999999</v>
       </c>
       <c r="E9" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="F9" s="1">
-        <v>19999.503242</v>
+        <v>19999.503241999999</v>
       </c>
       <c r="G9" s="1">
-        <v>5.555418</v>
+        <v>5.5554180000000004</v>
       </c>
       <c r="H9" s="1">
-        <v>912.884000</v>
+        <v>912.88400000000001</v>
       </c>
       <c r="I9" s="1">
-        <v>-169.194000</v>
+        <v>-169.19399999999999</v>
       </c>
       <c r="J9" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="K9" s="1">
         <v>20009.671724</v>
       </c>
       <c r="L9" s="1">
-        <v>5.558242</v>
+        <v>5.5582419999999999</v>
       </c>
       <c r="M9" s="1">
-        <v>936.308000</v>
+        <v>936.30799999999999</v>
       </c>
       <c r="N9" s="1">
-        <v>-119.713000</v>
+        <v>-119.71299999999999</v>
       </c>
       <c r="O9" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="P9" s="1">
-        <v>20020.188431</v>
+        <v>20020.188430999999</v>
       </c>
       <c r="Q9" s="1">
-        <v>5.561163</v>
+        <v>5.5611629999999996</v>
       </c>
       <c r="R9" s="1">
-        <v>942.813000</v>
+        <v>942.81299999999999</v>
       </c>
       <c r="S9" s="1">
-        <v>-103.351000</v>
+        <v>-103.351</v>
       </c>
       <c r="T9" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="U9" s="1">
-        <v>20031.111329</v>
+        <v>20031.111328999999</v>
       </c>
       <c r="V9" s="1">
-        <v>5.564198</v>
+        <v>5.5641980000000002</v>
       </c>
       <c r="W9" s="1">
-        <v>949.158000</v>
+        <v>949.15800000000002</v>
       </c>
       <c r="X9" s="1">
-        <v>-88.471400</v>
+        <v>-88.471400000000003</v>
       </c>
       <c r="Y9" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="Z9" s="1">
-        <v>20041.282756</v>
+        <v>20041.282756000001</v>
       </c>
       <c r="AA9" s="1">
-        <v>5.567023</v>
+        <v>5.5670229999999998</v>
       </c>
       <c r="AB9" s="1">
-        <v>956.240000</v>
+        <v>956.24</v>
       </c>
       <c r="AC9" s="1">
-        <v>-77.049000</v>
+        <v>-77.049000000000007</v>
       </c>
       <c r="AD9" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="AE9" s="1">
         <v>20051.468136</v>
@@ -2370,904 +2786,904 @@
         <v>5.569852</v>
       </c>
       <c r="AG9" s="1">
-        <v>960.708000</v>
+        <v>960.70799999999997</v>
       </c>
       <c r="AH9" s="1">
-        <v>-74.869000</v>
+        <v>-74.869</v>
       </c>
       <c r="AI9" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="AJ9" s="1">
-        <v>20061.648984</v>
+        <v>20061.648983999999</v>
       </c>
       <c r="AK9" s="1">
-        <v>5.572680</v>
+        <v>5.5726800000000001</v>
       </c>
       <c r="AL9" s="1">
-        <v>967.956000</v>
+        <v>967.95600000000002</v>
       </c>
       <c r="AM9" s="1">
-        <v>-79.832800</v>
+        <v>-79.832800000000006</v>
       </c>
       <c r="AN9" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="AO9" s="1">
-        <v>20071.977674</v>
+        <v>20071.977674000002</v>
       </c>
       <c r="AP9" s="1">
-        <v>5.575549</v>
+        <v>5.5755489999999996</v>
       </c>
       <c r="AQ9" s="1">
-        <v>976.089000</v>
+        <v>976.08900000000006</v>
       </c>
       <c r="AR9" s="1">
-        <v>-91.610500</v>
+        <v>-91.610500000000002</v>
       </c>
       <c r="AS9" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="AT9" s="1">
-        <v>20082.975963</v>
+        <v>20082.975963000001</v>
       </c>
       <c r="AU9" s="1">
-        <v>5.578604</v>
+        <v>5.5786040000000003</v>
       </c>
       <c r="AV9" s="1">
-        <v>986.011000</v>
+        <v>986.01099999999997</v>
       </c>
       <c r="AW9" s="1">
-        <v>-109.515000</v>
+        <v>-109.515</v>
       </c>
       <c r="AX9" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="AY9" s="1">
-        <v>20094.114621</v>
+        <v>20094.114621000001</v>
       </c>
       <c r="AZ9" s="1">
-        <v>5.581699</v>
+        <v>5.5816990000000004</v>
       </c>
       <c r="BA9" s="1">
-        <v>994.334000</v>
+        <v>994.33399999999995</v>
       </c>
       <c r="BB9" s="1">
-        <v>-125.280000</v>
+        <v>-125.28</v>
       </c>
       <c r="BC9" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="BD9" s="1">
         <v>20105.065294</v>
       </c>
       <c r="BE9" s="1">
-        <v>5.584740</v>
+        <v>5.58474</v>
       </c>
       <c r="BF9" s="1">
-        <v>1033.240000</v>
+        <v>1033.24</v>
       </c>
       <c r="BG9" s="1">
-        <v>-197.873000</v>
+        <v>-197.87299999999999</v>
       </c>
       <c r="BH9" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="BI9" s="1">
-        <v>20115.783344</v>
+        <v>20115.783343999999</v>
       </c>
       <c r="BJ9" s="1">
-        <v>5.587718</v>
+        <v>5.5877179999999997</v>
       </c>
       <c r="BK9" s="1">
-        <v>1100.290000</v>
+        <v>1100.29</v>
       </c>
       <c r="BL9" s="1">
-        <v>-315.541000</v>
+        <v>-315.541</v>
       </c>
       <c r="BM9" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="BN9" s="1">
-        <v>20126.768770</v>
+        <v>20126.768769999999</v>
       </c>
       <c r="BO9" s="1">
-        <v>5.590769</v>
+        <v>5.5907689999999999</v>
       </c>
       <c r="BP9" s="1">
-        <v>1208.960000</v>
+        <v>1208.96</v>
       </c>
       <c r="BQ9" s="1">
-        <v>-501.358000</v>
+        <v>-501.358</v>
       </c>
       <c r="BR9" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="BS9" s="1">
-        <v>20137.204570</v>
+        <v>20137.204570000002</v>
       </c>
       <c r="BT9" s="1">
-        <v>5.593668</v>
+        <v>5.5936680000000001</v>
       </c>
       <c r="BU9" s="1">
-        <v>1331.280000</v>
+        <v>1331.28</v>
       </c>
       <c r="BV9" s="1">
-        <v>-705.168000</v>
+        <v>-705.16800000000001</v>
       </c>
       <c r="BW9" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="BX9" s="1">
-        <v>20148.291141</v>
+        <v>20148.291141000002</v>
       </c>
       <c r="BY9" s="1">
-        <v>5.596748</v>
+        <v>5.5967479999999998</v>
       </c>
       <c r="BZ9" s="1">
-        <v>1468.600000</v>
+        <v>1468.6</v>
       </c>
       <c r="CA9" s="1">
-        <v>-923.233000</v>
+        <v>-923.23299999999995</v>
       </c>
       <c r="CB9" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="CC9" s="1">
         <v>20160.142549</v>
       </c>
       <c r="CD9" s="1">
-        <v>5.600040</v>
+        <v>5.6000399999999999</v>
       </c>
       <c r="CE9" s="1">
-        <v>1829.830000</v>
+        <v>1829.83</v>
       </c>
       <c r="CF9" s="1">
-        <v>-1441.630000</v>
+        <v>-1441.63</v>
       </c>
       <c r="CG9" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
     </row>
-    <row r="10">
+    <row r="10" spans="1:85">
       <c r="A10" s="1">
-        <v>19989.804471</v>
+        <v>19989.804470999999</v>
       </c>
       <c r="B10" s="1">
-        <v>5.552723</v>
+        <v>5.5527230000000003</v>
       </c>
       <c r="C10" s="1">
-        <v>895.567000</v>
+        <v>895.56700000000001</v>
       </c>
       <c r="D10" s="1">
-        <v>-200.149000</v>
+        <v>-200.149</v>
       </c>
       <c r="E10" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="F10" s="1">
         <v>19999.843535</v>
       </c>
       <c r="G10" s="1">
-        <v>5.555512</v>
+        <v>5.5555120000000002</v>
       </c>
       <c r="H10" s="1">
-        <v>913.212000</v>
+        <v>913.21199999999999</v>
       </c>
       <c r="I10" s="1">
-        <v>-169.280000</v>
+        <v>-169.28</v>
       </c>
       <c r="J10" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="K10" s="1">
-        <v>20010.367614</v>
+        <v>20010.367613999999</v>
       </c>
       <c r="L10" s="1">
-        <v>5.558435</v>
+        <v>5.5584350000000002</v>
       </c>
       <c r="M10" s="1">
-        <v>936.189000</v>
+        <v>936.18899999999996</v>
       </c>
       <c r="N10" s="1">
-        <v>-119.746000</v>
+        <v>-119.746</v>
       </c>
       <c r="O10" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="P10" s="1">
-        <v>20020.881310</v>
+        <v>20020.881310000001</v>
       </c>
       <c r="Q10" s="1">
         <v>5.561356</v>
       </c>
       <c r="R10" s="1">
-        <v>942.832000</v>
+        <v>942.83199999999999</v>
       </c>
       <c r="S10" s="1">
-        <v>-103.370000</v>
+        <v>-103.37</v>
       </c>
       <c r="T10" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="U10" s="1">
-        <v>20031.457503</v>
+        <v>20031.457503000001</v>
       </c>
       <c r="V10" s="1">
-        <v>5.564294</v>
+        <v>5.5642940000000003</v>
       </c>
       <c r="W10" s="1">
-        <v>949.068000</v>
+        <v>949.06799999999998</v>
       </c>
       <c r="X10" s="1">
-        <v>-88.399700</v>
+        <v>-88.399699999999996</v>
       </c>
       <c r="Y10" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="Z10" s="1">
-        <v>20041.628962</v>
+        <v>20041.628961999999</v>
       </c>
       <c r="AA10" s="1">
-        <v>5.567119</v>
+        <v>5.5671189999999999</v>
       </c>
       <c r="AB10" s="1">
-        <v>956.118000</v>
+        <v>956.11800000000005</v>
       </c>
       <c r="AC10" s="1">
-        <v>-76.902300</v>
+        <v>-76.902299999999997</v>
       </c>
       <c r="AD10" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="AE10" s="1">
-        <v>20051.813330</v>
+        <v>20051.813330000001</v>
       </c>
       <c r="AF10" s="1">
-        <v>5.569948</v>
+        <v>5.5699480000000001</v>
       </c>
       <c r="AG10" s="1">
-        <v>960.833000</v>
+        <v>960.83299999999997</v>
       </c>
       <c r="AH10" s="1">
-        <v>-74.921600</v>
+        <v>-74.921599999999998</v>
       </c>
       <c r="AI10" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="AJ10" s="1">
-        <v>20062.298247</v>
+        <v>20062.298246999999</v>
       </c>
       <c r="AK10" s="1">
-        <v>5.572861</v>
+        <v>5.5728609999999996</v>
       </c>
       <c r="AL10" s="1">
-        <v>967.958000</v>
+        <v>967.95799999999997</v>
       </c>
       <c r="AM10" s="1">
-        <v>-79.851000</v>
+        <v>-79.850999999999999</v>
       </c>
       <c r="AN10" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="AO10" s="1">
-        <v>20072.672570</v>
+        <v>20072.672569999999</v>
       </c>
       <c r="AP10" s="1">
         <v>5.575742</v>
       </c>
       <c r="AQ10" s="1">
-        <v>976.084000</v>
+        <v>976.08399999999995</v>
       </c>
       <c r="AR10" s="1">
-        <v>-91.619400</v>
+        <v>-91.619399999999999</v>
       </c>
       <c r="AS10" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="AT10" s="1">
-        <v>20083.388635</v>
+        <v>20083.388634999999</v>
       </c>
       <c r="AU10" s="1">
-        <v>5.578719</v>
+        <v>5.5787190000000004</v>
       </c>
       <c r="AV10" s="1">
-        <v>986.038000</v>
+        <v>986.03800000000001</v>
       </c>
       <c r="AW10" s="1">
-        <v>-109.519000</v>
+        <v>-109.51900000000001</v>
       </c>
       <c r="AX10" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="AY10" s="1">
         <v>20094.489102</v>
       </c>
       <c r="AZ10" s="1">
-        <v>5.581803</v>
+        <v>5.5818029999999998</v>
       </c>
       <c r="BA10" s="1">
-        <v>994.360000</v>
+        <v>994.36</v>
       </c>
       <c r="BB10" s="1">
-        <v>-125.291000</v>
+        <v>-125.291</v>
       </c>
       <c r="BC10" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="BD10" s="1">
-        <v>20105.427374</v>
+        <v>20105.427373999999</v>
       </c>
       <c r="BE10" s="1">
-        <v>5.584841</v>
+        <v>5.5848409999999999</v>
       </c>
       <c r="BF10" s="1">
-        <v>1033.260000</v>
+        <v>1033.26</v>
       </c>
       <c r="BG10" s="1">
-        <v>-197.861000</v>
+        <v>-197.86099999999999</v>
       </c>
       <c r="BH10" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="BI10" s="1">
         <v>20116.159312</v>
       </c>
       <c r="BJ10" s="1">
-        <v>5.587822</v>
+        <v>5.5878220000000001</v>
       </c>
       <c r="BK10" s="1">
-        <v>1100.230000</v>
+        <v>1100.23</v>
       </c>
       <c r="BL10" s="1">
-        <v>-315.547000</v>
+        <v>-315.54700000000003</v>
       </c>
       <c r="BM10" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="BN10" s="1">
-        <v>20127.195298</v>
+        <v>20127.195297999999</v>
       </c>
       <c r="BO10" s="1">
-        <v>5.590888</v>
+        <v>5.5908879999999996</v>
       </c>
       <c r="BP10" s="1">
-        <v>1208.940000</v>
+        <v>1208.94</v>
       </c>
       <c r="BQ10" s="1">
-        <v>-501.291000</v>
+        <v>-501.291</v>
       </c>
       <c r="BR10" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="BS10" s="1">
-        <v>20137.619254</v>
+        <v>20137.619254000001</v>
       </c>
       <c r="BT10" s="1">
-        <v>5.593783</v>
+        <v>5.5937830000000002</v>
       </c>
       <c r="BU10" s="1">
-        <v>1331.180000</v>
+        <v>1331.18</v>
       </c>
       <c r="BV10" s="1">
-        <v>-705.201000</v>
+        <v>-705.20100000000002</v>
       </c>
       <c r="BW10" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="BX10" s="1">
         <v>20148.706821</v>
       </c>
       <c r="BY10" s="1">
-        <v>5.596863</v>
+        <v>5.5968629999999999</v>
       </c>
       <c r="BZ10" s="1">
-        <v>1468.550000</v>
+        <v>1468.55</v>
       </c>
       <c r="CA10" s="1">
-        <v>-923.210000</v>
+        <v>-923.21</v>
       </c>
       <c r="CB10" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="CC10" s="1">
-        <v>20160.696112</v>
+        <v>20160.696112000001</v>
       </c>
       <c r="CD10" s="1">
         <v>5.600193</v>
       </c>
       <c r="CE10" s="1">
-        <v>1828.840000</v>
+        <v>1828.84</v>
       </c>
       <c r="CF10" s="1">
-        <v>-1441.320000</v>
+        <v>-1441.32</v>
       </c>
       <c r="CG10" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
     </row>
-    <row r="11">
+    <row r="11" spans="1:85">
       <c r="A11" s="1">
         <v>19990.352582</v>
       </c>
       <c r="B11" s="1">
-        <v>5.552876</v>
+        <v>5.5528760000000004</v>
       </c>
       <c r="C11" s="1">
-        <v>895.709000</v>
+        <v>895.70899999999995</v>
       </c>
       <c r="D11" s="1">
-        <v>-200.141000</v>
+        <v>-200.14099999999999</v>
       </c>
       <c r="E11" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="F11" s="1">
-        <v>20000.535932</v>
+        <v>20000.535931999999</v>
       </c>
       <c r="G11" s="1">
-        <v>5.555704</v>
+        <v>5.5557040000000004</v>
       </c>
       <c r="H11" s="1">
-        <v>913.378000</v>
+        <v>913.37800000000004</v>
       </c>
       <c r="I11" s="1">
-        <v>-169.306000</v>
+        <v>-169.30600000000001</v>
       </c>
       <c r="J11" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="K11" s="1">
-        <v>20010.718315</v>
+        <v>20010.718314999998</v>
       </c>
       <c r="L11" s="1">
-        <v>5.558533</v>
+        <v>5.5585329999999997</v>
       </c>
       <c r="M11" s="1">
-        <v>936.075000</v>
+        <v>936.07500000000005</v>
       </c>
       <c r="N11" s="1">
-        <v>-119.721000</v>
+        <v>-119.721</v>
       </c>
       <c r="O11" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="P11" s="1">
-        <v>20021.233469</v>
+        <v>20021.233468999999</v>
       </c>
       <c r="Q11" s="1">
-        <v>5.561454</v>
+        <v>5.5614540000000003</v>
       </c>
       <c r="R11" s="1">
-        <v>942.810000</v>
+        <v>942.81</v>
       </c>
       <c r="S11" s="1">
-        <v>-103.397000</v>
+        <v>-103.39700000000001</v>
       </c>
       <c r="T11" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="U11" s="1">
-        <v>20031.800769</v>
+        <v>20031.800769000001</v>
       </c>
       <c r="V11" s="1">
-        <v>5.564389</v>
+        <v>5.5643890000000003</v>
       </c>
       <c r="W11" s="1">
-        <v>949.033000</v>
+        <v>949.03300000000002</v>
       </c>
       <c r="X11" s="1">
-        <v>-88.476100</v>
+        <v>-88.476100000000002</v>
       </c>
       <c r="Y11" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="Z11" s="1">
         <v>20042.288182</v>
       </c>
       <c r="AA11" s="1">
-        <v>5.567302</v>
+        <v>5.5673019999999998</v>
       </c>
       <c r="AB11" s="1">
-        <v>956.188000</v>
+        <v>956.18799999999999</v>
       </c>
       <c r="AC11" s="1">
-        <v>-76.994400</v>
+        <v>-76.994399999999999</v>
       </c>
       <c r="AD11" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="AE11" s="1">
         <v>20052.466548</v>
       </c>
       <c r="AF11" s="1">
-        <v>5.570130</v>
+        <v>5.5701299999999998</v>
       </c>
       <c r="AG11" s="1">
-        <v>960.812000</v>
+        <v>960.81200000000001</v>
       </c>
       <c r="AH11" s="1">
-        <v>-74.926300</v>
+        <v>-74.926299999999998</v>
       </c>
       <c r="AI11" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="AJ11" s="1">
         <v>20062.691574</v>
       </c>
       <c r="AK11" s="1">
-        <v>5.572970</v>
+        <v>5.5729699999999998</v>
       </c>
       <c r="AL11" s="1">
-        <v>967.950000</v>
+        <v>967.95</v>
       </c>
       <c r="AM11" s="1">
-        <v>-79.835600</v>
+        <v>-79.835599999999999</v>
       </c>
       <c r="AN11" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="AO11" s="1">
-        <v>20073.076808</v>
+        <v>20073.076808000002</v>
       </c>
       <c r="AP11" s="1">
-        <v>5.575855</v>
+        <v>5.5758549999999998</v>
       </c>
       <c r="AQ11" s="1">
-        <v>976.079000</v>
+        <v>976.07899999999995</v>
       </c>
       <c r="AR11" s="1">
-        <v>-91.628000</v>
+        <v>-91.628</v>
       </c>
       <c r="AS11" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="AT11" s="1">
-        <v>20083.753690</v>
+        <v>20083.753690000001</v>
       </c>
       <c r="AU11" s="1">
-        <v>5.578820</v>
+        <v>5.5788200000000003</v>
       </c>
       <c r="AV11" s="1">
-        <v>986.013000</v>
+        <v>986.01300000000003</v>
       </c>
       <c r="AW11" s="1">
-        <v>-109.505000</v>
+        <v>-109.505</v>
       </c>
       <c r="AX11" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="AY11" s="1">
-        <v>20094.866557</v>
+        <v>20094.866557000001</v>
       </c>
       <c r="AZ11" s="1">
-        <v>5.581907</v>
+        <v>5.5819070000000002</v>
       </c>
       <c r="BA11" s="1">
-        <v>994.356000</v>
+        <v>994.35599999999999</v>
       </c>
       <c r="BB11" s="1">
-        <v>-125.275000</v>
+        <v>-125.27500000000001</v>
       </c>
       <c r="BC11" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="BD11" s="1">
         <v>20105.788461</v>
       </c>
       <c r="BE11" s="1">
-        <v>5.584941</v>
+        <v>5.5849409999999997</v>
       </c>
       <c r="BF11" s="1">
-        <v>1033.270000</v>
+        <v>1033.27</v>
       </c>
       <c r="BG11" s="1">
-        <v>-197.860000</v>
+        <v>-197.86</v>
       </c>
       <c r="BH11" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="BI11" s="1">
-        <v>20116.581407</v>
+        <v>20116.581407000001</v>
       </c>
       <c r="BJ11" s="1">
-        <v>5.587939</v>
+        <v>5.5879390000000004</v>
       </c>
       <c r="BK11" s="1">
-        <v>1100.230000</v>
+        <v>1100.23</v>
       </c>
       <c r="BL11" s="1">
-        <v>-315.545000</v>
+        <v>-315.54500000000002</v>
       </c>
       <c r="BM11" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="BN11" s="1">
         <v>20127.590387</v>
       </c>
       <c r="BO11" s="1">
-        <v>5.590997</v>
+        <v>5.5909969999999998</v>
       </c>
       <c r="BP11" s="1">
-        <v>1208.960000</v>
+        <v>1208.96</v>
       </c>
       <c r="BQ11" s="1">
-        <v>-501.279000</v>
+        <v>-501.279</v>
       </c>
       <c r="BR11" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="BS11" s="1">
         <v>20138.055202</v>
       </c>
       <c r="BT11" s="1">
-        <v>5.593904</v>
+        <v>5.5939040000000002</v>
       </c>
       <c r="BU11" s="1">
-        <v>1331.200000</v>
+        <v>1331.2</v>
       </c>
       <c r="BV11" s="1">
-        <v>-705.224000</v>
+        <v>-705.22400000000005</v>
       </c>
       <c r="BW11" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="BX11" s="1">
-        <v>20149.153684</v>
+        <v>20149.153684000001</v>
       </c>
       <c r="BY11" s="1">
-        <v>5.596987</v>
+        <v>5.5969870000000004</v>
       </c>
       <c r="BZ11" s="1">
-        <v>1468.590000</v>
+        <v>1468.59</v>
       </c>
       <c r="CA11" s="1">
-        <v>-923.402000</v>
+        <v>-923.40200000000004</v>
       </c>
       <c r="CB11" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="CC11" s="1">
         <v>20161.225316</v>
       </c>
       <c r="CD11" s="1">
-        <v>5.600340</v>
+        <v>5.6003400000000001</v>
       </c>
       <c r="CE11" s="1">
-        <v>1830.230000</v>
+        <v>1830.23</v>
       </c>
       <c r="CF11" s="1">
-        <v>-1441.140000</v>
+        <v>-1441.14</v>
       </c>
       <c r="CG11" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
     </row>
-    <row r="12">
+    <row r="12" spans="1:85">
       <c r="A12" s="1">
-        <v>19990.490933</v>
+        <v>19990.490933000001</v>
       </c>
       <c r="B12" s="1">
-        <v>5.552914</v>
+        <v>5.5529140000000003</v>
       </c>
       <c r="C12" s="1">
-        <v>895.580000</v>
+        <v>895.58</v>
       </c>
       <c r="D12" s="1">
-        <v>-200.128000</v>
+        <v>-200.12799999999999</v>
       </c>
       <c r="E12" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="F12" s="1">
-        <v>20000.879144</v>
+        <v>20000.879143999999</v>
       </c>
       <c r="G12" s="1">
-        <v>5.555800</v>
+        <v>5.5557999999999996</v>
       </c>
       <c r="H12" s="1">
-        <v>913.412000</v>
+        <v>913.41200000000003</v>
       </c>
       <c r="I12" s="1">
-        <v>-169.186000</v>
+        <v>-169.18600000000001</v>
       </c>
       <c r="J12" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="K12" s="1">
-        <v>20011.064986</v>
+        <v>20011.064986000001</v>
       </c>
       <c r="L12" s="1">
-        <v>5.558629</v>
+        <v>5.5586289999999998</v>
       </c>
       <c r="M12" s="1">
-        <v>936.379000</v>
+        <v>936.37900000000002</v>
       </c>
       <c r="N12" s="1">
-        <v>-119.625000</v>
+        <v>-119.625</v>
       </c>
       <c r="O12" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="P12" s="1">
-        <v>20021.582157</v>
+        <v>20021.582157000001</v>
       </c>
       <c r="Q12" s="1">
-        <v>5.561551</v>
+        <v>5.5615509999999997</v>
       </c>
       <c r="R12" s="1">
-        <v>942.821000</v>
+        <v>942.82100000000003</v>
       </c>
       <c r="S12" s="1">
-        <v>-103.420000</v>
+        <v>-103.42</v>
       </c>
       <c r="T12" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="U12" s="1">
-        <v>20032.444046</v>
+        <v>20032.444046000001</v>
       </c>
       <c r="V12" s="1">
-        <v>5.564568</v>
+        <v>5.5645680000000004</v>
       </c>
       <c r="W12" s="1">
-        <v>949.098000</v>
+        <v>949.09799999999996</v>
       </c>
       <c r="X12" s="1">
-        <v>-88.508700</v>
+        <v>-88.508700000000005</v>
       </c>
       <c r="Y12" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="Z12" s="1">
-        <v>20042.676514</v>
+        <v>20042.676513999999</v>
       </c>
       <c r="AA12" s="1">
-        <v>5.567410</v>
+        <v>5.5674099999999997</v>
       </c>
       <c r="AB12" s="1">
-        <v>956.121000</v>
+        <v>956.12099999999998</v>
       </c>
       <c r="AC12" s="1">
-        <v>-76.992500</v>
+        <v>-76.992500000000007</v>
       </c>
       <c r="AD12" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="AE12" s="1">
-        <v>20052.843507</v>
+        <v>20052.843507000001</v>
       </c>
       <c r="AF12" s="1">
-        <v>5.570234</v>
+        <v>5.5702340000000001</v>
       </c>
       <c r="AG12" s="1">
-        <v>960.787000</v>
+        <v>960.78700000000003</v>
       </c>
       <c r="AH12" s="1">
-        <v>-74.931100</v>
+        <v>-74.931100000000001</v>
       </c>
       <c r="AI12" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="AJ12" s="1">
-        <v>20063.043238</v>
+        <v>20063.043237999998</v>
       </c>
       <c r="AK12" s="1">
-        <v>5.573068</v>
+        <v>5.5730680000000001</v>
       </c>
       <c r="AL12" s="1">
-        <v>967.977000</v>
+        <v>967.97699999999998</v>
       </c>
       <c r="AM12" s="1">
-        <v>-79.835100</v>
+        <v>-79.835099999999997</v>
       </c>
       <c r="AN12" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="AO12" s="1">
-        <v>20073.445336</v>
+        <v>20073.445336000001</v>
       </c>
       <c r="AP12" s="1">
-        <v>5.575957</v>
+        <v>5.5759569999999998</v>
       </c>
       <c r="AQ12" s="1">
-        <v>976.092000</v>
+        <v>976.09199999999998</v>
       </c>
       <c r="AR12" s="1">
-        <v>-91.619200</v>
+        <v>-91.619200000000006</v>
       </c>
       <c r="AS12" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="AT12" s="1">
-        <v>20084.115770</v>
+        <v>20084.11577</v>
       </c>
       <c r="AU12" s="1">
-        <v>5.578921</v>
+        <v>5.5789210000000002</v>
       </c>
       <c r="AV12" s="1">
-        <v>986.002000</v>
+        <v>986.00199999999995</v>
       </c>
       <c r="AW12" s="1">
-        <v>-109.504000</v>
+        <v>-109.504</v>
       </c>
       <c r="AX12" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="AY12" s="1">
-        <v>20095.288156</v>
+        <v>20095.288155999999</v>
       </c>
       <c r="AZ12" s="1">
-        <v>5.582024</v>
+        <v>5.5820239999999997</v>
       </c>
       <c r="BA12" s="1">
-        <v>994.347000</v>
+        <v>994.34699999999998</v>
       </c>
       <c r="BB12" s="1">
-        <v>-125.273000</v>
+        <v>-125.273</v>
       </c>
       <c r="BC12" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="BD12" s="1">
-        <v>20106.210557</v>
+        <v>20106.210556999999</v>
       </c>
       <c r="BE12" s="1">
-        <v>5.585058</v>
+        <v>5.5850580000000001</v>
       </c>
       <c r="BF12" s="1">
-        <v>1033.250000</v>
+        <v>1033.25</v>
       </c>
       <c r="BG12" s="1">
-        <v>-197.837000</v>
+        <v>-197.83699999999999</v>
       </c>
       <c r="BH12" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="BI12" s="1">
-        <v>20116.909792</v>
+        <v>20116.909791999999</v>
       </c>
       <c r="BJ12" s="1">
-        <v>5.588030</v>
+        <v>5.5880299999999998</v>
       </c>
       <c r="BK12" s="1">
-        <v>1100.250000</v>
+        <v>1100.25</v>
       </c>
       <c r="BL12" s="1">
-        <v>-315.566000</v>
+        <v>-315.56599999999997</v>
       </c>
       <c r="BM12" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="BN12" s="1">
-        <v>20128.007777</v>
+        <v>20128.007776999999</v>
       </c>
       <c r="BO12" s="1">
         <v>5.591113</v>
       </c>
       <c r="BP12" s="1">
-        <v>1208.960000</v>
+        <v>1208.96</v>
       </c>
       <c r="BQ12" s="1">
-        <v>-501.284000</v>
+        <v>-501.28399999999999</v>
       </c>
       <c r="BR12" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="BS12" s="1">
-        <v>20138.486722</v>
+        <v>20138.486722000001</v>
       </c>
       <c r="BT12" s="1">
-        <v>5.594024</v>
+        <v>5.5940240000000001</v>
       </c>
       <c r="BU12" s="1">
-        <v>1331.130000</v>
+        <v>1331.13</v>
       </c>
       <c r="BV12" s="1">
-        <v>-705.234000</v>
+        <v>-705.23400000000004</v>
       </c>
       <c r="BW12" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="BX12" s="1">
         <v>20149.576276</v>
@@ -3276,482 +3692,482 @@
         <v>5.597105</v>
       </c>
       <c r="BZ12" s="1">
-        <v>1468.480000</v>
+        <v>1468.48</v>
       </c>
       <c r="CA12" s="1">
-        <v>-923.172000</v>
+        <v>-923.17200000000003</v>
       </c>
       <c r="CB12" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="CC12" s="1">
-        <v>20161.741652</v>
+        <v>20161.741652000001</v>
       </c>
       <c r="CD12" s="1">
-        <v>5.600484</v>
+        <v>5.6004839999999998</v>
       </c>
       <c r="CE12" s="1">
-        <v>1829.930000</v>
+        <v>1829.93</v>
       </c>
       <c r="CF12" s="1">
-        <v>-1440.000000</v>
+        <v>-1440</v>
       </c>
       <c r="CG12" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
     </row>
-    <row r="13">
+    <row r="13" spans="1:85">
       <c r="A13" s="1">
-        <v>19990.833173</v>
+        <v>19990.833172999999</v>
       </c>
       <c r="B13" s="1">
-        <v>5.553009</v>
+        <v>5.5530090000000003</v>
       </c>
       <c r="C13" s="1">
-        <v>895.459000</v>
+        <v>895.45899999999995</v>
       </c>
       <c r="D13" s="1">
-        <v>-200.038000</v>
+        <v>-200.03800000000001</v>
       </c>
       <c r="E13" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="F13" s="1">
         <v>20001.224887</v>
       </c>
       <c r="G13" s="1">
-        <v>5.555896</v>
+        <v>5.5558959999999997</v>
       </c>
       <c r="H13" s="1">
-        <v>913.074000</v>
+        <v>913.07399999999996</v>
       </c>
       <c r="I13" s="1">
-        <v>-169.160000</v>
+        <v>-169.16</v>
       </c>
       <c r="J13" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="K13" s="1">
         <v>20011.704361</v>
       </c>
       <c r="L13" s="1">
-        <v>5.558807</v>
+        <v>5.5588069999999998</v>
       </c>
       <c r="M13" s="1">
-        <v>936.057000</v>
+        <v>936.05700000000002</v>
       </c>
       <c r="N13" s="1">
-        <v>-119.800000</v>
+        <v>-119.8</v>
       </c>
       <c r="O13" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="P13" s="1">
-        <v>20022.241837</v>
+        <v>20022.241837000001</v>
       </c>
       <c r="Q13" s="1">
-        <v>5.561734</v>
+        <v>5.5617340000000004</v>
       </c>
       <c r="R13" s="1">
-        <v>942.775000</v>
+        <v>942.77499999999998</v>
       </c>
       <c r="S13" s="1">
-        <v>-103.386000</v>
+        <v>-103.386</v>
       </c>
       <c r="T13" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="U13" s="1">
         <v>20032.828974</v>
       </c>
       <c r="V13" s="1">
-        <v>5.564675</v>
+        <v>5.5646750000000003</v>
       </c>
       <c r="W13" s="1">
-        <v>949.097000</v>
+        <v>949.09699999999998</v>
       </c>
       <c r="X13" s="1">
-        <v>-88.528200</v>
+        <v>-88.528199999999998</v>
       </c>
       <c r="Y13" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="Z13" s="1">
         <v>20043.023233</v>
       </c>
       <c r="AA13" s="1">
-        <v>5.567506</v>
+        <v>5.5675059999999998</v>
       </c>
       <c r="AB13" s="1">
-        <v>956.176000</v>
+        <v>956.17600000000004</v>
       </c>
       <c r="AC13" s="1">
-        <v>-77.012000</v>
+        <v>-77.012</v>
       </c>
       <c r="AD13" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="AE13" s="1">
-        <v>20053.188723</v>
+        <v>20053.188722999999</v>
       </c>
       <c r="AF13" s="1">
-        <v>5.570330</v>
+        <v>5.5703300000000002</v>
       </c>
       <c r="AG13" s="1">
-        <v>960.736000</v>
+        <v>960.73599999999999</v>
       </c>
       <c r="AH13" s="1">
-        <v>-74.921400</v>
+        <v>-74.921400000000006</v>
       </c>
       <c r="AI13" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="AJ13" s="1">
-        <v>20063.390439</v>
+        <v>20063.390438999999</v>
       </c>
       <c r="AK13" s="1">
-        <v>5.573164</v>
+        <v>5.5731640000000002</v>
       </c>
       <c r="AL13" s="1">
-        <v>967.952000</v>
+        <v>967.952</v>
       </c>
       <c r="AM13" s="1">
-        <v>-79.818500</v>
+        <v>-79.8185</v>
       </c>
       <c r="AN13" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="AO13" s="1">
         <v>20073.804936</v>
       </c>
       <c r="AP13" s="1">
-        <v>5.576057</v>
+        <v>5.5760569999999996</v>
       </c>
       <c r="AQ13" s="1">
-        <v>976.091000</v>
+        <v>976.09100000000001</v>
       </c>
       <c r="AR13" s="1">
-        <v>-91.630500</v>
+        <v>-91.630499999999998</v>
       </c>
       <c r="AS13" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="AT13" s="1">
         <v>20084.538857</v>
       </c>
       <c r="AU13" s="1">
-        <v>5.579039</v>
+        <v>5.5790389999999999</v>
       </c>
       <c r="AV13" s="1">
-        <v>986.014000</v>
+        <v>986.01400000000001</v>
       </c>
       <c r="AW13" s="1">
-        <v>-109.479000</v>
+        <v>-109.479</v>
       </c>
       <c r="AX13" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="AY13" s="1">
-        <v>20095.584801</v>
+        <v>20095.584801000001</v>
       </c>
       <c r="AZ13" s="1">
-        <v>5.582107</v>
+        <v>5.5821069999999997</v>
       </c>
       <c r="BA13" s="1">
-        <v>994.354000</v>
+        <v>994.35400000000004</v>
       </c>
       <c r="BB13" s="1">
-        <v>-125.276000</v>
+        <v>-125.276</v>
       </c>
       <c r="BC13" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="BD13" s="1">
-        <v>20106.508654</v>
+        <v>20106.508654000001</v>
       </c>
       <c r="BE13" s="1">
-        <v>5.585141</v>
+        <v>5.5851410000000001</v>
       </c>
       <c r="BF13" s="1">
-        <v>1033.260000</v>
+        <v>1033.26</v>
       </c>
       <c r="BG13" s="1">
-        <v>-197.835000</v>
+        <v>-197.83500000000001</v>
       </c>
       <c r="BH13" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="BI13" s="1">
-        <v>20117.290704</v>
+        <v>20117.290703999999</v>
       </c>
       <c r="BJ13" s="1">
-        <v>5.588136</v>
+        <v>5.5881360000000004</v>
       </c>
       <c r="BK13" s="1">
-        <v>1100.260000</v>
+        <v>1100.26</v>
       </c>
       <c r="BL13" s="1">
-        <v>-315.552000</v>
+        <v>-315.55200000000002</v>
       </c>
       <c r="BM13" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="BN13" s="1">
-        <v>20128.407552</v>
+        <v>20128.407552000001</v>
       </c>
       <c r="BO13" s="1">
-        <v>5.591224</v>
+        <v>5.5912240000000004</v>
       </c>
       <c r="BP13" s="1">
-        <v>1208.940000</v>
+        <v>1208.94</v>
       </c>
       <c r="BQ13" s="1">
-        <v>-501.318000</v>
+        <v>-501.31799999999998</v>
       </c>
       <c r="BR13" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="BS13" s="1">
         <v>20138.896418</v>
       </c>
       <c r="BT13" s="1">
-        <v>5.594138</v>
+        <v>5.5941380000000001</v>
       </c>
       <c r="BU13" s="1">
-        <v>1331.150000</v>
+        <v>1331.15</v>
       </c>
       <c r="BV13" s="1">
-        <v>-705.284000</v>
+        <v>-705.28399999999999</v>
       </c>
       <c r="BW13" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="BX13" s="1">
-        <v>20149.998868</v>
+        <v>20149.998867999999</v>
       </c>
       <c r="BY13" s="1">
-        <v>5.597222</v>
+        <v>5.5972220000000004</v>
       </c>
       <c r="BZ13" s="1">
-        <v>1468.570000</v>
+        <v>1468.57</v>
       </c>
       <c r="CA13" s="1">
-        <v>-923.158000</v>
+        <v>-923.15800000000002</v>
       </c>
       <c r="CB13" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="CC13" s="1">
-        <v>20162.261988</v>
+        <v>20162.261987999998</v>
       </c>
       <c r="CD13" s="1">
-        <v>5.600628</v>
+        <v>5.6006280000000004</v>
       </c>
       <c r="CE13" s="1">
-        <v>1828.750000</v>
+        <v>1828.75</v>
       </c>
       <c r="CF13" s="1">
-        <v>-1440.520000</v>
+        <v>-1440.52</v>
       </c>
       <c r="CG13" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
     </row>
-    <row r="14">
+    <row r="14" spans="1:85">
       <c r="A14" s="1">
         <v>19991.474005</v>
       </c>
       <c r="B14" s="1">
-        <v>5.553187</v>
+        <v>5.5531870000000003</v>
       </c>
       <c r="C14" s="1">
-        <v>895.411000</v>
+        <v>895.41099999999994</v>
       </c>
       <c r="D14" s="1">
-        <v>-200.248000</v>
+        <v>-200.24799999999999</v>
       </c>
       <c r="E14" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="F14" s="1">
-        <v>20001.872632</v>
+        <v>20001.872631999999</v>
       </c>
       <c r="G14" s="1">
         <v>5.556076</v>
       </c>
       <c r="H14" s="1">
-        <v>913.107000</v>
+        <v>913.10699999999997</v>
       </c>
       <c r="I14" s="1">
-        <v>-169.079000</v>
+        <v>-169.07900000000001</v>
       </c>
       <c r="J14" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="K14" s="1">
-        <v>20012.100139</v>
+        <v>20012.100138999998</v>
       </c>
       <c r="L14" s="1">
-        <v>5.558917</v>
+        <v>5.5589170000000001</v>
       </c>
       <c r="M14" s="1">
-        <v>936.188000</v>
+        <v>936.18799999999999</v>
       </c>
       <c r="N14" s="1">
-        <v>-119.627000</v>
+        <v>-119.627</v>
       </c>
       <c r="O14" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="P14" s="1">
         <v>20022.629212</v>
       </c>
       <c r="Q14" s="1">
-        <v>5.561841</v>
+        <v>5.5618410000000003</v>
       </c>
       <c r="R14" s="1">
-        <v>942.766000</v>
+        <v>942.76599999999996</v>
       </c>
       <c r="S14" s="1">
-        <v>-103.367000</v>
+        <v>-103.367</v>
       </c>
       <c r="T14" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="U14" s="1">
         <v>20033.173165</v>
       </c>
       <c r="V14" s="1">
-        <v>5.564770</v>
+        <v>5.5647700000000002</v>
       </c>
       <c r="W14" s="1">
-        <v>949.157000</v>
+        <v>949.15700000000004</v>
       </c>
       <c r="X14" s="1">
-        <v>-88.551600</v>
+        <v>-88.551599999999993</v>
       </c>
       <c r="Y14" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="Z14" s="1">
-        <v>20043.373393</v>
+        <v>20043.373393000002</v>
       </c>
       <c r="AA14" s="1">
-        <v>5.567604</v>
+        <v>5.5676040000000002</v>
       </c>
       <c r="AB14" s="1">
-        <v>956.148000</v>
+        <v>956.14800000000002</v>
       </c>
       <c r="AC14" s="1">
-        <v>-77.049900</v>
+        <v>-77.049899999999994</v>
       </c>
       <c r="AD14" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="AE14" s="1">
-        <v>20053.531954</v>
+        <v>20053.531953999998</v>
       </c>
       <c r="AF14" s="1">
-        <v>5.570426</v>
+        <v>5.5704260000000003</v>
       </c>
       <c r="AG14" s="1">
-        <v>960.646000</v>
+        <v>960.64599999999996</v>
       </c>
       <c r="AH14" s="1">
-        <v>-75.001000</v>
+        <v>-75.001000000000005</v>
       </c>
       <c r="AI14" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="AJ14" s="1">
-        <v>20063.802117</v>
+        <v>20063.802116999999</v>
       </c>
       <c r="AK14" s="1">
-        <v>5.573278</v>
+        <v>5.5732780000000002</v>
       </c>
       <c r="AL14" s="1">
-        <v>967.944000</v>
+        <v>967.94399999999996</v>
       </c>
       <c r="AM14" s="1">
-        <v>-79.842300</v>
+        <v>-79.842299999999994</v>
       </c>
       <c r="AN14" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="AO14" s="1">
-        <v>20074.318792</v>
+        <v>20074.318791999998</v>
       </c>
       <c r="AP14" s="1">
-        <v>5.576200</v>
+        <v>5.5762</v>
       </c>
       <c r="AQ14" s="1">
-        <v>976.101000</v>
+        <v>976.101</v>
       </c>
       <c r="AR14" s="1">
-        <v>-91.609300</v>
+        <v>-91.609300000000005</v>
       </c>
       <c r="AS14" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="AT14" s="1">
         <v>20084.844889</v>
       </c>
       <c r="AU14" s="1">
-        <v>5.579124</v>
+        <v>5.5791240000000002</v>
       </c>
       <c r="AV14" s="1">
-        <v>986.007000</v>
+        <v>986.00699999999995</v>
       </c>
       <c r="AW14" s="1">
-        <v>-109.496000</v>
+        <v>-109.496</v>
       </c>
       <c r="AX14" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="AY14" s="1">
-        <v>20095.944891</v>
+        <v>20095.944890999999</v>
       </c>
       <c r="AZ14" s="1">
-        <v>5.582207</v>
+        <v>5.5822070000000004</v>
       </c>
       <c r="BA14" s="1">
-        <v>994.333000</v>
+        <v>994.33299999999997</v>
       </c>
       <c r="BB14" s="1">
-        <v>-125.274000</v>
+        <v>-125.274</v>
       </c>
       <c r="BC14" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="BD14" s="1">
         <v>20106.873709</v>
       </c>
       <c r="BE14" s="1">
-        <v>5.585243</v>
+        <v>5.5852430000000002</v>
       </c>
       <c r="BF14" s="1">
-        <v>1033.250000</v>
+        <v>1033.25</v>
       </c>
       <c r="BG14" s="1">
-        <v>-197.851000</v>
+        <v>-197.851</v>
       </c>
       <c r="BH14" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="BI14" s="1">
-        <v>20117.679550</v>
+        <v>20117.679550000001</v>
       </c>
       <c r="BJ14" s="1">
-        <v>5.588244</v>
+        <v>5.5882440000000004</v>
       </c>
       <c r="BK14" s="1">
-        <v>1100.250000</v>
+        <v>1100.25</v>
       </c>
       <c r="BL14" s="1">
-        <v>-315.556000</v>
+        <v>-315.55599999999998</v>
       </c>
       <c r="BM14" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="BN14" s="1">
         <v>20128.831135</v>
@@ -3760,604 +4176,604 @@
         <v>5.591342</v>
       </c>
       <c r="BP14" s="1">
-        <v>1208.940000</v>
+        <v>1208.94</v>
       </c>
       <c r="BQ14" s="1">
-        <v>-501.318000</v>
+        <v>-501.31799999999998</v>
       </c>
       <c r="BR14" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="BS14" s="1">
-        <v>20139.328433</v>
+        <v>20139.328432999999</v>
       </c>
       <c r="BT14" s="1">
         <v>5.594258</v>
       </c>
       <c r="BU14" s="1">
-        <v>1331.050000</v>
+        <v>1331.05</v>
       </c>
       <c r="BV14" s="1">
-        <v>-705.418000</v>
+        <v>-705.41800000000001</v>
       </c>
       <c r="BW14" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="BX14" s="1">
-        <v>20150.444274</v>
+        <v>20150.444274000001</v>
       </c>
       <c r="BY14" s="1">
-        <v>5.597346</v>
+        <v>5.5973459999999999</v>
       </c>
       <c r="BZ14" s="1">
-        <v>1468.500000</v>
+        <v>1468.5</v>
       </c>
       <c r="CA14" s="1">
-        <v>-923.357000</v>
+        <v>-923.35699999999997</v>
       </c>
       <c r="CB14" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="CC14" s="1">
-        <v>20162.780274</v>
+        <v>20162.780274000001</v>
       </c>
       <c r="CD14" s="1">
-        <v>5.600772</v>
+        <v>5.6007720000000001</v>
       </c>
       <c r="CE14" s="1">
-        <v>1828.890000</v>
+        <v>1828.89</v>
       </c>
       <c r="CF14" s="1">
-        <v>-1440.440000</v>
+        <v>-1440.44</v>
       </c>
       <c r="CG14" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
     </row>
-    <row r="15">
+    <row r="15" spans="1:85">
       <c r="A15" s="1">
-        <v>19991.856420</v>
+        <v>19991.85642</v>
       </c>
       <c r="B15" s="1">
         <v>5.553293</v>
       </c>
       <c r="C15" s="1">
-        <v>895.293000</v>
+        <v>895.29300000000001</v>
       </c>
       <c r="D15" s="1">
-        <v>-200.203000</v>
+        <v>-200.203</v>
       </c>
       <c r="E15" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="F15" s="1">
-        <v>20002.256076</v>
+        <v>20002.256076000001</v>
       </c>
       <c r="G15" s="1">
-        <v>5.556182</v>
+        <v>5.5561819999999997</v>
       </c>
       <c r="H15" s="1">
-        <v>913.281000</v>
+        <v>913.28099999999995</v>
       </c>
       <c r="I15" s="1">
-        <v>-168.887000</v>
+        <v>-168.887</v>
       </c>
       <c r="J15" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="K15" s="1">
-        <v>20012.444857</v>
+        <v>20012.444856999999</v>
       </c>
       <c r="L15" s="1">
-        <v>5.559012</v>
+        <v>5.5590120000000001</v>
       </c>
       <c r="M15" s="1">
-        <v>936.065000</v>
+        <v>936.06500000000005</v>
       </c>
       <c r="N15" s="1">
-        <v>-119.686000</v>
+        <v>-119.68600000000001</v>
       </c>
       <c r="O15" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="P15" s="1">
-        <v>20022.974923</v>
+        <v>20022.974923000002</v>
       </c>
       <c r="Q15" s="1">
-        <v>5.561937</v>
+        <v>5.5619370000000004</v>
       </c>
       <c r="R15" s="1">
-        <v>942.772000</v>
+        <v>942.77200000000005</v>
       </c>
       <c r="S15" s="1">
-        <v>-103.359000</v>
+        <v>-103.35899999999999</v>
       </c>
       <c r="T15" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="U15" s="1">
-        <v>20033.517886</v>
+        <v>20033.517886000001</v>
       </c>
       <c r="V15" s="1">
-        <v>5.564866</v>
+        <v>5.5648660000000003</v>
       </c>
       <c r="W15" s="1">
-        <v>949.150000</v>
+        <v>949.15</v>
       </c>
       <c r="X15" s="1">
-        <v>-88.455400</v>
+        <v>-88.455399999999997</v>
       </c>
       <c r="Y15" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="Z15" s="1">
-        <v>20043.785072</v>
+        <v>20043.785071999999</v>
       </c>
       <c r="AA15" s="1">
-        <v>5.567718</v>
+        <v>5.5677180000000002</v>
       </c>
       <c r="AB15" s="1">
-        <v>956.219000</v>
+        <v>956.21900000000005</v>
       </c>
       <c r="AC15" s="1">
-        <v>-76.929100</v>
+        <v>-76.929100000000005</v>
       </c>
       <c r="AD15" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="AE15" s="1">
-        <v>20053.940163</v>
+        <v>20053.940162999999</v>
       </c>
       <c r="AF15" s="1">
-        <v>5.570539</v>
+        <v>5.5705390000000001</v>
       </c>
       <c r="AG15" s="1">
-        <v>960.827000</v>
+        <v>960.827</v>
       </c>
       <c r="AH15" s="1">
-        <v>-75.053100</v>
+        <v>-75.053100000000001</v>
       </c>
       <c r="AI15" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="AJ15" s="1">
         <v>20064.098757</v>
       </c>
       <c r="AK15" s="1">
-        <v>5.573361</v>
+        <v>5.5733610000000002</v>
       </c>
       <c r="AL15" s="1">
-        <v>967.968000</v>
+        <v>967.96799999999996</v>
       </c>
       <c r="AM15" s="1">
-        <v>-79.840000</v>
+        <v>-79.84</v>
       </c>
       <c r="AN15" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="AO15" s="1">
-        <v>20074.528343</v>
+        <v>20074.528343000002</v>
       </c>
       <c r="AP15" s="1">
-        <v>5.576258</v>
+        <v>5.5762580000000002</v>
       </c>
       <c r="AQ15" s="1">
-        <v>976.085000</v>
+        <v>976.08500000000004</v>
       </c>
       <c r="AR15" s="1">
-        <v>-91.611900</v>
+        <v>-91.611900000000006</v>
       </c>
       <c r="AS15" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="AT15" s="1">
-        <v>20085.210936</v>
+        <v>20085.210935999999</v>
       </c>
       <c r="AU15" s="1">
-        <v>5.579225</v>
+        <v>5.5792250000000001</v>
       </c>
       <c r="AV15" s="1">
-        <v>985.979000</v>
+        <v>985.97900000000004</v>
       </c>
       <c r="AW15" s="1">
-        <v>-109.505000</v>
+        <v>-109.505</v>
       </c>
       <c r="AX15" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="AY15" s="1">
-        <v>20096.303964</v>
+        <v>20096.303963999999</v>
       </c>
       <c r="AZ15" s="1">
-        <v>5.582307</v>
+        <v>5.5823070000000001</v>
       </c>
       <c r="BA15" s="1">
-        <v>994.344000</v>
+        <v>994.34400000000005</v>
       </c>
       <c r="BB15" s="1">
-        <v>-125.274000</v>
+        <v>-125.274</v>
       </c>
       <c r="BC15" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="BD15" s="1">
-        <v>20107.230331</v>
+        <v>20107.230330999999</v>
       </c>
       <c r="BE15" s="1">
-        <v>5.585342</v>
+        <v>5.5853419999999998</v>
       </c>
       <c r="BF15" s="1">
-        <v>1033.290000</v>
+        <v>1033.29</v>
       </c>
       <c r="BG15" s="1">
-        <v>-197.846000</v>
+        <v>-197.846</v>
       </c>
       <c r="BH15" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="BI15" s="1">
         <v>20118.430525</v>
       </c>
       <c r="BJ15" s="1">
-        <v>5.588453</v>
+        <v>5.5884530000000003</v>
       </c>
       <c r="BK15" s="1">
-        <v>1100.240000</v>
+        <v>1100.24</v>
       </c>
       <c r="BL15" s="1">
-        <v>-315.553000</v>
+        <v>-315.553</v>
       </c>
       <c r="BM15" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="BN15" s="1">
         <v>20129.222942</v>
       </c>
       <c r="BO15" s="1">
-        <v>5.591451</v>
+        <v>5.5914510000000002</v>
       </c>
       <c r="BP15" s="1">
-        <v>1208.950000</v>
+        <v>1208.95</v>
       </c>
       <c r="BQ15" s="1">
-        <v>-501.312000</v>
+        <v>-501.31200000000001</v>
       </c>
       <c r="BR15" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="BS15" s="1">
-        <v>20139.755880</v>
+        <v>20139.755880000001</v>
       </c>
       <c r="BT15" s="1">
-        <v>5.594377</v>
+        <v>5.5943769999999997</v>
       </c>
       <c r="BU15" s="1">
-        <v>1331.090000</v>
+        <v>1331.09</v>
       </c>
       <c r="BV15" s="1">
-        <v>-705.492000</v>
+        <v>-705.49199999999996</v>
       </c>
       <c r="BW15" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="BX15" s="1">
-        <v>20150.876786</v>
+        <v>20150.876786000001</v>
       </c>
       <c r="BY15" s="1">
-        <v>5.597466</v>
+        <v>5.5974659999999998</v>
       </c>
       <c r="BZ15" s="1">
-        <v>1468.600000</v>
+        <v>1468.6</v>
       </c>
       <c r="CA15" s="1">
-        <v>-923.152000</v>
+        <v>-923.15200000000004</v>
       </c>
       <c r="CB15" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="CC15" s="1">
-        <v>20163.637073</v>
+        <v>20163.637073000002</v>
       </c>
       <c r="CD15" s="1">
-        <v>5.601010</v>
+        <v>5.6010099999999996</v>
       </c>
       <c r="CE15" s="1">
-        <v>1829.910000</v>
+        <v>1829.91</v>
       </c>
       <c r="CF15" s="1">
-        <v>-1439.890000</v>
+        <v>-1439.89</v>
       </c>
       <c r="CG15" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
     </row>
-    <row r="16">
+    <row r="16" spans="1:85">
       <c r="A16" s="1">
-        <v>19992.195684</v>
+        <v>19992.195683999998</v>
       </c>
       <c r="B16" s="1">
         <v>5.553388</v>
       </c>
       <c r="C16" s="1">
-        <v>895.465000</v>
+        <v>895.46500000000003</v>
       </c>
       <c r="D16" s="1">
-        <v>-200.237000</v>
+        <v>-200.23699999999999</v>
       </c>
       <c r="E16" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="F16" s="1">
-        <v>20002.602246</v>
+        <v>20002.602245999999</v>
       </c>
       <c r="G16" s="1">
-        <v>5.556278</v>
+        <v>5.5562779999999998</v>
       </c>
       <c r="H16" s="1">
-        <v>913.319000</v>
+        <v>913.31899999999996</v>
       </c>
       <c r="I16" s="1">
-        <v>-168.846000</v>
+        <v>-168.846</v>
       </c>
       <c r="J16" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="K16" s="1">
         <v>20012.790105</v>
       </c>
       <c r="L16" s="1">
-        <v>5.559108</v>
+        <v>5.5591080000000002</v>
       </c>
       <c r="M16" s="1">
-        <v>936.192000</v>
+        <v>936.19200000000001</v>
       </c>
       <c r="N16" s="1">
-        <v>-119.676000</v>
+        <v>-119.676</v>
       </c>
       <c r="O16" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="P16" s="1">
-        <v>20023.405946</v>
+        <v>20023.405945999999</v>
       </c>
       <c r="Q16" s="1">
-        <v>5.562057</v>
+        <v>5.5620570000000003</v>
       </c>
       <c r="R16" s="1">
-        <v>942.810000</v>
+        <v>942.81</v>
       </c>
       <c r="S16" s="1">
-        <v>-103.400000</v>
+        <v>-103.4</v>
       </c>
       <c r="T16" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="U16" s="1">
-        <v>20033.926092</v>
+        <v>20033.926092000002</v>
       </c>
       <c r="V16" s="1">
-        <v>5.564979</v>
+        <v>5.5649790000000001</v>
       </c>
       <c r="W16" s="1">
-        <v>949.179000</v>
+        <v>949.17899999999997</v>
       </c>
       <c r="X16" s="1">
-        <v>-88.530400</v>
+        <v>-88.5304</v>
       </c>
       <c r="Y16" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="Z16" s="1">
-        <v>20044.071300</v>
+        <v>20044.0713</v>
       </c>
       <c r="AA16" s="1">
-        <v>5.567798</v>
+        <v>5.5677979999999998</v>
       </c>
       <c r="AB16" s="1">
-        <v>956.113000</v>
+        <v>956.11300000000006</v>
       </c>
       <c r="AC16" s="1">
-        <v>-76.982400</v>
+        <v>-76.982399999999998</v>
       </c>
       <c r="AD16" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="AE16" s="1">
         <v>20054.230817</v>
       </c>
       <c r="AF16" s="1">
-        <v>5.570620</v>
+        <v>5.5706199999999999</v>
       </c>
       <c r="AG16" s="1">
-        <v>960.846000</v>
+        <v>960.846</v>
       </c>
       <c r="AH16" s="1">
-        <v>-75.140600</v>
+        <v>-75.140600000000006</v>
       </c>
       <c r="AI16" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="AJ16" s="1">
-        <v>20064.444932</v>
+        <v>20064.444931999999</v>
       </c>
       <c r="AK16" s="1">
-        <v>5.573457</v>
+        <v>5.5734570000000003</v>
       </c>
       <c r="AL16" s="1">
-        <v>967.956000</v>
+        <v>967.95600000000002</v>
       </c>
       <c r="AM16" s="1">
-        <v>-79.837500</v>
+        <v>-79.837500000000006</v>
       </c>
       <c r="AN16" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="AO16" s="1">
         <v>20074.887702</v>
       </c>
       <c r="AP16" s="1">
-        <v>5.576358</v>
+        <v>5.5763579999999999</v>
       </c>
       <c r="AQ16" s="1">
-        <v>976.082000</v>
+        <v>976.08199999999999</v>
       </c>
       <c r="AR16" s="1">
-        <v>-91.635400</v>
+        <v>-91.635400000000004</v>
       </c>
       <c r="AS16" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="AT16" s="1">
-        <v>20085.575496</v>
+        <v>20085.575496000001</v>
       </c>
       <c r="AU16" s="1">
-        <v>5.579327</v>
+        <v>5.5793270000000001</v>
       </c>
       <c r="AV16" s="1">
-        <v>986.016000</v>
+        <v>986.01599999999996</v>
       </c>
       <c r="AW16" s="1">
-        <v>-109.493000</v>
+        <v>-109.49299999999999</v>
       </c>
       <c r="AX16" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="AY16" s="1">
-        <v>20097.021210</v>
+        <v>20097.021209999999</v>
       </c>
       <c r="AZ16" s="1">
-        <v>5.582506</v>
+        <v>5.5825060000000004</v>
       </c>
       <c r="BA16" s="1">
-        <v>994.362000</v>
+        <v>994.36199999999997</v>
       </c>
       <c r="BB16" s="1">
-        <v>-125.304000</v>
+        <v>-125.304</v>
       </c>
       <c r="BC16" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="BD16" s="1">
-        <v>20107.955978</v>
+        <v>20107.955978000002</v>
       </c>
       <c r="BE16" s="1">
-        <v>5.585543</v>
+        <v>5.5855430000000004</v>
       </c>
       <c r="BF16" s="1">
-        <v>1033.270000</v>
+        <v>1033.27</v>
       </c>
       <c r="BG16" s="1">
-        <v>-197.849000</v>
+        <v>-197.84899999999999</v>
       </c>
       <c r="BH16" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="BI16" s="1">
-        <v>20118.831298</v>
+        <v>20118.831298000001</v>
       </c>
       <c r="BJ16" s="1">
-        <v>5.588564</v>
+        <v>5.5885639999999999</v>
       </c>
       <c r="BK16" s="1">
-        <v>1100.260000</v>
+        <v>1100.26</v>
       </c>
       <c r="BL16" s="1">
-        <v>-315.528000</v>
+        <v>-315.52800000000002</v>
       </c>
       <c r="BM16" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="BN16" s="1">
-        <v>20129.640134</v>
+        <v>20129.640134000001</v>
       </c>
       <c r="BO16" s="1">
-        <v>5.591567</v>
+        <v>5.5915670000000004</v>
       </c>
       <c r="BP16" s="1">
-        <v>1208.940000</v>
+        <v>1208.94</v>
       </c>
       <c r="BQ16" s="1">
-        <v>-501.305000</v>
+        <v>-501.30500000000001</v>
       </c>
       <c r="BR16" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="BS16" s="1">
-        <v>20140.171632</v>
+        <v>20140.171632000001</v>
       </c>
       <c r="BT16" s="1">
-        <v>5.594492</v>
+        <v>5.5944919999999998</v>
       </c>
       <c r="BU16" s="1">
-        <v>1331.060000</v>
+        <v>1331.06</v>
       </c>
       <c r="BV16" s="1">
-        <v>-705.509000</v>
+        <v>-705.50900000000001</v>
       </c>
       <c r="BW16" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="BX16" s="1">
-        <v>20151.600945</v>
+        <v>20151.600944999998</v>
       </c>
       <c r="BY16" s="1">
-        <v>5.597667</v>
+        <v>5.5976670000000004</v>
       </c>
       <c r="BZ16" s="1">
-        <v>1468.480000</v>
+        <v>1468.48</v>
       </c>
       <c r="CA16" s="1">
-        <v>-923.222000</v>
+        <v>-923.22199999999998</v>
       </c>
       <c r="CB16" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="CC16" s="1">
-        <v>20163.859570</v>
+        <v>20163.859570000001</v>
       </c>
       <c r="CD16" s="1">
-        <v>5.601072</v>
+        <v>5.6010720000000003</v>
       </c>
       <c r="CE16" s="1">
-        <v>1828.780000</v>
+        <v>1828.78</v>
       </c>
       <c r="CF16" s="1">
-        <v>-1440.740000</v>
+        <v>-1440.74</v>
       </c>
       <c r="CG16" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
     </row>
-    <row r="17">
+    <row r="17" spans="1:85">
       <c r="A17" s="1">
-        <v>19992.537427</v>
+        <v>19992.537426999999</v>
       </c>
       <c r="B17" s="1">
-        <v>5.553483</v>
+        <v>5.5534829999999999</v>
       </c>
       <c r="C17" s="1">
-        <v>895.440000</v>
+        <v>895.44</v>
       </c>
       <c r="D17" s="1">
-        <v>-200.063000</v>
+        <v>-200.06299999999999</v>
       </c>
       <c r="E17" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="F17" s="1">
-        <v>20002.945477</v>
+        <v>20002.945477000001</v>
       </c>
       <c r="G17" s="1">
-        <v>5.556374</v>
+        <v>5.5563739999999999</v>
       </c>
       <c r="H17" s="1">
-        <v>913.514000</v>
+        <v>913.51400000000001</v>
       </c>
       <c r="I17" s="1">
-        <v>-168.737000</v>
+        <v>-168.73699999999999</v>
       </c>
       <c r="J17" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="K17" s="1">
         <v>20013.197289</v>
@@ -4366,118 +4782,118 @@
         <v>5.559221</v>
       </c>
       <c r="M17" s="1">
-        <v>936.184000</v>
+        <v>936.18399999999997</v>
       </c>
       <c r="N17" s="1">
-        <v>-119.712000</v>
+        <v>-119.712</v>
       </c>
       <c r="O17" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="P17" s="1">
-        <v>20024.022506</v>
+        <v>20024.022506000001</v>
       </c>
       <c r="Q17" s="1">
-        <v>5.562228</v>
+        <v>5.5622280000000002</v>
       </c>
       <c r="R17" s="1">
-        <v>942.760000</v>
+        <v>942.76</v>
       </c>
       <c r="S17" s="1">
-        <v>-103.413000</v>
+        <v>-103.413</v>
       </c>
       <c r="T17" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="U17" s="1">
-        <v>20034.226171</v>
+        <v>20034.226170999998</v>
       </c>
       <c r="V17" s="1">
-        <v>5.565063</v>
+        <v>5.5650630000000003</v>
       </c>
       <c r="W17" s="1">
-        <v>949.120000</v>
+        <v>949.12</v>
       </c>
       <c r="X17" s="1">
-        <v>-88.468400</v>
+        <v>-88.468400000000003</v>
       </c>
       <c r="Y17" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="Z17" s="1">
-        <v>20044.419982</v>
+        <v>20044.419981999999</v>
       </c>
       <c r="AA17" s="1">
-        <v>5.567894</v>
+        <v>5.5678939999999999</v>
       </c>
       <c r="AB17" s="1">
-        <v>956.123000</v>
+        <v>956.12300000000005</v>
       </c>
       <c r="AC17" s="1">
-        <v>-77.041200</v>
+        <v>-77.041200000000003</v>
       </c>
       <c r="AD17" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="AE17" s="1">
-        <v>20054.570081</v>
+        <v>20054.570081000002</v>
       </c>
       <c r="AF17" s="1">
-        <v>5.570714</v>
+        <v>5.5707139999999997</v>
       </c>
       <c r="AG17" s="1">
-        <v>960.869000</v>
+        <v>960.86900000000003</v>
       </c>
       <c r="AH17" s="1">
-        <v>-74.877800</v>
+        <v>-74.877799999999993</v>
       </c>
       <c r="AI17" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="AJ17" s="1">
-        <v>20064.798096</v>
+        <v>20064.798095999999</v>
       </c>
       <c r="AK17" s="1">
-        <v>5.573555</v>
+        <v>5.5735549999999998</v>
       </c>
       <c r="AL17" s="1">
-        <v>967.967000</v>
+        <v>967.96699999999998</v>
       </c>
       <c r="AM17" s="1">
-        <v>-79.816800</v>
+        <v>-79.816800000000001</v>
       </c>
       <c r="AN17" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="AO17" s="1">
-        <v>20075.616858</v>
+        <v>20075.616858000001</v>
       </c>
       <c r="AP17" s="1">
-        <v>5.576560</v>
+        <v>5.5765599999999997</v>
       </c>
       <c r="AQ17" s="1">
-        <v>976.066000</v>
+        <v>976.06600000000003</v>
       </c>
       <c r="AR17" s="1">
-        <v>-91.601100</v>
+        <v>-91.601100000000002</v>
       </c>
       <c r="AS17" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="AT17" s="1">
-        <v>20086.308584</v>
+        <v>20086.308583999999</v>
       </c>
       <c r="AU17" s="1">
-        <v>5.579530</v>
+        <v>5.5795300000000001</v>
       </c>
       <c r="AV17" s="1">
-        <v>986.013000</v>
+        <v>986.01300000000003</v>
       </c>
       <c r="AW17" s="1">
-        <v>-109.474000</v>
+        <v>-109.474</v>
       </c>
       <c r="AX17" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="AY17" s="1">
         <v>20097.379289</v>
@@ -4486,88 +4902,88 @@
         <v>5.582605</v>
       </c>
       <c r="BA17" s="1">
-        <v>994.332000</v>
+        <v>994.33199999999999</v>
       </c>
       <c r="BB17" s="1">
-        <v>-125.302000</v>
+        <v>-125.30200000000001</v>
       </c>
       <c r="BC17" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="BD17" s="1">
-        <v>20108.315083</v>
+        <v>20108.315083000001</v>
       </c>
       <c r="BE17" s="1">
-        <v>5.585643</v>
+        <v>5.5856430000000001</v>
       </c>
       <c r="BF17" s="1">
-        <v>1033.270000</v>
+        <v>1033.27</v>
       </c>
       <c r="BG17" s="1">
-        <v>-197.872000</v>
+        <v>-197.87200000000001</v>
       </c>
       <c r="BH17" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="BI17" s="1">
-        <v>20119.210700</v>
+        <v>20119.2107</v>
       </c>
       <c r="BJ17" s="1">
-        <v>5.588670</v>
+        <v>5.5886699999999996</v>
       </c>
       <c r="BK17" s="1">
-        <v>1100.240000</v>
+        <v>1100.24</v>
       </c>
       <c r="BL17" s="1">
-        <v>-315.575000</v>
+        <v>-315.57499999999999</v>
       </c>
       <c r="BM17" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="BN17" s="1">
-        <v>20130.351837</v>
+        <v>20130.351836999998</v>
       </c>
       <c r="BO17" s="1">
-        <v>5.591764</v>
+        <v>5.5917640000000004</v>
       </c>
       <c r="BP17" s="1">
-        <v>1208.940000</v>
+        <v>1208.94</v>
       </c>
       <c r="BQ17" s="1">
-        <v>-501.330000</v>
+        <v>-501.33</v>
       </c>
       <c r="BR17" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="BS17" s="1">
-        <v>20140.914639</v>
+        <v>20140.914638999999</v>
       </c>
       <c r="BT17" s="1">
-        <v>5.594699</v>
+        <v>5.5946990000000003</v>
       </c>
       <c r="BU17" s="1">
-        <v>1331.100000</v>
+        <v>1331.1</v>
       </c>
       <c r="BV17" s="1">
-        <v>-705.550000</v>
+        <v>-705.55</v>
       </c>
       <c r="BW17" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="BX17" s="1">
-        <v>20151.747264</v>
+        <v>20151.747264000001</v>
       </c>
       <c r="BY17" s="1">
-        <v>5.597708</v>
+        <v>5.5977079999999999</v>
       </c>
       <c r="BZ17" s="1">
-        <v>1468.430000</v>
+        <v>1468.43</v>
       </c>
       <c r="CA17" s="1">
-        <v>-923.253000</v>
+        <v>-923.25300000000004</v>
       </c>
       <c r="CB17" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="CC17" s="1">
         <v>20164.378384</v>
@@ -4576,45 +4992,45 @@
         <v>5.601216</v>
       </c>
       <c r="CE17" s="1">
-        <v>1830.190000</v>
+        <v>1830.19</v>
       </c>
       <c r="CF17" s="1">
-        <v>-1441.170000</v>
+        <v>-1441.17</v>
       </c>
       <c r="CG17" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
     </row>
-    <row r="18">
+    <row r="18" spans="1:85">
       <c r="A18" s="1">
-        <v>19992.956050</v>
+        <v>19992.956050000001</v>
       </c>
       <c r="B18" s="1">
-        <v>5.553599</v>
+        <v>5.5535990000000002</v>
       </c>
       <c r="C18" s="1">
-        <v>895.418000</v>
+        <v>895.41800000000001</v>
       </c>
       <c r="D18" s="1">
-        <v>-200.188000</v>
+        <v>-200.18799999999999</v>
       </c>
       <c r="E18" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="F18" s="1">
-        <v>20003.364628</v>
+        <v>20003.364627999999</v>
       </c>
       <c r="G18" s="1">
-        <v>5.556490</v>
+        <v>5.5564900000000002</v>
       </c>
       <c r="H18" s="1">
-        <v>912.882000</v>
+        <v>912.88199999999995</v>
       </c>
       <c r="I18" s="1">
-        <v>-169.038000</v>
+        <v>-169.03800000000001</v>
       </c>
       <c r="J18" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="K18" s="1">
         <v>20013.494391</v>
@@ -4623,163 +5039,163 @@
         <v>5.559304</v>
       </c>
       <c r="M18" s="1">
-        <v>936.250000</v>
+        <v>936.25</v>
       </c>
       <c r="N18" s="1">
-        <v>-119.587000</v>
+        <v>-119.587</v>
       </c>
       <c r="O18" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="P18" s="1">
         <v>20024.368682</v>
       </c>
       <c r="Q18" s="1">
-        <v>5.562325</v>
+        <v>5.5623250000000004</v>
       </c>
       <c r="R18" s="1">
-        <v>942.738000</v>
+        <v>942.73800000000006</v>
       </c>
       <c r="S18" s="1">
-        <v>-103.402000</v>
+        <v>-103.402</v>
       </c>
       <c r="T18" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="U18" s="1">
         <v>20034.570893</v>
       </c>
       <c r="V18" s="1">
-        <v>5.565159</v>
+        <v>5.5651590000000004</v>
       </c>
       <c r="W18" s="1">
-        <v>949.121000</v>
+        <v>949.12099999999998</v>
       </c>
       <c r="X18" s="1">
-        <v>-88.503300</v>
+        <v>-88.503299999999996</v>
       </c>
       <c r="Y18" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="Z18" s="1">
-        <v>20044.767150</v>
+        <v>20044.76715</v>
       </c>
       <c r="AA18" s="1">
-        <v>5.567991</v>
+        <v>5.5679910000000001</v>
       </c>
       <c r="AB18" s="1">
-        <v>956.161000</v>
+        <v>956.16099999999994</v>
       </c>
       <c r="AC18" s="1">
-        <v>-76.981700</v>
+        <v>-76.981700000000004</v>
       </c>
       <c r="AD18" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="AE18" s="1">
-        <v>20054.914304</v>
+        <v>20054.914304000002</v>
       </c>
       <c r="AF18" s="1">
-        <v>5.570810</v>
+        <v>5.5708099999999998</v>
       </c>
       <c r="AG18" s="1">
-        <v>960.998000</v>
+        <v>960.99800000000005</v>
       </c>
       <c r="AH18" s="1">
-        <v>-74.908900</v>
+        <v>-74.908900000000003</v>
       </c>
       <c r="AI18" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="AJ18" s="1">
-        <v>20065.491529</v>
+        <v>20065.491528999999</v>
       </c>
       <c r="AK18" s="1">
-        <v>5.573748</v>
+        <v>5.5737480000000001</v>
       </c>
       <c r="AL18" s="1">
-        <v>967.958000</v>
+        <v>967.95799999999997</v>
       </c>
       <c r="AM18" s="1">
-        <v>-79.847400</v>
+        <v>-79.847399999999993</v>
       </c>
       <c r="AN18" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="AO18" s="1">
-        <v>20075.992292</v>
+        <v>20075.992291999999</v>
       </c>
       <c r="AP18" s="1">
-        <v>5.576665</v>
+        <v>5.5766650000000002</v>
       </c>
       <c r="AQ18" s="1">
-        <v>976.083000</v>
+        <v>976.08299999999997</v>
       </c>
       <c r="AR18" s="1">
-        <v>-91.625100</v>
+        <v>-91.625100000000003</v>
       </c>
       <c r="AS18" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="AT18" s="1">
-        <v>20086.690006</v>
+        <v>20086.690006000001</v>
       </c>
       <c r="AU18" s="1">
-        <v>5.579636</v>
+        <v>5.5796359999999998</v>
       </c>
       <c r="AV18" s="1">
-        <v>986.028000</v>
+        <v>986.02800000000002</v>
       </c>
       <c r="AW18" s="1">
-        <v>-109.487000</v>
+        <v>-109.48699999999999</v>
       </c>
       <c r="AX18" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="AY18" s="1">
-        <v>20097.738423</v>
+        <v>20097.738422999999</v>
       </c>
       <c r="AZ18" s="1">
-        <v>5.582705</v>
+        <v>5.5827049999999998</v>
       </c>
       <c r="BA18" s="1">
-        <v>994.339000</v>
+        <v>994.33900000000006</v>
       </c>
       <c r="BB18" s="1">
-        <v>-125.286000</v>
+        <v>-125.286</v>
       </c>
       <c r="BC18" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="BD18" s="1">
-        <v>20108.995620</v>
+        <v>20108.995620000002</v>
       </c>
       <c r="BE18" s="1">
-        <v>5.585832</v>
+        <v>5.5858319999999999</v>
       </c>
       <c r="BF18" s="1">
-        <v>1033.270000</v>
+        <v>1033.27</v>
       </c>
       <c r="BG18" s="1">
-        <v>-197.853000</v>
+        <v>-197.85300000000001</v>
       </c>
       <c r="BH18" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="BI18" s="1">
-        <v>20119.889226</v>
+        <v>20119.889225999999</v>
       </c>
       <c r="BJ18" s="1">
-        <v>5.588858</v>
+        <v>5.5888580000000001</v>
       </c>
       <c r="BK18" s="1">
-        <v>1100.260000</v>
+        <v>1100.26</v>
       </c>
       <c r="BL18" s="1">
-        <v>-315.564000</v>
+        <v>-315.56400000000002</v>
       </c>
       <c r="BM18" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="BN18" s="1">
         <v>20130.477326</v>
@@ -4788,557 +5204,557 @@
         <v>5.591799</v>
       </c>
       <c r="BP18" s="1">
-        <v>1208.950000</v>
+        <v>1208.95</v>
       </c>
       <c r="BQ18" s="1">
-        <v>-501.311000</v>
+        <v>-501.31099999999998</v>
       </c>
       <c r="BR18" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="BS18" s="1">
         <v>20141.024255</v>
       </c>
       <c r="BT18" s="1">
-        <v>5.594729</v>
+        <v>5.5947290000000001</v>
       </c>
       <c r="BU18" s="1">
-        <v>1331.110000</v>
+        <v>1331.11</v>
       </c>
       <c r="BV18" s="1">
-        <v>-705.640000</v>
+        <v>-705.64</v>
       </c>
       <c r="BW18" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="BX18" s="1">
-        <v>20152.173328</v>
+        <v>20152.173328000001</v>
       </c>
       <c r="BY18" s="1">
-        <v>5.597826</v>
+        <v>5.5978260000000004</v>
       </c>
       <c r="BZ18" s="1">
-        <v>1468.500000</v>
+        <v>1468.5</v>
       </c>
       <c r="CA18" s="1">
-        <v>-923.103000</v>
+        <v>-923.10299999999995</v>
       </c>
       <c r="CB18" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="CC18" s="1">
-        <v>20164.919520</v>
+        <v>20164.919519999999</v>
       </c>
       <c r="CD18" s="1">
-        <v>5.601367</v>
+        <v>5.6013669999999998</v>
       </c>
       <c r="CE18" s="1">
-        <v>1829.050000</v>
+        <v>1829.05</v>
       </c>
       <c r="CF18" s="1">
-        <v>-1439.850000</v>
+        <v>-1439.85</v>
       </c>
       <c r="CG18" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
     </row>
-    <row r="19">
+    <row r="19" spans="1:85">
       <c r="A19" s="1">
         <v>19993.232322</v>
       </c>
       <c r="B19" s="1">
-        <v>5.553676</v>
+        <v>5.5536760000000003</v>
       </c>
       <c r="C19" s="1">
-        <v>895.702000</v>
+        <v>895.702</v>
       </c>
       <c r="D19" s="1">
-        <v>-200.154000</v>
+        <v>-200.154</v>
       </c>
       <c r="E19" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="F19" s="1">
-        <v>20003.642852</v>
+        <v>20003.642852000001</v>
       </c>
       <c r="G19" s="1">
-        <v>5.556567</v>
+        <v>5.5565670000000003</v>
       </c>
       <c r="H19" s="1">
-        <v>913.456000</v>
+        <v>913.45600000000002</v>
       </c>
       <c r="I19" s="1">
-        <v>-169.093000</v>
+        <v>-169.09299999999999</v>
       </c>
       <c r="J19" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="K19" s="1">
         <v>20013.841591</v>
       </c>
       <c r="L19" s="1">
-        <v>5.559400</v>
+        <v>5.5594000000000001</v>
       </c>
       <c r="M19" s="1">
-        <v>936.213000</v>
+        <v>936.21299999999997</v>
       </c>
       <c r="N19" s="1">
-        <v>-119.850000</v>
+        <v>-119.85</v>
       </c>
       <c r="O19" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="P19" s="1">
-        <v>20024.720840</v>
+        <v>20024.720840000002</v>
       </c>
       <c r="Q19" s="1">
-        <v>5.562422</v>
+        <v>5.5624219999999998</v>
       </c>
       <c r="R19" s="1">
-        <v>942.765000</v>
+        <v>942.76499999999999</v>
       </c>
       <c r="S19" s="1">
-        <v>-103.342000</v>
+        <v>-103.342</v>
       </c>
       <c r="T19" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="U19" s="1">
-        <v>20034.912635</v>
+        <v>20034.912635000001</v>
       </c>
       <c r="V19" s="1">
-        <v>5.565254</v>
+        <v>5.5652540000000004</v>
       </c>
       <c r="W19" s="1">
-        <v>949.147000</v>
+        <v>949.14700000000005</v>
       </c>
       <c r="X19" s="1">
-        <v>-88.489700</v>
+        <v>-88.489699999999999</v>
       </c>
       <c r="Y19" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="Z19" s="1">
-        <v>20045.465517</v>
+        <v>20045.465517000001</v>
       </c>
       <c r="AA19" s="1">
-        <v>5.568185</v>
+        <v>5.5681849999999997</v>
       </c>
       <c r="AB19" s="1">
-        <v>956.074000</v>
+        <v>956.07399999999996</v>
       </c>
       <c r="AC19" s="1">
-        <v>-76.935400</v>
+        <v>-76.935400000000001</v>
       </c>
       <c r="AD19" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="AE19" s="1">
-        <v>20055.601301</v>
+        <v>20055.601300999999</v>
       </c>
       <c r="AF19" s="1">
-        <v>5.571000</v>
+        <v>5.5709999999999997</v>
       </c>
       <c r="AG19" s="1">
-        <v>960.724000</v>
+        <v>960.72400000000005</v>
       </c>
       <c r="AH19" s="1">
-        <v>-74.913000</v>
+        <v>-74.912999999999997</v>
       </c>
       <c r="AI19" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="AJ19" s="1">
-        <v>20065.840216</v>
+        <v>20065.840216000001</v>
       </c>
       <c r="AK19" s="1">
-        <v>5.573845</v>
+        <v>5.5738450000000004</v>
       </c>
       <c r="AL19" s="1">
-        <v>967.960000</v>
+        <v>967.96</v>
       </c>
       <c r="AM19" s="1">
-        <v>-79.816000</v>
+        <v>-79.816000000000003</v>
       </c>
       <c r="AN19" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="AO19" s="1">
-        <v>20076.355396</v>
+        <v>20076.355395999999</v>
       </c>
       <c r="AP19" s="1">
         <v>5.576765</v>
       </c>
       <c r="AQ19" s="1">
-        <v>976.088000</v>
+        <v>976.08799999999997</v>
       </c>
       <c r="AR19" s="1">
-        <v>-91.627900</v>
+        <v>-91.627899999999997</v>
       </c>
       <c r="AS19" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="AT19" s="1">
-        <v>20087.054566</v>
+        <v>20087.054565999999</v>
       </c>
       <c r="AU19" s="1">
-        <v>5.579737</v>
+        <v>5.5797369999999997</v>
       </c>
       <c r="AV19" s="1">
-        <v>986.028000</v>
+        <v>986.02800000000002</v>
       </c>
       <c r="AW19" s="1">
-        <v>-109.474000</v>
+        <v>-109.474</v>
       </c>
       <c r="AX19" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="AY19" s="1">
-        <v>20098.413447</v>
+        <v>20098.413446999999</v>
       </c>
       <c r="AZ19" s="1">
-        <v>5.582893</v>
+        <v>5.5828930000000003</v>
       </c>
       <c r="BA19" s="1">
-        <v>994.341000</v>
+        <v>994.34100000000001</v>
       </c>
       <c r="BB19" s="1">
-        <v>-125.289000</v>
+        <v>-125.289</v>
       </c>
       <c r="BC19" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="BD19" s="1">
-        <v>20109.425631</v>
+        <v>20109.425630999998</v>
       </c>
       <c r="BE19" s="1">
-        <v>5.585952</v>
+        <v>5.5859519999999998</v>
       </c>
       <c r="BF19" s="1">
-        <v>1033.250000</v>
+        <v>1033.25</v>
       </c>
       <c r="BG19" s="1">
-        <v>-197.831000</v>
+        <v>-197.83099999999999</v>
       </c>
       <c r="BH19" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="BI19" s="1">
-        <v>20119.996891</v>
+        <v>20119.996890999999</v>
       </c>
       <c r="BJ19" s="1">
-        <v>5.588888</v>
+        <v>5.5888879999999999</v>
       </c>
       <c r="BK19" s="1">
-        <v>1100.270000</v>
+        <v>1100.27</v>
       </c>
       <c r="BL19" s="1">
-        <v>-315.544000</v>
+        <v>-315.54399999999998</v>
       </c>
       <c r="BM19" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="BN19" s="1">
-        <v>20130.887516</v>
+        <v>20130.887515999999</v>
       </c>
       <c r="BO19" s="1">
-        <v>5.591913</v>
+        <v>5.5919129999999999</v>
       </c>
       <c r="BP19" s="1">
-        <v>1208.950000</v>
+        <v>1208.95</v>
       </c>
       <c r="BQ19" s="1">
-        <v>-501.297000</v>
+        <v>-501.29700000000003</v>
       </c>
       <c r="BR19" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="BS19" s="1">
-        <v>20141.465695</v>
+        <v>20141.465694999999</v>
       </c>
       <c r="BT19" s="1">
-        <v>5.594852</v>
+        <v>5.5948520000000004</v>
       </c>
       <c r="BU19" s="1">
-        <v>1331.130000</v>
+        <v>1331.13</v>
       </c>
       <c r="BV19" s="1">
-        <v>-705.697000</v>
+        <v>-705.697</v>
       </c>
       <c r="BW19" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="BX19" s="1">
-        <v>20152.617776</v>
+        <v>20152.617775999999</v>
       </c>
       <c r="BY19" s="1">
-        <v>5.597949</v>
+        <v>5.5979489999999998</v>
       </c>
       <c r="BZ19" s="1">
-        <v>1468.570000</v>
+        <v>1468.57</v>
       </c>
       <c r="CA19" s="1">
-        <v>-923.312000</v>
+        <v>-923.31200000000001</v>
       </c>
       <c r="CB19" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="CC19" s="1">
-        <v>20165.458672</v>
+        <v>20165.458672000001</v>
       </c>
       <c r="CD19" s="1">
-        <v>5.601516</v>
+        <v>5.6015160000000002</v>
       </c>
       <c r="CE19" s="1">
-        <v>1829.580000</v>
+        <v>1829.58</v>
       </c>
       <c r="CF19" s="1">
-        <v>-1441.590000</v>
+        <v>-1441.59</v>
       </c>
       <c r="CG19" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
     </row>
-    <row r="20">
+    <row r="20" spans="1:85">
       <c r="A20" s="1">
-        <v>19993.571587</v>
+        <v>19993.571586999999</v>
       </c>
       <c r="B20" s="1">
-        <v>5.553770</v>
+        <v>5.5537700000000001</v>
       </c>
       <c r="C20" s="1">
-        <v>895.392000</v>
+        <v>895.39200000000005</v>
       </c>
       <c r="D20" s="1">
-        <v>-200.280000</v>
+        <v>-200.28</v>
       </c>
       <c r="E20" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="F20" s="1">
-        <v>20003.991573</v>
+        <v>20003.991572999999</v>
       </c>
       <c r="G20" s="1">
-        <v>5.556664</v>
+        <v>5.5566639999999996</v>
       </c>
       <c r="H20" s="1">
-        <v>913.099000</v>
+        <v>913.09900000000005</v>
       </c>
       <c r="I20" s="1">
-        <v>-169.137000</v>
+        <v>-169.137</v>
       </c>
       <c r="J20" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="K20" s="1">
         <v>20014.184855</v>
       </c>
       <c r="L20" s="1">
-        <v>5.559496</v>
+        <v>5.5594960000000002</v>
       </c>
       <c r="M20" s="1">
-        <v>936.384000</v>
+        <v>936.38400000000001</v>
       </c>
       <c r="N20" s="1">
-        <v>-119.725000</v>
+        <v>-119.72499999999999</v>
       </c>
       <c r="O20" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="P20" s="1">
-        <v>20025.418713</v>
+        <v>20025.418712999999</v>
       </c>
       <c r="Q20" s="1">
-        <v>5.562616</v>
+        <v>5.5626160000000002</v>
       </c>
       <c r="R20" s="1">
-        <v>942.776000</v>
+        <v>942.77599999999995</v>
       </c>
       <c r="S20" s="1">
-        <v>-103.360000</v>
+        <v>-103.36</v>
       </c>
       <c r="T20" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="U20" s="1">
-        <v>20035.600587</v>
+        <v>20035.600587000001</v>
       </c>
       <c r="V20" s="1">
-        <v>5.565445</v>
+        <v>5.5654450000000004</v>
       </c>
       <c r="W20" s="1">
-        <v>949.157000</v>
+        <v>949.15700000000004</v>
       </c>
       <c r="X20" s="1">
-        <v>-88.510400</v>
+        <v>-88.510400000000004</v>
       </c>
       <c r="Y20" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="Z20" s="1">
         <v>20045.811725</v>
       </c>
       <c r="AA20" s="1">
-        <v>5.568281</v>
+        <v>5.5682809999999998</v>
       </c>
       <c r="AB20" s="1">
-        <v>956.224000</v>
+        <v>956.22400000000005</v>
       </c>
       <c r="AC20" s="1">
-        <v>-77.086400</v>
+        <v>-77.086399999999998</v>
       </c>
       <c r="AD20" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="AE20" s="1">
         <v>20055.946676</v>
       </c>
       <c r="AF20" s="1">
-        <v>5.571096</v>
+        <v>5.5710959999999998</v>
       </c>
       <c r="AG20" s="1">
-        <v>960.759000</v>
+        <v>960.75900000000001</v>
       </c>
       <c r="AH20" s="1">
-        <v>-74.900300</v>
+        <v>-74.900300000000001</v>
       </c>
       <c r="AI20" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="AJ20" s="1">
         <v>20066.191378</v>
       </c>
       <c r="AK20" s="1">
-        <v>5.573942</v>
+        <v>5.5739419999999997</v>
       </c>
       <c r="AL20" s="1">
-        <v>967.953000</v>
+        <v>967.95299999999997</v>
       </c>
       <c r="AM20" s="1">
-        <v>-79.820400</v>
+        <v>-79.820400000000006</v>
       </c>
       <c r="AN20" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="AO20" s="1">
         <v>20077.018515</v>
       </c>
       <c r="AP20" s="1">
-        <v>5.576950</v>
+        <v>5.5769500000000001</v>
       </c>
       <c r="AQ20" s="1">
-        <v>976.083000</v>
+        <v>976.08299999999997</v>
       </c>
       <c r="AR20" s="1">
-        <v>-91.605000</v>
+        <v>-91.605000000000004</v>
       </c>
       <c r="AS20" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="AT20" s="1">
-        <v>20087.716262</v>
+        <v>20087.716262000002</v>
       </c>
       <c r="AU20" s="1">
-        <v>5.579921</v>
+        <v>5.5799209999999997</v>
       </c>
       <c r="AV20" s="1">
-        <v>986.004000</v>
+        <v>986.00400000000002</v>
       </c>
       <c r="AW20" s="1">
-        <v>-109.483000</v>
+        <v>-109.483</v>
       </c>
       <c r="AX20" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="AY20" s="1">
         <v>20098.813756</v>
       </c>
       <c r="AZ20" s="1">
-        <v>5.583004</v>
+        <v>5.5830039999999999</v>
       </c>
       <c r="BA20" s="1">
-        <v>994.370000</v>
+        <v>994.37</v>
       </c>
       <c r="BB20" s="1">
-        <v>-125.290000</v>
+        <v>-125.29</v>
       </c>
       <c r="BC20" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="BD20" s="1">
-        <v>20109.785720</v>
+        <v>20109.78572</v>
       </c>
       <c r="BE20" s="1">
-        <v>5.586052</v>
+        <v>5.5860519999999996</v>
       </c>
       <c r="BF20" s="1">
-        <v>1033.260000</v>
+        <v>1033.26</v>
       </c>
       <c r="BG20" s="1">
-        <v>-197.845000</v>
+        <v>-197.845</v>
       </c>
       <c r="BH20" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="BI20" s="1">
-        <v>20120.357659</v>
+        <v>20120.357659000001</v>
       </c>
       <c r="BJ20" s="1">
-        <v>5.588988</v>
+        <v>5.5889879999999996</v>
       </c>
       <c r="BK20" s="1">
-        <v>1100.260000</v>
+        <v>1100.26</v>
       </c>
       <c r="BL20" s="1">
-        <v>-315.568000</v>
+        <v>-315.56799999999998</v>
       </c>
       <c r="BM20" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="BN20" s="1">
-        <v>20131.281350</v>
+        <v>20131.281350000001</v>
       </c>
       <c r="BO20" s="1">
-        <v>5.592023</v>
+        <v>5.5920230000000002</v>
       </c>
       <c r="BP20" s="1">
-        <v>1208.970000</v>
+        <v>1208.97</v>
       </c>
       <c r="BQ20" s="1">
-        <v>-501.283000</v>
+        <v>-501.28300000000002</v>
       </c>
       <c r="BR20" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="BS20" s="1">
         <v>20141.877376</v>
       </c>
       <c r="BT20" s="1">
-        <v>5.594966</v>
+        <v>5.5949660000000003</v>
       </c>
       <c r="BU20" s="1">
-        <v>1331.210000</v>
+        <v>1331.21</v>
       </c>
       <c r="BV20" s="1">
-        <v>-705.712000</v>
+        <v>-705.71199999999999</v>
       </c>
       <c r="BW20" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="BX20" s="1">
-        <v>20153.049759</v>
+        <v>20153.049759000001</v>
       </c>
       <c r="BY20" s="1">
-        <v>5.598069</v>
+        <v>5.5980689999999997</v>
       </c>
       <c r="BZ20" s="1">
-        <v>1468.560000</v>
+        <v>1468.56</v>
       </c>
       <c r="CA20" s="1">
-        <v>-923.181000</v>
+        <v>-923.18100000000004</v>
       </c>
       <c r="CB20" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="CC20" s="1">
         <v>20166.000333</v>
@@ -5347,1420 +5763,1420 @@
         <v>5.601667</v>
       </c>
       <c r="CE20" s="1">
-        <v>1830.010000</v>
+        <v>1830.01</v>
       </c>
       <c r="CF20" s="1">
-        <v>-1440.290000</v>
+        <v>-1440.29</v>
       </c>
       <c r="CG20" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
     </row>
-    <row r="21">
+    <row r="21" spans="1:85">
       <c r="A21" s="1">
-        <v>19993.915313</v>
+        <v>19993.915313000001</v>
       </c>
       <c r="B21" s="1">
-        <v>5.553865</v>
+        <v>5.5538650000000001</v>
       </c>
       <c r="C21" s="1">
-        <v>895.663000</v>
+        <v>895.66300000000001</v>
       </c>
       <c r="D21" s="1">
-        <v>-200.179000</v>
+        <v>-200.179</v>
       </c>
       <c r="E21" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="F21" s="1">
-        <v>20004.334771</v>
+        <v>20004.334771000002</v>
       </c>
       <c r="G21" s="1">
-        <v>5.556760</v>
+        <v>5.5567599999999997</v>
       </c>
       <c r="H21" s="1">
-        <v>913.482000</v>
+        <v>913.48199999999997</v>
       </c>
       <c r="I21" s="1">
-        <v>-169.062000</v>
+        <v>-169.06200000000001</v>
       </c>
       <c r="J21" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="K21" s="1">
-        <v>20014.877733</v>
+        <v>20014.877733000001</v>
       </c>
       <c r="L21" s="1">
-        <v>5.559688</v>
+        <v>5.5596880000000004</v>
       </c>
       <c r="M21" s="1">
-        <v>936.100000</v>
+        <v>936.1</v>
       </c>
       <c r="N21" s="1">
-        <v>-119.708000</v>
+        <v>-119.708</v>
       </c>
       <c r="O21" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="P21" s="1">
         <v>20025.766903</v>
       </c>
       <c r="Q21" s="1">
-        <v>5.562713</v>
+        <v>5.5627129999999996</v>
       </c>
       <c r="R21" s="1">
-        <v>942.791000</v>
+        <v>942.79100000000005</v>
       </c>
       <c r="S21" s="1">
-        <v>-103.389000</v>
+        <v>-103.389</v>
       </c>
       <c r="T21" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="U21" s="1">
         <v>20035.944314</v>
       </c>
       <c r="V21" s="1">
-        <v>5.565540</v>
+        <v>5.5655400000000004</v>
       </c>
       <c r="W21" s="1">
-        <v>949.232000</v>
+        <v>949.23199999999997</v>
       </c>
       <c r="X21" s="1">
-        <v>-88.554500</v>
+        <v>-88.554500000000004</v>
       </c>
       <c r="Y21" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="Z21" s="1">
-        <v>20046.160412</v>
+        <v>20046.160412000001</v>
       </c>
       <c r="AA21" s="1">
         <v>5.568378</v>
       </c>
       <c r="AB21" s="1">
-        <v>956.174000</v>
+        <v>956.17399999999998</v>
       </c>
       <c r="AC21" s="1">
-        <v>-77.056100</v>
+        <v>-77.056100000000001</v>
       </c>
       <c r="AD21" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="AE21" s="1">
         <v>20056.294671</v>
       </c>
       <c r="AF21" s="1">
-        <v>5.571193</v>
+        <v>5.5711930000000001</v>
       </c>
       <c r="AG21" s="1">
-        <v>960.654000</v>
+        <v>960.654</v>
       </c>
       <c r="AH21" s="1">
-        <v>-74.834300</v>
+        <v>-74.834299999999999</v>
       </c>
       <c r="AI21" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="AJ21" s="1">
-        <v>20066.843585</v>
+        <v>20066.843584999999</v>
       </c>
       <c r="AK21" s="1">
-        <v>5.574123</v>
+        <v>5.5741230000000002</v>
       </c>
       <c r="AL21" s="1">
-        <v>967.970000</v>
+        <v>967.97</v>
       </c>
       <c r="AM21" s="1">
-        <v>-79.821400</v>
+        <v>-79.821399999999997</v>
       </c>
       <c r="AN21" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="AO21" s="1">
-        <v>20077.435193</v>
+        <v>20077.435193000001</v>
       </c>
       <c r="AP21" s="1">
-        <v>5.577065</v>
+        <v>5.5770650000000002</v>
       </c>
       <c r="AQ21" s="1">
-        <v>976.081000</v>
+        <v>976.08100000000002</v>
       </c>
       <c r="AR21" s="1">
-        <v>-91.615100</v>
+        <v>-91.615099999999998</v>
       </c>
       <c r="AS21" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="AT21" s="1">
-        <v>20088.183956</v>
+        <v>20088.183956000001</v>
       </c>
       <c r="AU21" s="1">
-        <v>5.580051</v>
+        <v>5.5800510000000001</v>
       </c>
       <c r="AV21" s="1">
-        <v>986.015000</v>
+        <v>986.01499999999999</v>
       </c>
       <c r="AW21" s="1">
-        <v>-109.482000</v>
+        <v>-109.482</v>
       </c>
       <c r="AX21" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="AY21" s="1">
-        <v>20099.196630</v>
+        <v>20099.196629999999</v>
       </c>
       <c r="AZ21" s="1">
-        <v>5.583110</v>
+        <v>5.5831099999999996</v>
       </c>
       <c r="BA21" s="1">
-        <v>994.334000</v>
+        <v>994.33399999999995</v>
       </c>
       <c r="BB21" s="1">
-        <v>-125.287000</v>
+        <v>-125.28700000000001</v>
       </c>
       <c r="BC21" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="BD21" s="1">
-        <v>20110.148296</v>
+        <v>20110.148295999999</v>
       </c>
       <c r="BE21" s="1">
-        <v>5.586152</v>
+        <v>5.5861520000000002</v>
       </c>
       <c r="BF21" s="1">
-        <v>1033.250000</v>
+        <v>1033.25</v>
       </c>
       <c r="BG21" s="1">
-        <v>-197.853000</v>
+        <v>-197.85300000000001</v>
       </c>
       <c r="BH21" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="BI21" s="1">
-        <v>20120.732425</v>
+        <v>20120.732424999998</v>
       </c>
       <c r="BJ21" s="1">
-        <v>5.589092</v>
+        <v>5.5890919999999999</v>
       </c>
       <c r="BK21" s="1">
-        <v>1100.260000</v>
+        <v>1100.26</v>
       </c>
       <c r="BL21" s="1">
-        <v>-315.563000</v>
+        <v>-315.56299999999999</v>
       </c>
       <c r="BM21" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="BN21" s="1">
-        <v>20131.704924</v>
+        <v>20131.704924000001</v>
       </c>
       <c r="BO21" s="1">
-        <v>5.592140</v>
+        <v>5.5921399999999997</v>
       </c>
       <c r="BP21" s="1">
-        <v>1208.950000</v>
+        <v>1208.95</v>
       </c>
       <c r="BQ21" s="1">
-        <v>-501.299000</v>
+        <v>-501.29899999999998</v>
       </c>
       <c r="BR21" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="BS21" s="1">
         <v>20142.310414</v>
       </c>
       <c r="BT21" s="1">
-        <v>5.595086</v>
+        <v>5.5950860000000002</v>
       </c>
       <c r="BU21" s="1">
-        <v>1331.310000</v>
+        <v>1331.31</v>
       </c>
       <c r="BV21" s="1">
-        <v>-705.803000</v>
+        <v>-705.803</v>
       </c>
       <c r="BW21" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="BX21" s="1">
-        <v>20153.473342</v>
+        <v>20153.473342000001</v>
       </c>
       <c r="BY21" s="1">
-        <v>5.598187</v>
+        <v>5.5981870000000002</v>
       </c>
       <c r="BZ21" s="1">
-        <v>1468.520000</v>
+        <v>1468.52</v>
       </c>
       <c r="CA21" s="1">
-        <v>-923.333000</v>
+        <v>-923.33299999999997</v>
       </c>
       <c r="CB21" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="CC21" s="1">
         <v>20166.538461</v>
       </c>
       <c r="CD21" s="1">
-        <v>5.601816</v>
+        <v>5.6018160000000004</v>
       </c>
       <c r="CE21" s="1">
-        <v>1828.940000</v>
+        <v>1828.94</v>
       </c>
       <c r="CF21" s="1">
-        <v>-1440.790000</v>
+        <v>-1440.79</v>
       </c>
       <c r="CG21" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
     </row>
-    <row r="22">
+    <row r="22" spans="1:85">
       <c r="A22" s="1">
-        <v>19994.598304</v>
+        <v>19994.598303999999</v>
       </c>
       <c r="B22" s="1">
         <v>5.554055</v>
       </c>
       <c r="C22" s="1">
-        <v>895.564000</v>
+        <v>895.56399999999996</v>
       </c>
       <c r="D22" s="1">
-        <v>-200.106000</v>
+        <v>-200.10599999999999</v>
       </c>
       <c r="E22" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="F22" s="1">
-        <v>20005.022755</v>
+        <v>20005.022755000002</v>
       </c>
       <c r="G22" s="1">
-        <v>5.556951</v>
+        <v>5.5569509999999998</v>
       </c>
       <c r="H22" s="1">
-        <v>913.080000</v>
+        <v>913.08</v>
       </c>
       <c r="I22" s="1">
-        <v>-169.017000</v>
+        <v>-169.017</v>
       </c>
       <c r="J22" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="K22" s="1">
-        <v>20015.222980</v>
+        <v>20015.222979999999</v>
       </c>
       <c r="L22" s="1">
-        <v>5.559784</v>
+        <v>5.5597839999999996</v>
       </c>
       <c r="M22" s="1">
-        <v>936.108000</v>
+        <v>936.10799999999995</v>
       </c>
       <c r="N22" s="1">
-        <v>-119.585000</v>
+        <v>-119.58499999999999</v>
       </c>
       <c r="O22" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="P22" s="1">
-        <v>20026.113639</v>
+        <v>20026.113638999999</v>
       </c>
       <c r="Q22" s="1">
-        <v>5.562809</v>
+        <v>5.5628089999999997</v>
       </c>
       <c r="R22" s="1">
-        <v>942.785000</v>
+        <v>942.78499999999997</v>
       </c>
       <c r="S22" s="1">
-        <v>-103.417000</v>
+        <v>-103.417</v>
       </c>
       <c r="T22" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="U22" s="1">
-        <v>20036.289530</v>
+        <v>20036.289529999998</v>
       </c>
       <c r="V22" s="1">
-        <v>5.565636</v>
+        <v>5.5656359999999996</v>
       </c>
       <c r="W22" s="1">
-        <v>949.164000</v>
+        <v>949.16399999999999</v>
       </c>
       <c r="X22" s="1">
-        <v>-88.488800</v>
+        <v>-88.488799999999998</v>
       </c>
       <c r="Y22" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="Z22" s="1">
         <v>20046.812155</v>
       </c>
       <c r="AA22" s="1">
-        <v>5.568559</v>
+        <v>5.5685589999999996</v>
       </c>
       <c r="AB22" s="1">
-        <v>956.078000</v>
+        <v>956.07799999999997</v>
       </c>
       <c r="AC22" s="1">
-        <v>-76.894000</v>
+        <v>-76.894000000000005</v>
       </c>
       <c r="AD22" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="AE22" s="1">
-        <v>20056.955838</v>
+        <v>20056.955838000002</v>
       </c>
       <c r="AF22" s="1">
         <v>5.571377</v>
       </c>
       <c r="AG22" s="1">
-        <v>960.795000</v>
+        <v>960.79499999999996</v>
       </c>
       <c r="AH22" s="1">
-        <v>-74.909900</v>
+        <v>-74.909899999999993</v>
       </c>
       <c r="AI22" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="AJ22" s="1">
-        <v>20067.236443</v>
+        <v>20067.236443000002</v>
       </c>
       <c r="AK22" s="1">
-        <v>5.574232</v>
+        <v>5.5742320000000003</v>
       </c>
       <c r="AL22" s="1">
-        <v>967.975000</v>
+        <v>967.97500000000002</v>
       </c>
       <c r="AM22" s="1">
-        <v>-79.813300</v>
+        <v>-79.813299999999998</v>
       </c>
       <c r="AN22" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="AO22" s="1">
-        <v>20077.819095</v>
+        <v>20077.819094999999</v>
       </c>
       <c r="AP22" s="1">
         <v>5.577172</v>
       </c>
       <c r="AQ22" s="1">
-        <v>976.082000</v>
+        <v>976.08199999999999</v>
       </c>
       <c r="AR22" s="1">
-        <v>-91.639600</v>
+        <v>-91.639600000000002</v>
       </c>
       <c r="AS22" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="AT22" s="1">
-        <v>20088.548548</v>
+        <v>20088.548547999999</v>
       </c>
       <c r="AU22" s="1">
         <v>5.580152</v>
       </c>
       <c r="AV22" s="1">
-        <v>986.017000</v>
+        <v>986.01700000000005</v>
       </c>
       <c r="AW22" s="1">
-        <v>-109.482000</v>
+        <v>-109.482</v>
       </c>
       <c r="AX22" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="AY22" s="1">
-        <v>20099.559552</v>
+        <v>20099.559551999999</v>
       </c>
       <c r="AZ22" s="1">
-        <v>5.583211</v>
+        <v>5.5832110000000004</v>
       </c>
       <c r="BA22" s="1">
-        <v>994.344000</v>
+        <v>994.34400000000005</v>
       </c>
       <c r="BB22" s="1">
-        <v>-125.285000</v>
+        <v>-125.285</v>
       </c>
       <c r="BC22" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="BD22" s="1">
-        <v>20110.560471</v>
+        <v>20110.560471000001</v>
       </c>
       <c r="BE22" s="1">
-        <v>5.586267</v>
+        <v>5.5862670000000003</v>
       </c>
       <c r="BF22" s="1">
-        <v>1033.240000</v>
+        <v>1033.24</v>
       </c>
       <c r="BG22" s="1">
-        <v>-197.857000</v>
+        <v>-197.857</v>
       </c>
       <c r="BH22" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="BI22" s="1">
-        <v>20121.145097</v>
+        <v>20121.145097000001</v>
       </c>
       <c r="BJ22" s="1">
         <v>5.589207</v>
       </c>
       <c r="BK22" s="1">
-        <v>1100.250000</v>
+        <v>1100.25</v>
       </c>
       <c r="BL22" s="1">
-        <v>-315.544000</v>
+        <v>-315.54399999999998</v>
       </c>
       <c r="BM22" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="BN22" s="1">
-        <v>20132.101226</v>
+        <v>20132.101225999999</v>
       </c>
       <c r="BO22" s="1">
-        <v>5.592250</v>
+        <v>5.5922499999999999</v>
       </c>
       <c r="BP22" s="1">
-        <v>1208.960000</v>
+        <v>1208.96</v>
       </c>
       <c r="BQ22" s="1">
-        <v>-501.290000</v>
+        <v>-501.29</v>
       </c>
       <c r="BR22" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="BS22" s="1">
-        <v>20142.724540</v>
+        <v>20142.724539999999</v>
       </c>
       <c r="BT22" s="1">
-        <v>5.595201</v>
+        <v>5.5952010000000003</v>
       </c>
       <c r="BU22" s="1">
-        <v>1331.310000</v>
+        <v>1331.31</v>
       </c>
       <c r="BV22" s="1">
-        <v>-705.829000</v>
+        <v>-705.82899999999995</v>
       </c>
       <c r="BW22" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="BX22" s="1">
-        <v>20153.893487</v>
+        <v>20153.893487000001</v>
       </c>
       <c r="BY22" s="1">
-        <v>5.598304</v>
+        <v>5.5983039999999997</v>
       </c>
       <c r="BZ22" s="1">
-        <v>1468.600000</v>
+        <v>1468.6</v>
       </c>
       <c r="CA22" s="1">
-        <v>-923.245000</v>
+        <v>-923.245</v>
       </c>
       <c r="CB22" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="CC22" s="1">
-        <v>20167.078606</v>
+        <v>20167.078605999999</v>
       </c>
       <c r="CD22" s="1">
         <v>5.601966</v>
       </c>
       <c r="CE22" s="1">
-        <v>1830.280000</v>
+        <v>1830.28</v>
       </c>
       <c r="CF22" s="1">
-        <v>-1441.020000</v>
+        <v>-1441.02</v>
       </c>
       <c r="CG22" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
     </row>
-    <row r="23">
+    <row r="23" spans="1:85">
       <c r="A23" s="1">
-        <v>19994.942560</v>
+        <v>19994.94256</v>
       </c>
       <c r="B23" s="1">
-        <v>5.554151</v>
+        <v>5.5541510000000001</v>
       </c>
       <c r="C23" s="1">
-        <v>895.587000</v>
+        <v>895.58699999999999</v>
       </c>
       <c r="D23" s="1">
-        <v>-200.174000</v>
+        <v>-200.17400000000001</v>
       </c>
       <c r="E23" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="F23" s="1">
         <v>20005.367939</v>
       </c>
       <c r="G23" s="1">
-        <v>5.557047</v>
+        <v>5.5570469999999998</v>
       </c>
       <c r="H23" s="1">
-        <v>913.196000</v>
+        <v>913.19600000000003</v>
       </c>
       <c r="I23" s="1">
-        <v>-168.973000</v>
+        <v>-168.97300000000001</v>
       </c>
       <c r="J23" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="K23" s="1">
-        <v>20015.569653</v>
+        <v>20015.569652999999</v>
       </c>
       <c r="L23" s="1">
-        <v>5.559880</v>
+        <v>5.5598799999999997</v>
       </c>
       <c r="M23" s="1">
-        <v>936.068000</v>
+        <v>936.06799999999998</v>
       </c>
       <c r="N23" s="1">
-        <v>-119.626000</v>
+        <v>-119.626</v>
       </c>
       <c r="O23" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="P23" s="1">
-        <v>20026.761879</v>
+        <v>20026.761879000001</v>
       </c>
       <c r="Q23" s="1">
         <v>5.562989</v>
       </c>
       <c r="R23" s="1">
-        <v>942.718000</v>
+        <v>942.71799999999996</v>
       </c>
       <c r="S23" s="1">
-        <v>-103.375000</v>
+        <v>-103.375</v>
       </c>
       <c r="T23" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="U23" s="1">
-        <v>20036.940313</v>
+        <v>20036.940312999999</v>
       </c>
       <c r="V23" s="1">
         <v>5.565817</v>
       </c>
       <c r="W23" s="1">
-        <v>949.162000</v>
+        <v>949.16200000000003</v>
       </c>
       <c r="X23" s="1">
-        <v>-88.550100</v>
+        <v>-88.5501</v>
       </c>
       <c r="Y23" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="Z23" s="1">
-        <v>20047.204987</v>
+        <v>20047.204987000001</v>
       </c>
       <c r="AA23" s="1">
-        <v>5.568668</v>
+        <v>5.5686679999999997</v>
       </c>
       <c r="AB23" s="1">
-        <v>956.063000</v>
+        <v>956.06299999999999</v>
       </c>
       <c r="AC23" s="1">
-        <v>-76.928700</v>
+        <v>-76.928700000000006</v>
       </c>
       <c r="AD23" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="AE23" s="1">
-        <v>20057.327839</v>
+        <v>20057.327839000001</v>
       </c>
       <c r="AF23" s="1">
-        <v>5.571480</v>
+        <v>5.5714800000000002</v>
       </c>
       <c r="AG23" s="1">
-        <v>960.632000</v>
+        <v>960.63199999999995</v>
       </c>
       <c r="AH23" s="1">
-        <v>-74.884800</v>
+        <v>-74.884799999999998</v>
       </c>
       <c r="AI23" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="AJ23" s="1">
-        <v>20067.584113</v>
+        <v>20067.584113000001</v>
       </c>
       <c r="AK23" s="1">
-        <v>5.574329</v>
+        <v>5.5743289999999996</v>
       </c>
       <c r="AL23" s="1">
-        <v>967.957000</v>
+        <v>967.95699999999999</v>
       </c>
       <c r="AM23" s="1">
-        <v>-79.845300</v>
+        <v>-79.845299999999995</v>
       </c>
       <c r="AN23" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="AO23" s="1">
         <v>20078.178668</v>
       </c>
       <c r="AP23" s="1">
-        <v>5.577272</v>
+        <v>5.5772719999999998</v>
       </c>
       <c r="AQ23" s="1">
-        <v>976.073000</v>
+        <v>976.07299999999998</v>
       </c>
       <c r="AR23" s="1">
-        <v>-91.613400</v>
+        <v>-91.613399999999999</v>
       </c>
       <c r="AS23" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="AT23" s="1">
-        <v>20088.913077</v>
+        <v>20088.913077000001</v>
       </c>
       <c r="AU23" s="1">
         <v>5.580254</v>
       </c>
       <c r="AV23" s="1">
-        <v>986.003000</v>
+        <v>986.00300000000004</v>
       </c>
       <c r="AW23" s="1">
-        <v>-109.487000</v>
+        <v>-109.48699999999999</v>
       </c>
       <c r="AX23" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="AY23" s="1">
         <v>20099.971877</v>
       </c>
       <c r="AZ23" s="1">
-        <v>5.583326</v>
+        <v>5.5833259999999996</v>
       </c>
       <c r="BA23" s="1">
-        <v>994.336000</v>
+        <v>994.33600000000001</v>
       </c>
       <c r="BB23" s="1">
-        <v>-125.292000</v>
+        <v>-125.292</v>
       </c>
       <c r="BC23" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="BD23" s="1">
-        <v>20110.868023</v>
+        <v>20110.868022999999</v>
       </c>
       <c r="BE23" s="1">
-        <v>5.586352</v>
+        <v>5.5863519999999998</v>
       </c>
       <c r="BF23" s="1">
-        <v>1033.270000</v>
+        <v>1033.27</v>
       </c>
       <c r="BG23" s="1">
-        <v>-197.831000</v>
+        <v>-197.83099999999999</v>
       </c>
       <c r="BH23" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="BI23" s="1">
-        <v>20121.486372</v>
+        <v>20121.486371999999</v>
       </c>
       <c r="BJ23" s="1">
         <v>5.589302</v>
       </c>
       <c r="BK23" s="1">
-        <v>1100.280000</v>
+        <v>1100.28</v>
       </c>
       <c r="BL23" s="1">
-        <v>-315.560000</v>
+        <v>-315.56</v>
       </c>
       <c r="BM23" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="BN23" s="1">
-        <v>20132.520346</v>
+        <v>20132.520346000001</v>
       </c>
       <c r="BO23" s="1">
-        <v>5.592367</v>
+        <v>5.5923670000000003</v>
       </c>
       <c r="BP23" s="1">
-        <v>1208.960000</v>
+        <v>1208.96</v>
       </c>
       <c r="BQ23" s="1">
-        <v>-501.295000</v>
+        <v>-501.29500000000002</v>
       </c>
       <c r="BR23" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="BS23" s="1">
-        <v>20143.140684</v>
+        <v>20143.140684000002</v>
       </c>
       <c r="BT23" s="1">
-        <v>5.595317</v>
+        <v>5.5953169999999997</v>
       </c>
       <c r="BU23" s="1">
-        <v>1331.420000</v>
+        <v>1331.42</v>
       </c>
       <c r="BV23" s="1">
-        <v>-705.721000</v>
+        <v>-705.721</v>
       </c>
       <c r="BW23" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="BX23" s="1">
-        <v>20154.349773</v>
+        <v>20154.349773000002</v>
       </c>
       <c r="BY23" s="1">
-        <v>5.598430</v>
+        <v>5.5984299999999996</v>
       </c>
       <c r="BZ23" s="1">
-        <v>1468.520000</v>
+        <v>1468.52</v>
       </c>
       <c r="CA23" s="1">
-        <v>-923.154000</v>
+        <v>-923.154</v>
       </c>
       <c r="CB23" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="CC23" s="1">
-        <v>20167.617260</v>
+        <v>20167.617259999999</v>
       </c>
       <c r="CD23" s="1">
-        <v>5.602116</v>
+        <v>5.6021159999999997</v>
       </c>
       <c r="CE23" s="1">
-        <v>1829.160000</v>
+        <v>1829.16</v>
       </c>
       <c r="CF23" s="1">
-        <v>-1439.730000</v>
+        <v>-1439.73</v>
       </c>
       <c r="CG23" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
     </row>
-    <row r="24">
+    <row r="24" spans="1:85">
       <c r="A24" s="1">
-        <v>19995.285557</v>
+        <v>19995.285556999999</v>
       </c>
       <c r="B24" s="1">
         <v>5.554246</v>
       </c>
       <c r="C24" s="1">
-        <v>895.601000</v>
+        <v>895.601</v>
       </c>
       <c r="D24" s="1">
-        <v>-200.154000</v>
+        <v>-200.154</v>
       </c>
       <c r="E24" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="F24" s="1">
         <v>20005.715139</v>
       </c>
       <c r="G24" s="1">
-        <v>5.557143</v>
+        <v>5.5571429999999999</v>
       </c>
       <c r="H24" s="1">
-        <v>913.411000</v>
+        <v>913.41099999999994</v>
       </c>
       <c r="I24" s="1">
-        <v>-169.302000</v>
+        <v>-169.30199999999999</v>
       </c>
       <c r="J24" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="K24" s="1">
-        <v>20016.219908</v>
+        <v>20016.219907999999</v>
       </c>
       <c r="L24" s="1">
-        <v>5.560061</v>
+        <v>5.5600610000000001</v>
       </c>
       <c r="M24" s="1">
-        <v>936.119000</v>
+        <v>936.11900000000003</v>
       </c>
       <c r="N24" s="1">
-        <v>-119.790000</v>
+        <v>-119.79</v>
       </c>
       <c r="O24" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="P24" s="1">
-        <v>20027.158181</v>
+        <v>20027.158180999999</v>
       </c>
       <c r="Q24" s="1">
-        <v>5.563099</v>
+        <v>5.5630990000000002</v>
       </c>
       <c r="R24" s="1">
-        <v>942.726000</v>
+        <v>942.726</v>
       </c>
       <c r="S24" s="1">
-        <v>-103.381000</v>
+        <v>-103.381</v>
       </c>
       <c r="T24" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="U24" s="1">
-        <v>20037.316280</v>
+        <v>20037.316279999999</v>
       </c>
       <c r="V24" s="1">
-        <v>5.565921</v>
+        <v>5.5659210000000003</v>
       </c>
       <c r="W24" s="1">
-        <v>949.153000</v>
+        <v>949.15300000000002</v>
       </c>
       <c r="X24" s="1">
-        <v>-88.594400</v>
+        <v>-88.594399999999993</v>
       </c>
       <c r="Y24" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="Z24" s="1">
-        <v>20047.554170</v>
+        <v>20047.554169999999</v>
       </c>
       <c r="AA24" s="1">
         <v>5.568765</v>
       </c>
       <c r="AB24" s="1">
-        <v>956.099000</v>
+        <v>956.09900000000005</v>
       </c>
       <c r="AC24" s="1">
-        <v>-77.024100</v>
+        <v>-77.024100000000004</v>
       </c>
       <c r="AD24" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="AE24" s="1">
-        <v>20057.675575</v>
+        <v>20057.675575000001</v>
       </c>
       <c r="AF24" s="1">
-        <v>5.571577</v>
+        <v>5.5715769999999996</v>
       </c>
       <c r="AG24" s="1">
-        <v>960.943000</v>
+        <v>960.94299999999998</v>
       </c>
       <c r="AH24" s="1">
-        <v>-74.862600</v>
+        <v>-74.8626</v>
       </c>
       <c r="AI24" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="AJ24" s="1">
         <v>20067.933793</v>
       </c>
       <c r="AK24" s="1">
-        <v>5.574426</v>
+        <v>5.5744259999999999</v>
       </c>
       <c r="AL24" s="1">
-        <v>967.964000</v>
+        <v>967.96400000000006</v>
       </c>
       <c r="AM24" s="1">
-        <v>-79.806800</v>
+        <v>-79.806799999999996</v>
       </c>
       <c r="AN24" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="AO24" s="1">
-        <v>20078.594807</v>
+        <v>20078.594807000001</v>
       </c>
       <c r="AP24" s="1">
-        <v>5.577387</v>
+        <v>5.5773869999999999</v>
       </c>
       <c r="AQ24" s="1">
-        <v>976.104000</v>
+        <v>976.10400000000004</v>
       </c>
       <c r="AR24" s="1">
-        <v>-91.614600</v>
+        <v>-91.614599999999996</v>
       </c>
       <c r="AS24" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="AT24" s="1">
-        <v>20089.327091</v>
+        <v>20089.327090999999</v>
       </c>
       <c r="AU24" s="1">
-        <v>5.580369</v>
+        <v>5.5803690000000001</v>
       </c>
       <c r="AV24" s="1">
-        <v>986.027000</v>
+        <v>986.02700000000004</v>
       </c>
       <c r="AW24" s="1">
-        <v>-109.507000</v>
+        <v>-109.50700000000001</v>
       </c>
       <c r="AX24" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="AY24" s="1">
-        <v>20100.268485</v>
+        <v>20100.268485000001</v>
       </c>
       <c r="AZ24" s="1">
-        <v>5.583408</v>
+        <v>5.5834080000000004</v>
       </c>
       <c r="BA24" s="1">
-        <v>994.342000</v>
+        <v>994.34199999999998</v>
       </c>
       <c r="BB24" s="1">
-        <v>-125.297000</v>
+        <v>-125.297</v>
       </c>
       <c r="BC24" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="BD24" s="1">
-        <v>20111.231558</v>
+        <v>20111.231557999999</v>
       </c>
       <c r="BE24" s="1">
-        <v>5.586453</v>
+        <v>5.5864529999999997</v>
       </c>
       <c r="BF24" s="1">
-        <v>1033.270000</v>
+        <v>1033.27</v>
       </c>
       <c r="BG24" s="1">
-        <v>-197.857000</v>
+        <v>-197.857</v>
       </c>
       <c r="BH24" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="BI24" s="1">
-        <v>20121.883144</v>
+        <v>20121.883143999999</v>
       </c>
       <c r="BJ24" s="1">
-        <v>5.589412</v>
+        <v>5.5894120000000003</v>
       </c>
       <c r="BK24" s="1">
-        <v>1100.250000</v>
+        <v>1100.25</v>
       </c>
       <c r="BL24" s="1">
-        <v>-315.566000</v>
+        <v>-315.56599999999997</v>
       </c>
       <c r="BM24" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="BN24" s="1">
-        <v>20132.920650</v>
+        <v>20132.92065</v>
       </c>
       <c r="BO24" s="1">
-        <v>5.592478</v>
+        <v>5.5924779999999998</v>
       </c>
       <c r="BP24" s="1">
-        <v>1208.980000</v>
+        <v>1208.98</v>
       </c>
       <c r="BQ24" s="1">
-        <v>-501.323000</v>
+        <v>-501.32299999999998</v>
       </c>
       <c r="BR24" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="BS24" s="1">
-        <v>20143.558315</v>
+        <v>20143.558314999998</v>
       </c>
       <c r="BT24" s="1">
-        <v>5.595433</v>
+        <v>5.5954329999999999</v>
       </c>
       <c r="BU24" s="1">
-        <v>1331.490000</v>
+        <v>1331.49</v>
       </c>
       <c r="BV24" s="1">
-        <v>-705.756000</v>
+        <v>-705.75599999999997</v>
       </c>
       <c r="BW24" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="BX24" s="1">
-        <v>20154.795678</v>
+        <v>20154.795677999999</v>
       </c>
       <c r="BY24" s="1">
         <v>5.598554</v>
       </c>
       <c r="BZ24" s="1">
-        <v>1468.540000</v>
+        <v>1468.54</v>
       </c>
       <c r="CA24" s="1">
-        <v>-923.180000</v>
+        <v>-923.18</v>
       </c>
       <c r="CB24" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="CC24" s="1">
-        <v>20168.160380</v>
+        <v>20168.160380000001</v>
       </c>
       <c r="CD24" s="1">
-        <v>5.602267</v>
+        <v>5.6022670000000003</v>
       </c>
       <c r="CE24" s="1">
-        <v>1829.660000</v>
+        <v>1829.66</v>
       </c>
       <c r="CF24" s="1">
-        <v>-1441.640000</v>
+        <v>-1441.64</v>
       </c>
       <c r="CG24" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
     </row>
-    <row r="25">
+    <row r="25" spans="1:85">
       <c r="A25" s="1">
-        <v>19995.938032</v>
+        <v>19995.938031999998</v>
       </c>
       <c r="B25" s="1">
-        <v>5.554427</v>
+        <v>5.5544269999999996</v>
       </c>
       <c r="C25" s="1">
-        <v>895.594000</v>
+        <v>895.59400000000005</v>
       </c>
       <c r="D25" s="1">
-        <v>-200.176000</v>
+        <v>-200.17599999999999</v>
       </c>
       <c r="E25" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="F25" s="1">
         <v>20006.371872</v>
       </c>
       <c r="G25" s="1">
-        <v>5.557326</v>
+        <v>5.5573259999999998</v>
       </c>
       <c r="H25" s="1">
-        <v>913.271000</v>
+        <v>913.27099999999996</v>
       </c>
       <c r="I25" s="1">
-        <v>-169.158000</v>
+        <v>-169.15799999999999</v>
       </c>
       <c r="J25" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="K25" s="1">
-        <v>20016.607779</v>
+        <v>20016.607779000002</v>
       </c>
       <c r="L25" s="1">
-        <v>5.560169</v>
+        <v>5.5601690000000001</v>
       </c>
       <c r="M25" s="1">
-        <v>936.079000</v>
+        <v>936.07899999999995</v>
       </c>
       <c r="N25" s="1">
-        <v>-119.727000</v>
+        <v>-119.727</v>
       </c>
       <c r="O25" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="P25" s="1">
-        <v>20027.506869</v>
+        <v>20027.506869000001</v>
       </c>
       <c r="Q25" s="1">
-        <v>5.563196</v>
+        <v>5.5631959999999996</v>
       </c>
       <c r="R25" s="1">
-        <v>942.723000</v>
+        <v>942.72299999999996</v>
       </c>
       <c r="S25" s="1">
-        <v>-103.395000</v>
+        <v>-103.395</v>
       </c>
       <c r="T25" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="U25" s="1">
-        <v>20037.660013</v>
+        <v>20037.660013000001</v>
       </c>
       <c r="V25" s="1">
-        <v>5.566017</v>
+        <v>5.5660170000000004</v>
       </c>
       <c r="W25" s="1">
-        <v>949.200000</v>
+        <v>949.2</v>
       </c>
       <c r="X25" s="1">
-        <v>-88.527600</v>
+        <v>-88.527600000000007</v>
       </c>
       <c r="Y25" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="Z25" s="1">
-        <v>20047.906330</v>
+        <v>20047.906330000002</v>
       </c>
       <c r="AA25" s="1">
-        <v>5.568863</v>
+        <v>5.5688630000000003</v>
       </c>
       <c r="AB25" s="1">
-        <v>956.026000</v>
+        <v>956.02599999999995</v>
       </c>
       <c r="AC25" s="1">
-        <v>-76.941500</v>
+        <v>-76.941500000000005</v>
       </c>
       <c r="AD25" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="AE25" s="1">
-        <v>20058.085757</v>
+        <v>20058.085757000001</v>
       </c>
       <c r="AF25" s="1">
-        <v>5.571690</v>
+        <v>5.5716900000000003</v>
       </c>
       <c r="AG25" s="1">
-        <v>960.756000</v>
+        <v>960.75599999999997</v>
       </c>
       <c r="AH25" s="1">
-        <v>-74.881700</v>
+        <v>-74.881699999999995</v>
       </c>
       <c r="AI25" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="AJ25" s="1">
-        <v>20068.348485</v>
+        <v>20068.348484999999</v>
       </c>
       <c r="AK25" s="1">
         <v>5.574541</v>
       </c>
       <c r="AL25" s="1">
-        <v>967.970000</v>
+        <v>967.97</v>
       </c>
       <c r="AM25" s="1">
-        <v>-79.809800</v>
+        <v>-79.809799999999996</v>
       </c>
       <c r="AN25" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="AO25" s="1">
         <v>20078.897858</v>
       </c>
       <c r="AP25" s="1">
-        <v>5.577472</v>
+        <v>5.5774720000000002</v>
       </c>
       <c r="AQ25" s="1">
-        <v>976.083000</v>
+        <v>976.08299999999997</v>
       </c>
       <c r="AR25" s="1">
-        <v>-91.605600</v>
+        <v>-91.605599999999995</v>
       </c>
       <c r="AS25" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="AT25" s="1">
-        <v>20089.643682</v>
+        <v>20089.643682000002</v>
       </c>
       <c r="AU25" s="1">
         <v>5.580457</v>
       </c>
       <c r="AV25" s="1">
-        <v>986.024000</v>
+        <v>986.024</v>
       </c>
       <c r="AW25" s="1">
-        <v>-109.482000</v>
+        <v>-109.482</v>
       </c>
       <c r="AX25" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="AY25" s="1">
         <v>20100.633576</v>
       </c>
       <c r="AZ25" s="1">
-        <v>5.583509</v>
+        <v>5.5835090000000003</v>
       </c>
       <c r="BA25" s="1">
-        <v>994.343000</v>
+        <v>994.34299999999996</v>
       </c>
       <c r="BB25" s="1">
-        <v>-125.285000</v>
+        <v>-125.285</v>
       </c>
       <c r="BC25" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="BD25" s="1">
-        <v>20111.596613</v>
+        <v>20111.596613000002</v>
       </c>
       <c r="BE25" s="1">
-        <v>5.586555</v>
+        <v>5.5865549999999997</v>
       </c>
       <c r="BF25" s="1">
-        <v>1033.260000</v>
+        <v>1033.26</v>
       </c>
       <c r="BG25" s="1">
-        <v>-197.870000</v>
+        <v>-197.87</v>
       </c>
       <c r="BH25" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="BI25" s="1">
-        <v>20122.258152</v>
+        <v>20122.258151999999</v>
       </c>
       <c r="BJ25" s="1">
-        <v>5.589516</v>
+        <v>5.5895159999999997</v>
       </c>
       <c r="BK25" s="1">
-        <v>1100.260000</v>
+        <v>1100.26</v>
       </c>
       <c r="BL25" s="1">
-        <v>-315.543000</v>
+        <v>-315.54300000000001</v>
       </c>
       <c r="BM25" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="BN25" s="1">
-        <v>20133.342713</v>
+        <v>20133.342712999998</v>
       </c>
       <c r="BO25" s="1">
-        <v>5.592595</v>
+        <v>5.5925950000000002</v>
       </c>
       <c r="BP25" s="1">
-        <v>1208.980000</v>
+        <v>1208.98</v>
       </c>
       <c r="BQ25" s="1">
-        <v>-501.307000</v>
+        <v>-501.30700000000002</v>
       </c>
       <c r="BR25" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="BS25" s="1">
-        <v>20143.974459</v>
+        <v>20143.974459000001</v>
       </c>
       <c r="BT25" s="1">
         <v>5.595548</v>
       </c>
       <c r="BU25" s="1">
-        <v>1331.550000</v>
+        <v>1331.55</v>
       </c>
       <c r="BV25" s="1">
-        <v>-705.726000</v>
+        <v>-705.726</v>
       </c>
       <c r="BW25" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="BX25" s="1">
         <v>20155.227692</v>
       </c>
       <c r="BY25" s="1">
-        <v>5.598674</v>
+        <v>5.5986739999999999</v>
       </c>
       <c r="BZ25" s="1">
-        <v>1468.590000</v>
+        <v>1468.59</v>
       </c>
       <c r="CA25" s="1">
-        <v>-923.227000</v>
+        <v>-923.22699999999998</v>
       </c>
       <c r="CB25" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="CC25" s="1">
-        <v>20168.698538</v>
+        <v>20168.698538000001</v>
       </c>
       <c r="CD25" s="1">
-        <v>5.602416</v>
+        <v>5.6024159999999998</v>
       </c>
       <c r="CE25" s="1">
-        <v>1829.940000</v>
+        <v>1829.94</v>
       </c>
       <c r="CF25" s="1">
-        <v>-1439.960000</v>
+        <v>-1439.96</v>
       </c>
       <c r="CG25" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
     </row>
-    <row r="26">
+    <row r="26" spans="1:85">
       <c r="A26" s="1">
-        <v>19996.307555</v>
+        <v>19996.307554999999</v>
       </c>
       <c r="B26" s="1">
-        <v>5.554530</v>
+        <v>5.5545299999999997</v>
       </c>
       <c r="C26" s="1">
-        <v>895.614000</v>
+        <v>895.61400000000003</v>
       </c>
       <c r="D26" s="1">
-        <v>-200.153000</v>
+        <v>-200.15299999999999</v>
       </c>
       <c r="E26" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="F26" s="1">
-        <v>20006.750288</v>
+        <v>20006.750287999999</v>
       </c>
       <c r="G26" s="1">
-        <v>5.557431</v>
+        <v>5.5574310000000002</v>
       </c>
       <c r="H26" s="1">
-        <v>913.501000</v>
+        <v>913.50099999999998</v>
       </c>
       <c r="I26" s="1">
-        <v>-169.100000</v>
+        <v>-169.1</v>
       </c>
       <c r="J26" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="K26" s="1">
-        <v>20016.952003</v>
+        <v>20016.952002999999</v>
       </c>
       <c r="L26" s="1">
-        <v>5.560264</v>
+        <v>5.5602640000000001</v>
       </c>
       <c r="M26" s="1">
-        <v>936.160000</v>
+        <v>936.16</v>
       </c>
       <c r="N26" s="1">
-        <v>-119.677000</v>
+        <v>-119.67700000000001</v>
       </c>
       <c r="O26" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="P26" s="1">
-        <v>20027.857573</v>
+        <v>20027.857573000001</v>
       </c>
       <c r="Q26" s="1">
         <v>5.563294</v>
       </c>
       <c r="R26" s="1">
-        <v>942.744000</v>
+        <v>942.74400000000003</v>
       </c>
       <c r="S26" s="1">
-        <v>-103.369000</v>
+        <v>-103.369</v>
       </c>
       <c r="T26" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="U26" s="1">
-        <v>20038.004199</v>
+        <v>20038.004198999999</v>
       </c>
       <c r="V26" s="1">
-        <v>5.566112</v>
+        <v>5.5661120000000004</v>
       </c>
       <c r="W26" s="1">
-        <v>949.222000</v>
+        <v>949.22199999999998</v>
       </c>
       <c r="X26" s="1">
-        <v>-88.600300</v>
+        <v>-88.600300000000004</v>
       </c>
       <c r="Y26" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="Z26" s="1">
-        <v>20048.326939</v>
+        <v>20048.326938999999</v>
       </c>
       <c r="AA26" s="1">
-        <v>5.568980</v>
+        <v>5.5689799999999998</v>
       </c>
       <c r="AB26" s="1">
-        <v>956.201000</v>
+        <v>956.20100000000002</v>
       </c>
       <c r="AC26" s="1">
-        <v>-76.990700</v>
+        <v>-76.990700000000004</v>
       </c>
       <c r="AD26" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="AE26" s="1">
-        <v>20058.378366</v>
+        <v>20058.378366000001</v>
       </c>
       <c r="AF26" s="1">
-        <v>5.571772</v>
+        <v>5.5717720000000002</v>
       </c>
       <c r="AG26" s="1">
-        <v>960.790000</v>
+        <v>960.79</v>
       </c>
       <c r="AH26" s="1">
-        <v>-74.936100</v>
+        <v>-74.936099999999996</v>
       </c>
       <c r="AI26" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="AJ26" s="1">
         <v>20068.641086</v>
       </c>
       <c r="AK26" s="1">
-        <v>5.574623</v>
+        <v>5.5746229999999999</v>
       </c>
       <c r="AL26" s="1">
-        <v>967.979000</v>
+        <v>967.97900000000004</v>
       </c>
       <c r="AM26" s="1">
-        <v>-79.849300</v>
+        <v>-79.849299999999999</v>
       </c>
       <c r="AN26" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="AO26" s="1">
         <v>20079.257953</v>
@@ -6769,135 +7185,136 @@
         <v>5.577572</v>
       </c>
       <c r="AQ26" s="1">
-        <v>976.098000</v>
+        <v>976.09799999999996</v>
       </c>
       <c r="AR26" s="1">
-        <v>-91.606600</v>
+        <v>-91.6066</v>
       </c>
       <c r="AS26" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="AT26" s="1">
-        <v>20090.007746</v>
+        <v>20090.007745999999</v>
       </c>
       <c r="AU26" s="1">
-        <v>5.580558</v>
+        <v>5.5805579999999999</v>
       </c>
       <c r="AV26" s="1">
-        <v>986.013000</v>
+        <v>986.01300000000003</v>
       </c>
       <c r="AW26" s="1">
-        <v>-109.508000</v>
+        <v>-109.508</v>
       </c>
       <c r="AX26" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="AY26" s="1">
-        <v>20100.992776</v>
+        <v>20100.992775999999</v>
       </c>
       <c r="AZ26" s="1">
         <v>5.583609</v>
       </c>
       <c r="BA26" s="1">
-        <v>994.361000</v>
+        <v>994.36099999999999</v>
       </c>
       <c r="BB26" s="1">
-        <v>-125.279000</v>
+        <v>-125.279</v>
       </c>
       <c r="BC26" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="BD26" s="1">
-        <v>20112.315317</v>
+        <v>20112.315317000001</v>
       </c>
       <c r="BE26" s="1">
         <v>5.586754</v>
       </c>
       <c r="BF26" s="1">
-        <v>1033.260000</v>
+        <v>1033.26</v>
       </c>
       <c r="BG26" s="1">
-        <v>-197.873000</v>
+        <v>-197.87299999999999</v>
       </c>
       <c r="BH26" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="BI26" s="1">
         <v>20123.008566</v>
       </c>
       <c r="BJ26" s="1">
-        <v>5.589725</v>
+        <v>5.5897249999999996</v>
       </c>
       <c r="BK26" s="1">
-        <v>1100.300000</v>
+        <v>1100.3</v>
       </c>
       <c r="BL26" s="1">
-        <v>-315.568000</v>
+        <v>-315.56799999999998</v>
       </c>
       <c r="BM26" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="BN26" s="1">
-        <v>20133.737032</v>
+        <v>20133.737032000001</v>
       </c>
       <c r="BO26" s="1">
-        <v>5.592705</v>
+        <v>5.5927049999999996</v>
       </c>
       <c r="BP26" s="1">
-        <v>1208.970000</v>
+        <v>1208.97</v>
       </c>
       <c r="BQ26" s="1">
-        <v>-501.310000</v>
+        <v>-501.31</v>
       </c>
       <c r="BR26" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="BS26" s="1">
-        <v>20144.388978</v>
+        <v>20144.388977999999</v>
       </c>
       <c r="BT26" s="1">
-        <v>5.595664</v>
+        <v>5.5956640000000002</v>
       </c>
       <c r="BU26" s="1">
-        <v>1331.540000</v>
+        <v>1331.54</v>
       </c>
       <c r="BV26" s="1">
-        <v>-705.719000</v>
+        <v>-705.71900000000005</v>
       </c>
       <c r="BW26" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="BX26" s="1">
-        <v>20155.649323</v>
+        <v>20155.649323000001</v>
       </c>
       <c r="BY26" s="1">
-        <v>5.598791</v>
+        <v>5.5987910000000003</v>
       </c>
       <c r="BZ26" s="1">
-        <v>1468.520000</v>
+        <v>1468.52</v>
       </c>
       <c r="CA26" s="1">
-        <v>-923.229000</v>
+        <v>-923.22900000000004</v>
       </c>
       <c r="CB26" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="CC26" s="1">
-        <v>20169.547230</v>
+        <v>20169.54723</v>
       </c>
       <c r="CD26" s="1">
         <v>5.602652</v>
       </c>
       <c r="CE26" s="1">
-        <v>1830.070000</v>
+        <v>1830.07</v>
       </c>
       <c r="CF26" s="1">
-        <v>-1441.530000</v>
+        <v>-1441.53</v>
       </c>
       <c r="CG26" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
     </row>
   </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
 </file>